--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZLaP\Desktop\PFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A849666-FE22-45F4-BF13-E2613A3E8160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6527AB-B25F-40BA-B2E9-8DEBB26A06C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="119">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Publish Calculator</t>
   </si>
   <si>
-    <t>GANTT Diagram</t>
-  </si>
-  <si>
     <t>Formation et étude de l'existant</t>
   </si>
   <si>
@@ -353,9 +350,6 @@
     <t xml:space="preserve">   Conception de la structure de donnée  pour le simulateiur Cloud</t>
   </si>
   <si>
-    <t xml:space="preserve"> Itération 2 : Implémenattion du cloud Simulateur</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Conception de la notion du temps de simulateur</t>
   </si>
   <si>
@@ -374,13 +368,25 @@
     <t xml:space="preserve">   Conception des  des interfaces Configuration, ClientRequest, et Worker</t>
   </si>
   <si>
-    <t xml:space="preserve">   Implémenter ls fonctionnaités de simulateur cloud (Queue,Scaler,LoadBalnacing)</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Décomposition de l'interface CloudSimulator en sous Interfaces</t>
   </si>
   <si>
     <t xml:space="preserve">   Création des interfaces (QueueSimlator,ScalerSimulatro,Orchestrator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Itération 2 : Implémentation du cloud Simulateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Implémenter les fonctionnaités de simulateur cloud (Queue,Scaler,LoadBalnacing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                GANTT Diagram</t>
+  </si>
+  <si>
+    <t>Itération 6 : Affichage des logs</t>
+  </si>
+  <si>
+    <t>Itération 7 : Implémenter les Métriques</t>
   </si>
 </sst>
 </file>
@@ -391,11 +397,18 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="m&quot;/&quot;d"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -558,13 +571,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -581,6 +587,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -812,261 +826,265 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="12" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="12" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="13" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="30" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="31" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
@@ -3183,6 +3201,13 @@
     <row r="50" ht="13.2"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
@@ -3191,13 +3216,6 @@
     <mergeCell ref="U6:Y6"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="P6:T6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J13 J15:J18 J20:J24 J26:J29">
     <cfRule type="colorScale" priority="1">
@@ -3231,13 +3249,13 @@
   </sheetPr>
   <dimension ref="A1:AH57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.109375" customWidth="1"/>
+    <col min="1" max="1" width="113.44140625" customWidth="1"/>
     <col min="2" max="2" width="105.109375" customWidth="1"/>
     <col min="3" max="3" width="26.88671875" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
@@ -3319,14 +3337,14 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="30" customHeight="1">
-      <c r="A3" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
+      <c r="A3" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -3390,19 +3408,19 @@
     </row>
     <row r="5" spans="1:32" ht="14.4">
       <c r="A5" s="110"/>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="E5" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="116"/>
+      <c r="F5" s="118"/>
       <c r="L5" s="113"/>
       <c r="M5" s="111"/>
       <c r="N5" s="111"/>
@@ -3427,11 +3445,11 @@
     </row>
     <row r="6" spans="1:32" ht="12.6" customHeight="1">
       <c r="A6" s="111"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="120"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="116"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="76"/>
       <c r="H6" s="76"/>
       <c r="I6" s="76"/>
@@ -3461,12 +3479,12 @@
     </row>
     <row r="7" spans="1:32" ht="21">
       <c r="B7" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99" t="s">
-        <v>111</v>
+        <v>70</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98" t="s">
+        <v>109</v>
       </c>
       <c r="F7" s="88"/>
       <c r="G7" s="77"/>
@@ -3499,18 +3517,18 @@
     <row r="8" spans="1:32" ht="10.199999999999999" customHeight="1">
       <c r="B8" s="93"/>
       <c r="C8" s="86"/>
-      <c r="D8" s="100"/>
+      <c r="D8" s="99"/>
       <c r="E8" s="86"/>
       <c r="F8" s="88"/>
     </row>
     <row r="9" spans="1:32" ht="16.8" customHeight="1">
       <c r="B9" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="102" t="s">
+        <v>72</v>
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="80"/>
@@ -3542,12 +3560,12 @@
     </row>
     <row r="10" spans="1:32" ht="17.399999999999999" customHeight="1">
       <c r="B10" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102" t="s">
+        <v>72</v>
       </c>
       <c r="F10" s="88"/>
       <c r="G10" s="80"/>
@@ -3579,12 +3597,12 @@
     </row>
     <row r="11" spans="1:32" ht="15.6" customHeight="1">
       <c r="B11" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="104" t="s">
-        <v>112</v>
+        <v>81</v>
+      </c>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="103" t="s">
+        <v>110</v>
       </c>
       <c r="F11" s="88"/>
       <c r="G11" s="80"/>
@@ -3616,15 +3634,15 @@
     </row>
     <row r="12" spans="1:32" ht="15" customHeight="1">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="104" t="s">
-        <v>112</v>
+        <v>82</v>
+      </c>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="103" t="s">
+        <v>110</v>
       </c>
       <c r="F12" s="88"/>
       <c r="G12" s="81"/>
@@ -3634,16 +3652,16 @@
       <c r="K12" s="81"/>
     </row>
     <row r="13" spans="1:32" ht="20.399999999999999">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="109" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="109" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="108" t="s">
+        <v>72</v>
       </c>
       <c r="F13" s="88"/>
       <c r="G13" s="81"/>
@@ -3654,19 +3672,19 @@
     </row>
     <row r="14" spans="1:32" ht="11.4" customHeight="1">
       <c r="B14" s="93"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="86"/>
       <c r="F14" s="88"/>
     </row>
     <row r="15" spans="1:32" ht="17.399999999999999" customHeight="1">
       <c r="B15" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="104" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="103" t="s">
+        <v>73</v>
       </c>
       <c r="F15" s="88"/>
       <c r="G15" s="81"/>
@@ -3677,12 +3695,12 @@
     </row>
     <row r="16" spans="1:32" ht="15.6" customHeight="1">
       <c r="B16" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="104" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="103" t="s">
+        <v>74</v>
       </c>
       <c r="F16" s="88"/>
       <c r="G16" s="81"/>
@@ -3693,12 +3711,12 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
       <c r="B17" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="104" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="103" t="s">
+        <v>74</v>
       </c>
       <c r="F17" s="88"/>
       <c r="G17" s="81"/>
@@ -3708,16 +3726,16 @@
       <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" ht="20.399999999999999">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="109" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="109" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="130" t="s">
+        <v>72</v>
       </c>
       <c r="F18" s="88"/>
       <c r="G18" s="81"/>
@@ -3727,10 +3745,10 @@
       <c r="K18" s="81"/>
     </row>
     <row r="19" spans="1:11" s="72" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A19" s="52"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="93"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="86"/>
       <c r="F19" s="88"/>
       <c r="G19" s="81"/>
@@ -3739,13 +3757,13 @@
       <c r="J19" s="81"/>
       <c r="K19" s="81"/>
     </row>
-    <row r="20" spans="1:11" s="106" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A20" s="52"/>
+    <row r="20" spans="1:11" s="105" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A20" s="109"/>
       <c r="B20" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
+        <v>102</v>
+      </c>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="86"/>
       <c r="F20" s="88"/>
       <c r="G20" s="83"/>
@@ -3756,11 +3774,11 @@
     </row>
     <row r="21" spans="1:11" ht="16.2" customHeight="1">
       <c r="B21" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="104"/>
+        <v>103</v>
+      </c>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="103"/>
       <c r="F21" s="88"/>
       <c r="G21" s="81"/>
       <c r="H21" s="81"/>
@@ -3770,11 +3788,11 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" customHeight="1">
       <c r="B22" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="104"/>
+        <v>104</v>
+      </c>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="103"/>
       <c r="F22" s="88"/>
       <c r="G22" s="81"/>
       <c r="H22" s="81"/>
@@ -3784,11 +3802,11 @@
     </row>
     <row r="23" spans="1:11" s="82" customFormat="1" ht="15.6" customHeight="1">
       <c r="B23" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="104"/>
+        <v>111</v>
+      </c>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="103"/>
       <c r="F23" s="88"/>
       <c r="G23" s="83"/>
       <c r="H23" s="83"/>
@@ -3798,11 +3816,11 @@
     </row>
     <row r="24" spans="1:11" s="82" customFormat="1" ht="16.2" customHeight="1">
       <c r="B24" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="104"/>
+        <v>83</v>
+      </c>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="103"/>
       <c r="F24" s="88"/>
       <c r="G24" s="83"/>
       <c r="H24" s="83"/>
@@ -3812,11 +3830,11 @@
     </row>
     <row r="25" spans="1:11" s="72" customFormat="1" ht="15.6" customHeight="1">
       <c r="B25" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="104"/>
+        <v>93</v>
+      </c>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="103"/>
       <c r="F25" s="88"/>
       <c r="G25" s="81"/>
       <c r="H25" s="81"/>
@@ -3827,12 +3845,12 @@
     <row r="26" spans="1:11" ht="19.8" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="99" t="s">
-        <v>101</v>
+        <v>114</v>
+      </c>
+      <c r="C26" s="98"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="98" t="s">
+        <v>72</v>
       </c>
       <c r="F26" s="88"/>
       <c r="G26" s="81"/>
@@ -3857,7 +3875,7 @@
     <row r="28" spans="1:11" s="84" customFormat="1" ht="14.4" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="87"/>
       <c r="D28" s="87"/>
@@ -3872,7 +3890,7 @@
     <row r="29" spans="1:11" s="82" customFormat="1" ht="15.6" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
@@ -3887,7 +3905,7 @@
     <row r="30" spans="1:11" s="75" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="87"/>
       <c r="D30" s="87"/>
@@ -3900,13 +3918,13 @@
       <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="15.6">
-      <c r="B31" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="107" t="s">
-        <v>74</v>
+      <c r="B31" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="106" t="s">
+        <v>73</v>
       </c>
       <c r="F31" s="88"/>
     </row>
@@ -3914,36 +3932,37 @@
       <c r="B32" s="93"/>
       <c r="F32" s="88"/>
     </row>
-    <row r="33" spans="2:34" ht="15.6">
+    <row r="33" spans="1:34" ht="15.6">
       <c r="B33" s="93" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F33" s="88"/>
     </row>
-    <row r="34" spans="2:34" ht="15.6">
+    <row r="34" spans="1:34" ht="15.6">
       <c r="B34" s="93" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F34" s="88"/>
     </row>
-    <row r="35" spans="2:34" ht="15.6">
+    <row r="35" spans="1:34" ht="15.6">
       <c r="B35" s="93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="88"/>
     </row>
-    <row r="36" spans="2:34" ht="15" customHeight="1">
+    <row r="36" spans="1:34" ht="15" customHeight="1">
       <c r="B36" s="93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="88"/>
     </row>
-    <row r="37" spans="2:34" s="85" customFormat="1" ht="19.8" customHeight="1">
-      <c r="B37" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="108" t="s">
-        <v>101</v>
+    <row r="37" spans="1:34" s="85" customFormat="1" ht="19.8" customHeight="1">
+      <c r="A37" s="109"/>
+      <c r="B37" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>100</v>
       </c>
       <c r="F37" s="88"/>
       <c r="G37" s="88"/>
@@ -3975,108 +3994,123 @@
       <c r="AG37" s="88"/>
       <c r="AH37" s="88"/>
     </row>
-    <row r="38" spans="2:34" ht="15.6">
+    <row r="38" spans="1:34" ht="15.6">
       <c r="B38" s="93"/>
       <c r="F38" s="88"/>
     </row>
-    <row r="39" spans="2:34" ht="15.6">
+    <row r="39" spans="1:34" ht="15.6">
       <c r="B39" s="93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F39" s="88"/>
     </row>
-    <row r="40" spans="2:34" ht="16.8" customHeight="1">
+    <row r="40" spans="1:34" ht="16.8" customHeight="1">
       <c r="B40" s="93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F40" s="88"/>
     </row>
-    <row r="41" spans="2:34" ht="15.6" customHeight="1">
+    <row r="41" spans="1:34" ht="15.6" customHeight="1">
       <c r="B41" s="93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41" s="88"/>
     </row>
-    <row r="42" spans="2:34" s="84" customFormat="1" ht="15.6" customHeight="1">
+    <row r="42" spans="1:34" s="84" customFormat="1" ht="15.6" customHeight="1">
       <c r="B42" s="93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F42" s="88"/>
     </row>
-    <row r="43" spans="2:34" ht="15" customHeight="1">
+    <row r="43" spans="1:34" ht="15" customHeight="1">
       <c r="B43" s="93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F43" s="88"/>
     </row>
-    <row r="44" spans="2:34" ht="13.2" customHeight="1">
+    <row r="44" spans="1:34" ht="13.2" customHeight="1">
       <c r="B44" s="93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" s="88"/>
     </row>
-    <row r="45" spans="2:34" s="89" customFormat="1" ht="21" customHeight="1">
-      <c r="B45" s="97" t="s">
-        <v>97</v>
+    <row r="45" spans="1:34" s="89" customFormat="1" ht="21" customHeight="1">
+      <c r="B45" s="96" t="s">
+        <v>96</v>
       </c>
       <c r="C45" s="85"/>
       <c r="D45" s="85"/>
-      <c r="E45" s="108" t="s">
-        <v>101</v>
+      <c r="E45" s="107" t="s">
+        <v>100</v>
       </c>
       <c r="F45" s="88"/>
     </row>
-    <row r="46" spans="2:34" ht="14.4" customHeight="1">
+    <row r="46" spans="1:34" ht="14.4" customHeight="1">
       <c r="B46" s="93"/>
       <c r="F46" s="88"/>
     </row>
-    <row r="47" spans="2:34" s="106" customFormat="1" ht="15.6" customHeight="1">
+    <row r="47" spans="1:34" s="105" customFormat="1" ht="15.6" customHeight="1">
       <c r="B47" s="93" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F47" s="88"/>
     </row>
-    <row r="48" spans="2:34" ht="15.75" customHeight="1">
+    <row r="48" spans="1:34" ht="15.75" customHeight="1">
       <c r="B48" s="93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F48" s="88"/>
     </row>
     <row r="49" spans="2:6" ht="15.75" customHeight="1">
       <c r="B49" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F49" s="88"/>
     </row>
     <row r="50" spans="2:6" ht="15.75" customHeight="1">
       <c r="B50" s="93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F50" s="88"/>
     </row>
     <row r="51" spans="2:6" s="84" customFormat="1" ht="15.75" customHeight="1">
       <c r="B51" s="93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F51" s="88"/>
     </row>
     <row r="52" spans="2:6" ht="15.75" customHeight="1">
       <c r="B52" s="93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F52" s="88"/>
     </row>
     <row r="53" spans="2:6" ht="15.75" customHeight="1">
       <c r="B53" s="93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F53" s="88"/>
     </row>
-    <row r="54" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B54" s="95"/>
+    <row r="54" spans="2:6" ht="20.399999999999999" customHeight="1">
+      <c r="B54" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="108" t="s">
+        <v>73</v>
+      </c>
       <c r="F54" s="88"/>
     </row>
-    <row r="55" spans="2:6" ht="15.75" customHeight="1">
+    <row r="55" spans="2:6" ht="21" customHeight="1">
+      <c r="B55" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="130" t="s">
+        <v>100</v>
+      </c>
       <c r="F55" s="88"/>
     </row>
     <row r="56" spans="2:6" ht="15.75" customHeight="1">
@@ -4087,17 +4121,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="AA5:AE5"/>
     <mergeCell ref="V5:Z5"/>
     <mergeCell ref="Q5:U5"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="F9">
     <cfRule type="colorScale" priority="4">
@@ -4308,15 +4342,15 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -4533,93 +4567,93 @@
       <c r="F6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="124" t="s">
+      <c r="H6" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="126" t="s">
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="124" t="s">
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="126" t="s">
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="124" t="s">
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="126" t="s">
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125"/>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="124" t="s">
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="122"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="125"/>
-      <c r="AP6" s="125"/>
-      <c r="AQ6" s="126" t="s">
+      <c r="AM6" s="122"/>
+      <c r="AN6" s="122"/>
+      <c r="AO6" s="122"/>
+      <c r="AP6" s="122"/>
+      <c r="AQ6" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="125"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="125"/>
-      <c r="AU6" s="125"/>
-      <c r="AV6" s="124" t="s">
+      <c r="AR6" s="122"/>
+      <c r="AS6" s="122"/>
+      <c r="AT6" s="122"/>
+      <c r="AU6" s="122"/>
+      <c r="AV6" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="125"/>
-      <c r="AX6" s="125"/>
-      <c r="AY6" s="125"/>
-      <c r="AZ6" s="125"/>
-      <c r="BA6" s="126" t="s">
+      <c r="AW6" s="122"/>
+      <c r="AX6" s="122"/>
+      <c r="AY6" s="122"/>
+      <c r="AZ6" s="122"/>
+      <c r="BA6" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="125"/>
-      <c r="BC6" s="125"/>
-      <c r="BD6" s="125"/>
-      <c r="BE6" s="125"/>
-      <c r="BF6" s="124" t="s">
+      <c r="BB6" s="122"/>
+      <c r="BC6" s="122"/>
+      <c r="BD6" s="122"/>
+      <c r="BE6" s="122"/>
+      <c r="BF6" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="125"/>
-      <c r="BH6" s="125"/>
-      <c r="BI6" s="125"/>
-      <c r="BJ6" s="125"/>
-      <c r="BK6" s="126" t="s">
+      <c r="BG6" s="122"/>
+      <c r="BH6" s="122"/>
+      <c r="BI6" s="122"/>
+      <c r="BJ6" s="122"/>
+      <c r="BK6" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="125"/>
-      <c r="BM6" s="125"/>
-      <c r="BN6" s="125"/>
-      <c r="BO6" s="125"/>
+      <c r="BL6" s="122"/>
+      <c r="BM6" s="122"/>
+      <c r="BN6" s="122"/>
+      <c r="BO6" s="122"/>
     </row>
     <row r="7" spans="1:67" ht="14.4">
       <c r="A7" s="111"/>
@@ -4628,7 +4662,7 @@
       <c r="D7" s="111"/>
       <c r="E7" s="111"/>
       <c r="F7" s="111"/>
-      <c r="G7" s="129"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -4815,11 +4849,11 @@
         <v>24</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -5366,11 +5400,11 @@
         <v>36</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
@@ -5761,11 +5795,11 @@
         <v>41</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
@@ -6318,11 +6352,11 @@
         <v>48</v>
       </c>
       <c r="B27" s="35"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
@@ -9689,6 +9723,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="BF6:BJ6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="W6:AA6"/>
     <mergeCell ref="BK6:BO6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A3:G3"/>
@@ -9705,14 +9747,6 @@
     <mergeCell ref="AG6:AK6"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="R6:V6"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="BF6:BJ6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="W6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:G14 G16:G19 G21:G26 G28:G31">
     <cfRule type="colorScale" priority="1">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZLaP\Desktop\PFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6527AB-B25F-40BA-B2E9-8DEBB26A06C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6A9C69-60C5-464A-9A73-07DC1D24241F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="164">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -248,145 +248,292 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t xml:space="preserve"> Spécifications générales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Identification des besoins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Spécifications  fonctionnelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Comprendre le fonctionnement  de service scaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Comprendre le fonctionnement  de service watcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Comprendre l'architecture Microservice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Formation C#,Solid,UnitTesting …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Les tests d'intégration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   les tests unitaires  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   les tests d'integration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">START DATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">END DATE </t>
+  </si>
+  <si>
+    <t>WORK DAYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Les tests unitaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Intégrer IConfigurationHlder à la solution existante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Documentation sur l'objet de configuration Json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Extraire une unité de configuration à partir d'un fichier Json  </t>
+  </si>
+  <si>
+    <t>10jours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                GANTT Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Spécifications Techniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Conception des interfaces : Configuration, ClientRequest, et Worker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Implémentation des interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Analyse des événements de la queue (enqueue, dequeue,...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Conception de l'objet simulateur (StartSimulation,EndSimulation)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Analyse des fonctionnalités de base de service de scaling (ScaleUp,ScaleDown, GetNextScalingDate ...)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   Gérer les dépendances du temps entre les différentes interfaces (Injecter la dépendance du temps)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Les tests unitaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Conception de l'interface MetricCloud (getIdleTime,GetCost...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Conception de l'objet Orchestrator (GetNextEvent...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Générer le fichier de résultas des workers : workers_result.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Générer un fichier de résultas des requestes : requests_Result.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Implémentation de l'interface MetricCloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Génération de fichier pour les metrics Cloud : metrics.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Les tests d'intégration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Benchmarking Métriques cloud les plus expressives</t>
+  </si>
+  <si>
+    <t>14/2/2020</t>
+  </si>
+  <si>
+    <t>5jours</t>
+  </si>
+  <si>
+    <t>15/5/2020</t>
+  </si>
+  <si>
+    <t>18/5/2020</t>
+  </si>
+  <si>
+    <t>22/5/2020</t>
+  </si>
+  <si>
+    <t>25/5/2020</t>
+  </si>
+  <si>
+    <t>29/5/2020</t>
+  </si>
+  <si>
+    <t>Tests de validation</t>
+  </si>
+  <si>
+    <t>15/6/2020</t>
+  </si>
+  <si>
+    <t>19/6/2020</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Manuel d'utilisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Manuel de référence</t>
+  </si>
+  <si>
+    <t>22/6/2020</t>
+  </si>
+  <si>
+    <t>26/6/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Test de validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Retour d'expérience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Documentation sur le fonctionnement d'un worker cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Extraction des requêtes clients à partir d'un fichier csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Itération 1 : Récupération des données &amp; implémentation des objets de base</t>
+  </si>
+  <si>
+    <t>10 jours</t>
+  </si>
+  <si>
+    <t>21/2/2020</t>
+  </si>
+  <si>
+    <t>17/2/2020</t>
+  </si>
+  <si>
+    <t>20/2/2020</t>
+  </si>
+  <si>
+    <t>4jours</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Itération 2 : Implémentation du simulaterQueue &amp; simulaterWorkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Analyse des fonctionnalités  de CloudWorkers (addWorker, shutDownWorker, AffectRequest…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Conception de l'interface SimulaterQueue &amp; SimulaterWorkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Implémenter l'interface SimulaterCloud &amp; SimulaterWorkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Conception de l'interface SilulationResultPrinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Implémenatation de SimulationResultPrinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Afficher les de la simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Itération 3 : Implémenter le ScalerSimulater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Conception de l'objet ScalerSimulater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Implémenter l'interface ScalerSimulater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Implémenter l'objet DateTimeSimulater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Extension de l'objet configuration pour  couvrir les jours de la semaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Implémenter  l'interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Conception de l'interface IConfigurationHolder qui représente une configuration hebdomadaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Itération 4 : Implémenter Simulator &amp; Orchestrator &amp; Commencer les tests d'intégration</t>
+  </si>
+  <si>
+    <t>Itération 7 : Implémenter les Métriques</t>
+  </si>
+  <si>
+    <t>Itération 6 :Implémentation du Simulation ResultPrinter</t>
+  </si>
+  <si>
     <t>7jours</t>
   </si>
   <si>
-    <t>3jours</t>
-  </si>
-  <si>
-    <t>4jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spécifications générales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Identification des besoins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Spécifications  fonctionnelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Spécifications non fonctionnelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Comprendre le fonctionnement  de service scaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Comprendre le fonctionnement  de service watcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Comprendre l'architecture Microservice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Formation C#,Solid,UnitTesting …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Implémenter les interfaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Les tests d'intégration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Gérer les dépendances du temps entre les différentes interfaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Itération 3 : Refactoring du code &amp; Adaptation aux normes SOLID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Implémentetr l'interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   les tests unitaires  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   les tests d'integration </t>
-  </si>
-  <si>
-    <t xml:space="preserve">START DATE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">END DATE </t>
-  </si>
-  <si>
-    <t>WORK DAYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Les tests unitaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Générer le fichier des résults des workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Itération 4 : Afficher l'état des workers et Implémenter les testes d'intégration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Itération 5 : Extendre la configuration et Afficher le temps d'exécution des requetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Intégrer IConfigurationHlder à la solution existante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Générer un fichier qui contient le temps d'exécution et le temps d'attente de chaque requete </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Itération 1 : Implémentation des fonctionnalités de base</t>
-  </si>
-  <si>
-    <t>8jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Création de l'interface IConfigurationHolder qui représente une configuration hebdomadaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Documentation sur l'objet de configuration Json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Extraction des  requetes clients à partir d'un fichier csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Extraire une unité de configuration à partir d'un fichier Json  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Conception de la structure de donnée  pour le simulateiur Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Conception de la notion du temps de simulateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Implémenter les fonctionnalités du temps (GetTime,SetTime,addSeconds...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Extension de l'objet configuartion pour  couvrir les jours de la semaine</t>
-  </si>
-  <si>
-    <t>10 jours</t>
-  </si>
-  <si>
-    <t>10jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Conception des  des interfaces Configuration, ClientRequest, et Worker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Décomposition de l'interface CloudSimulator en sous Interfaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Création des interfaces (QueueSimlator,ScalerSimulatro,Orchestrator)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Itération 2 : Implémentation du cloud Simulateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Implémenter les fonctionnaités de simulateur cloud (Queue,Scaler,LoadBalnacing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                GANTT Diagram</t>
-  </si>
-  <si>
-    <t>Itération 6 : Affichage des logs</t>
-  </si>
-  <si>
-    <t>Itération 7 : Implémenter les Métriques</t>
+    <t>20/3/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Documentation sur la tarification de Azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Itération 5 : Extendre l'objet de configuration : IConfigurationHolderHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Générer un fichier de résultas des requestes : rmetrics_Result.csv</t>
+  </si>
+  <si>
+    <t>Warning : Suspension à cause de la pandémie Covid 19 (20/03 et 04/05)</t>
+  </si>
+  <si>
+    <t>25/6/2020</t>
+  </si>
+  <si>
+    <t>Itération 6 : Implémenter les Métriques</t>
+  </si>
+  <si>
+    <t>Itération 7 :Implémentation du Simulation ResultPrinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Conception de l'interface SimulationResultPrinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Afficher les résultats de la simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Implémentation de SimulationResultPrinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Générer un fichier de résultats des requestes : rmetrics_Result.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Générer un fichier de résultats des requestes : requests_Result.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Générer le fichier de résultats des workers : workers_result.csv</t>
   </si>
 </sst>
 </file>
@@ -397,25 +544,11 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="m&quot;/&quot;d"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -527,23 +660,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF434343"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -551,50 +667,97 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF434343"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="17">
@@ -824,271 +987,351 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="11" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="13" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="11" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="29" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="30" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="23" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="35" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="31" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Warning Text" xfId="2" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2293,80 +2536,80 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:36" ht="14.4">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110" t="s">
+      <c r="A6" s="147"/>
+      <c r="B6" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="113"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="113" t="s">
+      <c r="K6" s="150"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="112" t="s">
+      <c r="Q6" s="148"/>
+      <c r="R6" s="148"/>
+      <c r="S6" s="148"/>
+      <c r="T6" s="148"/>
+      <c r="U6" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="113" t="s">
+      <c r="V6" s="148"/>
+      <c r="W6" s="148"/>
+      <c r="X6" s="148"/>
+      <c r="Y6" s="148"/>
+      <c r="Z6" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="112" t="s">
+      <c r="AA6" s="148"/>
+      <c r="AB6" s="148"/>
+      <c r="AC6" s="148"/>
+      <c r="AD6" s="148"/>
+      <c r="AE6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="148"/>
+      <c r="AH6" s="148"/>
+      <c r="AI6" s="148"/>
       <c r="AJ6" s="49"/>
     </row>
     <row r="7" spans="1:36" ht="14.4">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
+      <c r="A7" s="148"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
       <c r="M7" s="49"/>
@@ -3247,18 +3490,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH57"/>
+  <dimension ref="A1:AH145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="113.44140625" customWidth="1"/>
-    <col min="2" max="2" width="105.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="155" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="121" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" style="121" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" customWidth="1"/>
     <col min="6" max="6" width="29.5546875" customWidth="1"/>
     <col min="7" max="8" width="7.33203125" customWidth="1"/>
@@ -3271,8 +3514,8 @@
     <row r="1" spans="1:32" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
@@ -3305,8 +3548,8 @@
     <row r="2" spans="1:32" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="122"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -3337,14 +3580,14 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="30" customHeight="1">
-      <c r="A3" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
+      <c r="A3" s="154" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -3372,12 +3615,12 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
     </row>
-    <row r="4" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:32" ht="15.6" customHeight="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3406,50 +3649,50 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="14.4">
-      <c r="A5" s="110"/>
-      <c r="B5" s="114" t="s">
+    <row r="5" spans="1:32" ht="30.6" customHeight="1">
+      <c r="A5" s="151"/>
+      <c r="B5" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="119" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="118"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="111"/>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="111"/>
+      <c r="C5" s="152" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="158" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="157" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="156"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="149"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="148"/>
       <c r="AF5" s="49"/>
     </row>
     <row r="6" spans="1:32" ht="12.6" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="118"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="156"/>
       <c r="G6" s="76"/>
       <c r="H6" s="76"/>
       <c r="I6" s="76"/>
@@ -3477,16 +3720,21 @@
       <c r="AE6" s="49"/>
       <c r="AF6" s="49"/>
     </row>
-    <row r="7" spans="1:32" ht="21">
-      <c r="B7" s="91" t="s">
+    <row r="7" spans="1:32" ht="23.4">
+      <c r="A7" s="93"/>
+      <c r="B7" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="88"/>
+      <c r="C7" s="99">
+        <v>43892</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="86"/>
       <c r="G7" s="77"/>
       <c r="H7" s="78"/>
       <c r="I7" s="79"/>
@@ -3514,23 +3762,23 @@
       <c r="AE7" s="54"/>
       <c r="AF7" s="54"/>
     </row>
-    <row r="8" spans="1:32" ht="10.199999999999999" customHeight="1">
-      <c r="B8" s="93"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="88"/>
-    </row>
-    <row r="9" spans="1:32" ht="16.8" customHeight="1">
+    <row r="8" spans="1:32" ht="15.6" customHeight="1">
+      <c r="A8" s="93"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="86"/>
+    </row>
+    <row r="9" spans="1:32" ht="23.4" customHeight="1">
+      <c r="A9" s="93"/>
       <c r="B9" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="88"/>
+        <v>75</v>
+      </c>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="80"/>
       <c r="H9" s="80"/>
       <c r="I9" s="80"/>
@@ -3558,16 +3806,15 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" ht="17.399999999999999" customHeight="1">
+    <row r="10" spans="1:32" ht="25.2" customHeight="1">
+      <c r="A10" s="93"/>
       <c r="B10" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="88"/>
+        <v>76</v>
+      </c>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="80"/>
       <c r="H10" s="80"/>
       <c r="I10" s="80"/>
@@ -3595,16 +3842,15 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" ht="15.6" customHeight="1">
+    <row r="11" spans="1:32" ht="26.4" customHeight="1">
+      <c r="A11" s="93"/>
       <c r="B11" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="88"/>
+        <v>77</v>
+      </c>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="80"/>
       <c r="H11" s="80"/>
       <c r="I11" s="80"/>
@@ -3632,492 +3878,1263 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" ht="15" customHeight="1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:32" ht="25.8" customHeight="1">
+      <c r="A12" s="93" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="88"/>
+        <v>78</v>
+      </c>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="81"/>
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
     </row>
-    <row r="13" spans="1:32" ht="20.399999999999999">
-      <c r="A13" s="109" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="108" t="s">
+    <row r="13" spans="1:32" s="136" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A13" s="137"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+    </row>
+    <row r="14" spans="1:32" ht="26.4" customHeight="1">
+      <c r="A14" s="106"/>
+      <c r="B14" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-    </row>
-    <row r="14" spans="1:32" ht="11.4" customHeight="1">
-      <c r="B14" s="93"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="88"/>
-    </row>
-    <row r="15" spans="1:32" ht="17.399999999999999" customHeight="1">
-      <c r="B15" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="103" t="s">
+      <c r="C14" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="86"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+    </row>
+    <row r="15" spans="1:32" ht="13.2" customHeight="1">
+      <c r="A15" s="93"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="86"/>
+    </row>
+    <row r="16" spans="1:32" ht="26.4" customHeight="1">
+      <c r="A16" s="93"/>
+      <c r="B16" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-    </row>
-    <row r="16" spans="1:32" ht="15.6" customHeight="1">
-      <c r="B16" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="88"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="81"/>
       <c r="H16" s="81"/>
       <c r="I16" s="81"/>
       <c r="J16" s="81"/>
       <c r="K16" s="81"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1">
+    <row r="17" spans="1:11" ht="24.6" customHeight="1">
+      <c r="A17" s="93"/>
       <c r="B17" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="88"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="81"/>
       <c r="H17" s="81"/>
       <c r="I17" s="81"/>
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
     </row>
-    <row r="18" spans="1:11" ht="20.399999999999999">
-      <c r="A18" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="88"/>
+    <row r="18" spans="1:11" ht="25.8" customHeight="1">
+      <c r="A18" s="93"/>
+      <c r="B18" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="81"/>
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
       <c r="J18" s="81"/>
       <c r="K18" s="81"/>
     </row>
-    <row r="19" spans="1:11" s="72" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A19" s="109"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-    </row>
-    <row r="20" spans="1:11" s="105" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A20" s="109"/>
-      <c r="B20" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.2" customHeight="1">
-      <c r="B21" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="88"/>
+    <row r="19" spans="1:11" s="136" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A19" s="137"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+    </row>
+    <row r="20" spans="1:11" ht="26.4" customHeight="1">
+      <c r="A20" s="106"/>
+      <c r="B20" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="99">
+        <v>43864</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="86"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+    </row>
+    <row r="21" spans="1:11" s="72" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A21" s="106"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="81"/>
       <c r="H21" s="81"/>
       <c r="I21" s="81"/>
       <c r="J21" s="81"/>
       <c r="K21" s="81"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" customHeight="1">
-      <c r="B22" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-    </row>
-    <row r="23" spans="1:11" s="82" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B23" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="88"/>
+    <row r="22" spans="1:11" s="91" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A22" s="106"/>
+      <c r="B22" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+    </row>
+    <row r="23" spans="1:11" s="88" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A23" s="106"/>
+      <c r="B23" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="86"/>
       <c r="G23" s="83"/>
       <c r="H23" s="83"/>
       <c r="I23" s="83"/>
       <c r="J23" s="83"/>
       <c r="K23" s="83"/>
     </row>
-    <row r="24" spans="1:11" s="82" customFormat="1" ht="16.2" customHeight="1">
+    <row r="24" spans="1:11" ht="24" customHeight="1">
+      <c r="A24" s="93"/>
       <c r="B24" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-    </row>
-    <row r="25" spans="1:11" s="72" customFormat="1" ht="15.6" customHeight="1">
+        <v>125</v>
+      </c>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+    </row>
+    <row r="25" spans="1:11" ht="25.2" customHeight="1">
+      <c r="A25" s="93"/>
       <c r="B25" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="88"/>
+        <v>88</v>
+      </c>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="81"/>
       <c r="H25" s="81"/>
       <c r="I25" s="81"/>
       <c r="J25" s="81"/>
       <c r="K25" s="81"/>
     </row>
-    <row r="26" spans="1:11" ht="19.8" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-    </row>
-    <row r="27" spans="1:11" ht="12.6" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-    </row>
-    <row r="28" spans="1:11" s="84" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-    </row>
-    <row r="29" spans="1:11" s="82" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-    </row>
-    <row r="30" spans="1:11" s="75" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="94" t="s">
+    <row r="26" spans="1:11" s="82" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A26" s="93"/>
+      <c r="B26" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+    </row>
+    <row r="27" spans="1:11" s="82" customFormat="1" ht="24" customHeight="1">
+      <c r="A27" s="93"/>
+      <c r="B27" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+    </row>
+    <row r="28" spans="1:11" s="72" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A28" s="93"/>
+      <c r="B28" s="128" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+    </row>
+    <row r="29" spans="1:11" ht="24" customHeight="1">
+      <c r="A29" s="108"/>
+      <c r="B29" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="99">
+        <v>43892</v>
+      </c>
+      <c r="D29" s="99">
+        <v>44138</v>
+      </c>
+      <c r="E29" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="86"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.6" customHeight="1">
+      <c r="A30" s="108"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="86"/>
       <c r="G30" s="81"/>
       <c r="H30" s="81"/>
       <c r="I30" s="81"/>
       <c r="J30" s="81"/>
       <c r="K30" s="81"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6">
-      <c r="B31" s="95" t="s">
+    <row r="31" spans="1:11" s="89" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A31" s="108"/>
+      <c r="B31" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+    </row>
+    <row r="32" spans="1:11" s="91" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A32" s="108"/>
+      <c r="B32" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+    </row>
+    <row r="33" spans="1:34" s="84" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A33" s="108"/>
+      <c r="B33" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+    </row>
+    <row r="34" spans="1:34" s="82" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A34" s="108"/>
+      <c r="B34" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+    </row>
+    <row r="35" spans="1:34" s="75" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A35" s="108"/>
+      <c r="B35" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+    </row>
+    <row r="36" spans="1:34" s="89" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A36" s="108"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+    </row>
+    <row r="37" spans="1:34" ht="23.4">
+      <c r="A37" s="93"/>
+      <c r="B37" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="119">
+        <v>44168</v>
+      </c>
+      <c r="D37" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="86"/>
+    </row>
+    <row r="38" spans="1:34" s="89" customFormat="1" ht="22.8">
+      <c r="A38" s="93"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="90"/>
+    </row>
+    <row r="39" spans="1:34" s="90" customFormat="1" ht="23.4">
+      <c r="A39" s="106"/>
+      <c r="B39" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="106"/>
+    </row>
+    <row r="40" spans="1:34" ht="23.4">
+      <c r="A40" s="93"/>
+      <c r="B40" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="86"/>
+    </row>
+    <row r="41" spans="1:34" ht="25.8" customHeight="1">
+      <c r="A41" s="93"/>
+      <c r="B41" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="86"/>
+    </row>
+    <row r="42" spans="1:34" ht="24" customHeight="1">
+      <c r="A42" s="93"/>
+      <c r="B42" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="86"/>
+    </row>
+    <row r="43" spans="1:34" s="136" customFormat="1" ht="24" customHeight="1">
+      <c r="A43" s="137"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="138"/>
+    </row>
+    <row r="44" spans="1:34" s="89" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="A44" s="93"/>
+      <c r="B44" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="90"/>
+    </row>
+    <row r="45" spans="1:34" s="85" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A45" s="106"/>
+      <c r="B45" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="119">
+        <v>43926</v>
+      </c>
+      <c r="D45" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="86"/>
+      <c r="P45" s="86"/>
+      <c r="Q45" s="86"/>
+      <c r="R45" s="86"/>
+      <c r="S45" s="86"/>
+      <c r="T45" s="86"/>
+      <c r="U45" s="86"/>
+      <c r="V45" s="86"/>
+      <c r="W45" s="86"/>
+      <c r="X45" s="86"/>
+      <c r="Y45" s="86"/>
+      <c r="Z45" s="86"/>
+      <c r="AA45" s="86"/>
+      <c r="AB45" s="86"/>
+      <c r="AC45" s="86"/>
+      <c r="AD45" s="86"/>
+      <c r="AE45" s="86"/>
+      <c r="AF45" s="86"/>
+      <c r="AG45" s="86"/>
+      <c r="AH45" s="86"/>
+    </row>
+    <row r="46" spans="1:34" ht="15.6" customHeight="1">
+      <c r="A46" s="93"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="86"/>
+    </row>
+    <row r="47" spans="1:34" s="89" customFormat="1" ht="23.4">
+      <c r="A47" s="93"/>
+      <c r="B47" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="90"/>
+    </row>
+    <row r="48" spans="1:34" ht="26.4" customHeight="1">
+      <c r="A48" s="93"/>
+      <c r="B48" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="86"/>
+    </row>
+    <row r="49" spans="1:6" ht="25.8" customHeight="1">
+      <c r="A49" s="93"/>
+      <c r="B49" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="86"/>
+    </row>
+    <row r="50" spans="1:6" ht="24.6" customHeight="1">
+      <c r="A50" s="93"/>
+      <c r="B50" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="86"/>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1">
+      <c r="A51" s="93"/>
+      <c r="B51" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="86"/>
+    </row>
+    <row r="52" spans="1:6" ht="24" customHeight="1">
+      <c r="A52" s="93"/>
+      <c r="B52" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="86"/>
+    </row>
+    <row r="53" spans="1:6" s="143" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A53" s="145"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="144"/>
+    </row>
+    <row r="54" spans="1:6" s="87" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A54" s="111"/>
+      <c r="B54" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="86"/>
+    </row>
+    <row r="55" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A55" s="93"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="86"/>
+    </row>
+    <row r="56" spans="1:6" s="88" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A56" s="93"/>
+      <c r="B56" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="86"/>
+    </row>
+    <row r="57" spans="1:6" ht="25.2" customHeight="1">
+      <c r="A57" s="93"/>
+      <c r="B57" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="86"/>
+    </row>
+    <row r="58" spans="1:6" ht="24.6" customHeight="1">
+      <c r="A58" s="93"/>
+      <c r="B58" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="86"/>
+    </row>
+    <row r="59" spans="1:6" ht="24" customHeight="1">
+      <c r="A59" s="93"/>
+      <c r="B59" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="88"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.6">
-      <c r="B32" s="93"/>
-      <c r="F32" s="88"/>
-    </row>
-    <row r="33" spans="1:34" ht="15.6">
-      <c r="B33" s="93" t="s">
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="86"/>
+    </row>
+    <row r="60" spans="1:6" ht="26.4" customHeight="1">
+      <c r="A60" s="93"/>
+      <c r="B60" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="86"/>
+    </row>
+    <row r="61" spans="1:6" ht="24.6" customHeight="1">
+      <c r="A61" s="93"/>
+      <c r="B61" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="86"/>
+    </row>
+    <row r="62" spans="1:6" s="89" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A62" s="93"/>
+      <c r="B62" s="101"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="90"/>
+    </row>
+    <row r="63" spans="1:6" s="143" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A63" s="145"/>
+      <c r="B63" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="119">
+        <v>43957</v>
+      </c>
+      <c r="E63" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" s="144"/>
+    </row>
+    <row r="64" spans="1:6" s="143" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A64" s="145"/>
+      <c r="B64" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="146"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="144"/>
+    </row>
+    <row r="65" spans="1:6" s="143" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A65" s="145"/>
+      <c r="B65" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="146"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="145"/>
+      <c r="F65" s="144"/>
+    </row>
+    <row r="66" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B66" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="121"/>
+      <c r="D66" s="121"/>
+    </row>
+    <row r="67" spans="1:6" s="143" customFormat="1" ht="25.8" customHeight="1">
+      <c r="B67" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="121"/>
+      <c r="D67" s="121"/>
+    </row>
+    <row r="68" spans="1:6" s="143" customFormat="1" ht="23.4" customHeight="1">
+      <c r="B68" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="121"/>
+      <c r="D68" s="121"/>
+    </row>
+    <row r="69" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B69" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="121"/>
+      <c r="D69" s="121"/>
+    </row>
+    <row r="70" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B70" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="121"/>
+      <c r="D70" s="121"/>
+    </row>
+    <row r="71" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B71" s="112"/>
+      <c r="C71" s="121"/>
+      <c r="D71" s="121"/>
+    </row>
+    <row r="72" spans="1:6" s="143" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A72" s="145"/>
+      <c r="B72" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="119">
+        <v>44049</v>
+      </c>
+      <c r="D72" s="119">
+        <v>44171</v>
+      </c>
+      <c r="E72" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" s="144"/>
+    </row>
+    <row r="73" spans="1:6" s="143" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A73" s="145"/>
+      <c r="B73" s="127"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="120"/>
+      <c r="E73" s="144"/>
+      <c r="F73" s="144"/>
+    </row>
+    <row r="74" spans="1:6" s="143" customFormat="1" ht="24" customHeight="1">
+      <c r="A74" s="145"/>
+      <c r="B74" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="120"/>
+      <c r="D74" s="120"/>
+      <c r="E74" s="144"/>
+      <c r="F74" s="144"/>
+    </row>
+    <row r="75" spans="1:6" s="143" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A75" s="145"/>
+      <c r="B75" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="120"/>
+      <c r="D75" s="120"/>
+      <c r="E75" s="144"/>
+      <c r="F75" s="144"/>
+    </row>
+    <row r="76" spans="1:6" s="143" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A76" s="145"/>
+      <c r="B76" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="120"/>
+      <c r="D76" s="120"/>
+      <c r="E76" s="144"/>
+      <c r="F76" s="144"/>
+    </row>
+    <row r="77" spans="1:6" s="143" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A77" s="145"/>
+      <c r="B77" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="120"/>
+      <c r="D77" s="120"/>
+      <c r="E77" s="144"/>
+      <c r="F77" s="144"/>
+    </row>
+    <row r="78" spans="1:6" s="135" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A78" s="131"/>
+      <c r="B78" s="132" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="133"/>
+      <c r="D78" s="133"/>
+      <c r="E78" s="134"/>
+      <c r="F78" s="134"/>
+    </row>
+    <row r="79" spans="1:6" s="135" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A79" s="131"/>
+      <c r="B79" s="132" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="133"/>
+      <c r="D79" s="133"/>
+      <c r="E79" s="134"/>
+      <c r="F79" s="134"/>
+    </row>
+    <row r="80" spans="1:6" s="143" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B80" s="144"/>
+      <c r="C80" s="144"/>
+      <c r="D80" s="144"/>
+      <c r="E80" s="144"/>
+    </row>
+    <row r="81" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B81" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="E81" s="107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="144" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B82" s="112" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="144" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B83" s="112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B84" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B85" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="144"/>
+      <c r="D85" s="144"/>
+      <c r="E85" s="144"/>
+    </row>
+    <row r="86" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B86" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="144"/>
+      <c r="D86" s="144"/>
+      <c r="E86" s="144"/>
+    </row>
+    <row r="87" spans="1:6" s="143" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C87" s="121"/>
+      <c r="D87" s="121"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B88" s="90"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="90"/>
+      <c r="E88" s="90"/>
+    </row>
+    <row r="89" spans="1:6" s="140" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B89" s="144"/>
+      <c r="C89" s="144"/>
+      <c r="D89" s="144"/>
+      <c r="E89" s="144"/>
+    </row>
+    <row r="90" spans="1:6" s="142" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B90" s="144"/>
+      <c r="C90" s="144"/>
+      <c r="D90" s="144"/>
+      <c r="E90" s="144"/>
+    </row>
+    <row r="91" spans="1:6" s="142" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B91" s="144"/>
+      <c r="C91" s="144"/>
+      <c r="D91" s="144"/>
+      <c r="E91" s="144"/>
+    </row>
+    <row r="92" spans="1:6" s="140" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B92" s="144"/>
+      <c r="C92" s="144"/>
+      <c r="D92" s="144"/>
+      <c r="E92" s="144"/>
+    </row>
+    <row r="93" spans="1:6" s="140" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B93" s="113"/>
+      <c r="C93" s="144"/>
+      <c r="D93" s="144"/>
+      <c r="E93" s="144"/>
+    </row>
+    <row r="94" spans="1:6" s="140" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B94" s="113"/>
+      <c r="C94" s="144"/>
+      <c r="D94" s="144"/>
+      <c r="E94" s="144"/>
+    </row>
+    <row r="95" spans="1:6" s="140" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A95" s="141"/>
+      <c r="B95" s="112"/>
+      <c r="C95" s="144"/>
+      <c r="D95" s="144"/>
+      <c r="E95" s="144"/>
+      <c r="F95" s="142"/>
+    </row>
+    <row r="96" spans="1:6" s="140" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A96" s="141"/>
+      <c r="B96" s="112"/>
+      <c r="C96" s="120"/>
+      <c r="D96" s="120"/>
+      <c r="E96" s="142"/>
+      <c r="F96" s="142"/>
+    </row>
+    <row r="97" spans="1:6" s="135" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A97" s="131"/>
+      <c r="B97" s="132"/>
+      <c r="C97" s="133"/>
+      <c r="D97" s="133"/>
+      <c r="E97" s="134"/>
+      <c r="F97" s="134"/>
+    </row>
+    <row r="98" spans="1:6" s="135" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A98" s="131"/>
+      <c r="B98" s="132"/>
+      <c r="C98" s="133"/>
+      <c r="D98" s="133"/>
+      <c r="E98" s="134"/>
+      <c r="F98" s="134"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B99" s="89"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B100" s="89"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B101" s="89"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B102" s="89"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B103" s="89"/>
+    </row>
+    <row r="104" spans="1:6" s="143" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A104" s="145"/>
+      <c r="B104" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="119">
+        <v>43836</v>
+      </c>
+      <c r="D104" s="119">
+        <v>44171</v>
+      </c>
+      <c r="E104" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="F104" s="144"/>
+    </row>
+    <row r="105" spans="1:6" s="143" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A105" s="145"/>
+      <c r="B105" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="146"/>
+      <c r="D105" s="146"/>
+      <c r="E105" s="145"/>
+      <c r="F105" s="144"/>
+    </row>
+    <row r="106" spans="1:6" s="143" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A106" s="145"/>
+      <c r="B106" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="146"/>
+      <c r="D106" s="146"/>
+      <c r="E106" s="145"/>
+      <c r="F106" s="144"/>
+    </row>
+    <row r="107" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B107" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="121"/>
+      <c r="D107" s="121"/>
+    </row>
+    <row r="108" spans="1:6" s="143" customFormat="1" ht="25.8" customHeight="1">
+      <c r="B108" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" s="121"/>
+      <c r="D108" s="121"/>
+    </row>
+    <row r="109" spans="1:6" s="143" customFormat="1" ht="23.4" customHeight="1">
+      <c r="B109" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" s="121"/>
+      <c r="D109" s="121"/>
+    </row>
+    <row r="110" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B110" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="121"/>
+      <c r="D110" s="121"/>
+    </row>
+    <row r="111" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B111" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="121"/>
+      <c r="D111" s="121"/>
+    </row>
+    <row r="112" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B112" s="112"/>
+      <c r="C112" s="121"/>
+      <c r="D112" s="121"/>
+    </row>
+    <row r="113" spans="1:6" s="143" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A113" s="145"/>
+      <c r="B113" s="129" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="88"/>
-    </row>
-    <row r="34" spans="1:34" ht="15.6">
-      <c r="B34" s="93" t="s">
+      <c r="D113" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="88"/>
-    </row>
-    <row r="35" spans="1:34" ht="15.6">
-      <c r="B35" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="88"/>
-    </row>
-    <row r="36" spans="1:34" ht="15" customHeight="1">
-      <c r="B36" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="88"/>
-    </row>
-    <row r="37" spans="1:34" s="85" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A37" s="109"/>
-      <c r="B37" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="88"/>
-      <c r="V37" s="88"/>
-      <c r="W37" s="88"/>
-      <c r="X37" s="88"/>
-      <c r="Y37" s="88"/>
-      <c r="Z37" s="88"/>
-      <c r="AA37" s="88"/>
-      <c r="AB37" s="88"/>
-      <c r="AC37" s="88"/>
-      <c r="AD37" s="88"/>
-      <c r="AE37" s="88"/>
-      <c r="AF37" s="88"/>
-      <c r="AG37" s="88"/>
-      <c r="AH37" s="88"/>
-    </row>
-    <row r="38" spans="1:34" ht="15.6">
-      <c r="B38" s="93"/>
-      <c r="F38" s="88"/>
-    </row>
-    <row r="39" spans="1:34" ht="15.6">
-      <c r="B39" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="88"/>
-    </row>
-    <row r="40" spans="1:34" ht="16.8" customHeight="1">
-      <c r="B40" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="88"/>
-    </row>
-    <row r="41" spans="1:34" ht="15.6" customHeight="1">
-      <c r="B41" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="88"/>
-    </row>
-    <row r="42" spans="1:34" s="84" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B42" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="F42" s="88"/>
-    </row>
-    <row r="43" spans="1:34" ht="15" customHeight="1">
-      <c r="B43" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="88"/>
-    </row>
-    <row r="44" spans="1:34" ht="13.2" customHeight="1">
-      <c r="B44" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="88"/>
-    </row>
-    <row r="45" spans="1:34" s="89" customFormat="1" ht="21" customHeight="1">
-      <c r="B45" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="88"/>
-    </row>
-    <row r="46" spans="1:34" ht="14.4" customHeight="1">
-      <c r="B46" s="93"/>
-      <c r="F46" s="88"/>
-    </row>
-    <row r="47" spans="1:34" s="105" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B47" s="93" t="s">
+      <c r="E113" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="88"/>
-    </row>
-    <row r="48" spans="1:34" ht="15.75" customHeight="1">
-      <c r="B48" s="93" t="s">
+      <c r="F113" s="144"/>
+    </row>
+    <row r="114" spans="1:6" s="143" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A114" s="145"/>
+      <c r="B114" s="127"/>
+      <c r="C114" s="120"/>
+      <c r="D114" s="120"/>
+      <c r="E114" s="144"/>
+      <c r="F114" s="144"/>
+    </row>
+    <row r="115" spans="1:6" s="143" customFormat="1" ht="24" customHeight="1">
+      <c r="A115" s="145"/>
+      <c r="B115" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="120"/>
+      <c r="D115" s="120"/>
+      <c r="E115" s="144"/>
+      <c r="F115" s="144"/>
+    </row>
+    <row r="116" spans="1:6" s="143" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A116" s="145"/>
+      <c r="B116" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" s="120"/>
+      <c r="D116" s="120"/>
+      <c r="E116" s="144"/>
+      <c r="F116" s="144"/>
+    </row>
+    <row r="117" spans="1:6" s="143" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A117" s="145"/>
+      <c r="B117" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="88"/>
-    </row>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B49" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="88"/>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B50" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="88"/>
-    </row>
-    <row r="51" spans="2:6" s="84" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B51" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="F51" s="88"/>
-    </row>
-    <row r="52" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B52" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="88"/>
-    </row>
-    <row r="53" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B53" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="88"/>
-    </row>
-    <row r="54" spans="2:6" ht="20.399999999999999" customHeight="1">
-      <c r="B54" s="131" t="s">
+      <c r="C117" s="120"/>
+      <c r="D117" s="120"/>
+      <c r="E117" s="144"/>
+      <c r="F117" s="144"/>
+    </row>
+    <row r="118" spans="1:6" s="143" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A118" s="145"/>
+      <c r="B118" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="120"/>
+      <c r="D118" s="120"/>
+      <c r="E118" s="144"/>
+      <c r="F118" s="144"/>
+    </row>
+    <row r="119" spans="1:6" s="135" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A119" s="131"/>
+      <c r="B119" s="132" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="133"/>
+      <c r="D119" s="133"/>
+      <c r="E119" s="134"/>
+      <c r="F119" s="134"/>
+    </row>
+    <row r="120" spans="1:6" s="135" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A120" s="131"/>
+      <c r="B120" s="132" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" s="133"/>
+      <c r="D120" s="133"/>
+      <c r="E120" s="134"/>
+      <c r="F120" s="134"/>
+    </row>
+    <row r="121" spans="1:6" s="143" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B121" s="144"/>
+      <c r="C121" s="144"/>
+      <c r="D121" s="144"/>
+      <c r="E121" s="144"/>
+    </row>
+    <row r="122" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B122" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="D122" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="E122" s="107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="144" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B123" s="112" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="144" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B124" s="112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B125" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="88"/>
-    </row>
-    <row r="55" spans="2:6" ht="21" customHeight="1">
-      <c r="B55" s="131" t="s">
+      <c r="C125" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="D125" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="E125" s="107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B126" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55" s="88"/>
-    </row>
-    <row r="56" spans="2:6" ht="15.75" customHeight="1">
-      <c r="F56" s="88"/>
-    </row>
-    <row r="57" spans="2:6" ht="15.75" customHeight="1">
-      <c r="F57" s="88"/>
+      <c r="C126" s="144"/>
+      <c r="D126" s="144"/>
+      <c r="E126" s="144"/>
+    </row>
+    <row r="127" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B127" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127" s="144"/>
+      <c r="D127" s="144"/>
+      <c r="E127" s="144"/>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B128" s="89"/>
+    </row>
+    <row r="129" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B129" s="89"/>
+    </row>
+    <row r="130" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B130" s="89"/>
+    </row>
+    <row r="131" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B131" s="89"/>
+    </row>
+    <row r="132" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B132" s="89"/>
+    </row>
+    <row r="133" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B133" s="89"/>
+    </row>
+    <row r="134" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B134" s="89"/>
+    </row>
+    <row r="135" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B135" s="89"/>
+    </row>
+    <row r="136" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B136" s="89"/>
+    </row>
+    <row r="137" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B137" s="89"/>
+    </row>
+    <row r="138" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B138" s="89"/>
+    </row>
+    <row r="139" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B139" s="89"/>
+    </row>
+    <row r="140" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B140" s="89"/>
+    </row>
+    <row r="141" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B141" s="89"/>
+    </row>
+    <row r="142" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B142" s="89"/>
+    </row>
+    <row r="143" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B143" s="89"/>
+    </row>
+    <row r="144" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B144" s="89"/>
+    </row>
+    <row r="145" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B145" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4153,7 +5170,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -4163,7 +5180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F17 F11:F12 F21:F24">
+  <conditionalFormatting sqref="F16:F19 F11:F13 F24:F27">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -4174,7 +5191,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D15:D17 C9:D12 D21:D25" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D16:D19 C9:D13 D24:D28" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(C9))), AND(ISNUMBER(C9), LEFT(CELL("format", C9))="D"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -4342,15 +5359,15 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -4551,118 +5568,118 @@
       <c r="BO5" s="2"/>
     </row>
     <row r="6" spans="1:67" ht="14.4">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110" t="s">
+      <c r="A6" s="147"/>
+      <c r="B6" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="126" t="s">
+      <c r="H6" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="121" t="s">
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="126" t="s">
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="121" t="s">
+      <c r="S6" s="162"/>
+      <c r="T6" s="162"/>
+      <c r="U6" s="162"/>
+      <c r="V6" s="162"/>
+      <c r="W6" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="126" t="s">
+      <c r="X6" s="162"/>
+      <c r="Y6" s="162"/>
+      <c r="Z6" s="162"/>
+      <c r="AA6" s="162"/>
+      <c r="AB6" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="121" t="s">
+      <c r="AC6" s="162"/>
+      <c r="AD6" s="162"/>
+      <c r="AE6" s="162"/>
+      <c r="AF6" s="162"/>
+      <c r="AG6" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="122"/>
-      <c r="AL6" s="126" t="s">
+      <c r="AH6" s="162"/>
+      <c r="AI6" s="162"/>
+      <c r="AJ6" s="162"/>
+      <c r="AK6" s="162"/>
+      <c r="AL6" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="122"/>
-      <c r="AN6" s="122"/>
-      <c r="AO6" s="122"/>
-      <c r="AP6" s="122"/>
-      <c r="AQ6" s="121" t="s">
+      <c r="AM6" s="162"/>
+      <c r="AN6" s="162"/>
+      <c r="AO6" s="162"/>
+      <c r="AP6" s="162"/>
+      <c r="AQ6" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="122"/>
-      <c r="AS6" s="122"/>
-      <c r="AT6" s="122"/>
-      <c r="AU6" s="122"/>
-      <c r="AV6" s="126" t="s">
+      <c r="AR6" s="162"/>
+      <c r="AS6" s="162"/>
+      <c r="AT6" s="162"/>
+      <c r="AU6" s="162"/>
+      <c r="AV6" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="122"/>
-      <c r="AX6" s="122"/>
-      <c r="AY6" s="122"/>
-      <c r="AZ6" s="122"/>
-      <c r="BA6" s="121" t="s">
+      <c r="AW6" s="162"/>
+      <c r="AX6" s="162"/>
+      <c r="AY6" s="162"/>
+      <c r="AZ6" s="162"/>
+      <c r="BA6" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="122"/>
-      <c r="BC6" s="122"/>
-      <c r="BD6" s="122"/>
-      <c r="BE6" s="122"/>
-      <c r="BF6" s="126" t="s">
+      <c r="BB6" s="162"/>
+      <c r="BC6" s="162"/>
+      <c r="BD6" s="162"/>
+      <c r="BE6" s="162"/>
+      <c r="BF6" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="122"/>
-      <c r="BH6" s="122"/>
-      <c r="BI6" s="122"/>
-      <c r="BJ6" s="122"/>
-      <c r="BK6" s="121" t="s">
+      <c r="BG6" s="162"/>
+      <c r="BH6" s="162"/>
+      <c r="BI6" s="162"/>
+      <c r="BJ6" s="162"/>
+      <c r="BK6" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="122"/>
-      <c r="BM6" s="122"/>
-      <c r="BN6" s="122"/>
-      <c r="BO6" s="122"/>
+      <c r="BL6" s="162"/>
+      <c r="BM6" s="162"/>
+      <c r="BN6" s="162"/>
+      <c r="BO6" s="162"/>
     </row>
     <row r="7" spans="1:67" ht="14.4">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="125"/>
+      <c r="A7" s="148"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="165"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -4849,11 +5866,11 @@
         <v>24</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -5400,11 +6417,11 @@
         <v>36</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
@@ -5795,11 +6812,11 @@
         <v>41</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
@@ -6352,11 +7369,11 @@
         <v>48</v>
       </c>
       <c r="B27" s="35"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZLaP\Desktop\PFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6A9C69-60C5-464A-9A73-07DC1D24241F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA319E1-5300-41B1-B1DC-7409F0AC94DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="184">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -242,33 +242,15 @@
     <t>Publish Calculator</t>
   </si>
   <si>
-    <t>Formation et étude de l'existant</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> Spécifications générales</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Identification des besoins</t>
   </si>
   <si>
     <t xml:space="preserve">   Spécifications  fonctionnelles</t>
   </si>
   <si>
-    <t xml:space="preserve">   Comprendre le fonctionnement  de service scaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Comprendre le fonctionnement  de service watcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Comprendre l'architecture Microservice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Formation C#,Solid,UnitTesting …</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Les tests d'intégration</t>
   </si>
   <si>
@@ -300,9 +282,6 @@
   </si>
   <si>
     <t>10jours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                GANTT Diagram</t>
   </si>
   <si>
     <t xml:space="preserve">   Spécifications Techniques</t>
@@ -365,9 +344,6 @@
     <t xml:space="preserve">  Benchmarking Métriques cloud les plus expressives</t>
   </si>
   <si>
-    <t>14/2/2020</t>
-  </si>
-  <si>
     <t>5jours</t>
   </si>
   <si>
@@ -422,27 +398,15 @@
     <t xml:space="preserve">   Extraction des requêtes clients à partir d'un fichier csv</t>
   </si>
   <si>
-    <t xml:space="preserve"> Itération 1 : Récupération des données &amp; implémentation des objets de base</t>
-  </si>
-  <si>
     <t>10 jours</t>
   </si>
   <si>
     <t>21/2/2020</t>
   </si>
   <si>
-    <t>17/2/2020</t>
-  </si>
-  <si>
-    <t>20/2/2020</t>
-  </si>
-  <si>
     <t>4jours</t>
   </si>
   <si>
-    <t xml:space="preserve"> Itération 2 : Implémentation du simulaterQueue &amp; simulaterWorkers</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Analyse des fonctionnalités  de CloudWorkers (addWorker, shutDownWorker, AffectRequest…)</t>
   </si>
   <si>
@@ -461,9 +425,6 @@
     <t xml:space="preserve">  Afficher les de la simulation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Itération 3 : Implémenter le ScalerSimulater</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Conception de l'objet ScalerSimulater</t>
   </si>
   <si>
@@ -482,42 +443,21 @@
     <t xml:space="preserve">   Conception de l'interface IConfigurationHolder qui représente une configuration hebdomadaire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Itération 4 : Implémenter Simulator &amp; Orchestrator &amp; Commencer les tests d'intégration</t>
-  </si>
-  <si>
     <t>Itération 7 : Implémenter les Métriques</t>
   </si>
   <si>
     <t>Itération 6 :Implémentation du Simulation ResultPrinter</t>
   </si>
   <si>
-    <t>7jours</t>
-  </si>
-  <si>
-    <t>20/3/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Documentation sur la tarification de Azure</t>
   </si>
   <si>
-    <t xml:space="preserve"> Itération 5 : Extendre l'objet de configuration : IConfigurationHolderHolder</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Générer un fichier de résultas des requestes : rmetrics_Result.csv</t>
   </si>
   <si>
-    <t>Warning : Suspension à cause de la pandémie Covid 19 (20/03 et 04/05)</t>
-  </si>
-  <si>
     <t>25/6/2020</t>
   </si>
   <si>
-    <t>Itération 6 : Implémenter les Métriques</t>
-  </si>
-  <si>
-    <t>Itération 7 :Implémentation du Simulation ResultPrinter</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Conception de l'interface SimulationResultPrinter</t>
   </si>
   <si>
@@ -534,6 +474,126 @@
   </si>
   <si>
     <t xml:space="preserve">  Générer le fichier de résultats des workers : workers_result.csv</t>
+  </si>
+  <si>
+    <t>Avant le 20 mars (date de confinement)</t>
+  </si>
+  <si>
+    <t>Démarrage du projet</t>
+  </si>
+  <si>
+    <t>Construction du projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Elaboration du cahier de charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Documentation sur le fonctionnement  de service watcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Etude de l'existant  (limitations &amp; solution proposée)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Identification des besions fonctionnels et techniques</t>
+  </si>
+  <si>
+    <t>19/06/2020</t>
+  </si>
+  <si>
+    <t>60 jours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Etude préliminiare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Spécifications générales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Plannigng de dévéloppement des iterations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Benchmarking Métriques cloud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Documentation sur la tarification d'Azure workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Docuementation sur l'architecture Microservice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Itération 5 : Extendre l'objet de configuration : IConfigurationHolderHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Itération 6 : Implémenter les Métriques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Itération 7 :Implémentation du Simulation ResultPrinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Itération 3 : Implémenter le ScalerSimulater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Itération 2 : Implémentation du simulaterQueue &amp; simulaterWorkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Itération 1 : Récupération des données &amp; implémentation des objets de base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Formation C#, Solid, UnitTesting, Git …</t>
+  </si>
+  <si>
+    <t>5 jours</t>
+  </si>
+  <si>
+    <t>24/2/2020</t>
+  </si>
+  <si>
+    <t>27/2/2020</t>
+  </si>
+  <si>
+    <t>28/02/2020</t>
+  </si>
+  <si>
+    <t>28/2/2020</t>
+  </si>
+  <si>
+    <t>13/3/2020</t>
+  </si>
+  <si>
+    <t>19/3/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Documentation sur le  fonctionnement  de service scaling</t>
+  </si>
+  <si>
+    <t>30/06/2020</t>
+  </si>
+  <si>
+    <t>74 jours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Itération 4 : Implémenter Simulator &amp; Orchestrator &amp;  les tests d'intégration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                         GANTT Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rapport de stage détaillé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Manuel d'utilisation</t>
+  </si>
+  <si>
+    <t>13 jours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Documentation</t>
+  </si>
+  <si>
+    <t>Reprise de stage (4/5/2020)</t>
   </si>
 </sst>
 </file>
@@ -544,7 +604,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="m&quot;/&quot;d"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -631,12 +691,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="26"/>
-      <color rgb="FF576C88"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF666666"/>
@@ -647,11 +701,6 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -745,8 +794,77 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="22"/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -754,13 +872,28 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
+      <color rgb="FF576C88"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,6 +988,16 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -987,12 +1130,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1145,85 +1290,69 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1232,32 +1361,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="35" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1266,18 +1379,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1290,46 +1405,143 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="39" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="40" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="2" builtinId="11"/>
   </cellStyles>
@@ -2325,7 +2537,7 @@
   </sheetPr>
   <dimension ref="A1:AJ50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F2" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -2536,80 +2748,80 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:36" ht="14.4">
-      <c r="A6" s="147"/>
-      <c r="B6" s="147" t="s">
+      <c r="A6" s="133"/>
+      <c r="B6" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="147" t="s">
+      <c r="E6" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="147" t="s">
+      <c r="F6" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="147" t="s">
+      <c r="G6" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="147" t="s">
+      <c r="H6" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="147" t="s">
+      <c r="I6" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="147" t="s">
+      <c r="J6" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="150"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="150" t="s">
+      <c r="K6" s="136"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="148"/>
-      <c r="S6" s="148"/>
-      <c r="T6" s="148"/>
-      <c r="U6" s="149" t="s">
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="148"/>
-      <c r="W6" s="148"/>
-      <c r="X6" s="148"/>
-      <c r="Y6" s="148"/>
-      <c r="Z6" s="150" t="s">
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="148"/>
-      <c r="AB6" s="148"/>
-      <c r="AC6" s="148"/>
-      <c r="AD6" s="148"/>
-      <c r="AE6" s="149" t="s">
+      <c r="AA6" s="134"/>
+      <c r="AB6" s="134"/>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="148"/>
-      <c r="AG6" s="148"/>
-      <c r="AH6" s="148"/>
-      <c r="AI6" s="148"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="134"/>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="134"/>
       <c r="AJ6" s="49"/>
     </row>
     <row r="7" spans="1:36" ht="14.4">
-      <c r="A7" s="148"/>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
       <c r="M7" s="49"/>
@@ -3444,13 +3656,6 @@
     <row r="50" ht="13.2"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
@@ -3459,6 +3664,13 @@
     <mergeCell ref="U6:Y6"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="P6:T6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J13 J15:J18 J20:J24 J26:J29">
     <cfRule type="colorScale" priority="1">
@@ -3490,19 +3702,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH145"/>
+  <dimension ref="A1:AH160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="113.44140625" customWidth="1"/>
-    <col min="2" max="2" width="155" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="121" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" style="121" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="191.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="111" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" style="111" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
     <col min="6" max="6" width="29.5546875" customWidth="1"/>
     <col min="7" max="8" width="7.33203125" customWidth="1"/>
     <col min="9" max="10" width="3.6640625" customWidth="1"/>
@@ -3511,11 +3723,11 @@
     <col min="31" max="32" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" customHeight="1">
+    <row r="1" spans="1:34" ht="15.6" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="112"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
@@ -3545,11 +3757,11 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="15.75" customHeight="1">
+    <row r="2" spans="1:34" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="122"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -3579,247 +3791,273 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="30" customHeight="1">
-      <c r="A3" s="154" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-    </row>
-    <row r="4" spans="1:32" ht="15.6" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-    </row>
-    <row r="5" spans="1:32" ht="30.6" customHeight="1">
-      <c r="A5" s="151"/>
-      <c r="B5" s="152" t="s">
+    <row r="3" spans="1:34" s="127" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+    </row>
+    <row r="4" spans="1:34" ht="30" customHeight="1">
+      <c r="A4" s="185" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+    </row>
+    <row r="5" spans="1:34" ht="32.4" customHeight="1">
+      <c r="A5" s="90"/>
+      <c r="B5" s="151" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+    </row>
+    <row r="6" spans="1:34" s="127" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A6" s="141"/>
+      <c r="B6" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="152" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="158" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="157" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="156"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="149"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="148"/>
-      <c r="T5" s="148"/>
-      <c r="U5" s="148"/>
-      <c r="V5" s="150"/>
-      <c r="W5" s="148"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="148"/>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="149"/>
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="148"/>
-      <c r="AE5" s="148"/>
-      <c r="AF5" s="49"/>
-    </row>
-    <row r="6" spans="1:32" ht="12.6" customHeight="1">
-      <c r="A6" s="151"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-    </row>
-    <row r="7" spans="1:32" ht="23.4">
-      <c r="A7" s="93"/>
-      <c r="B7" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="99">
+      <c r="C6" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="155" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="141"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="138"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="138"/>
+      <c r="U6" s="138"/>
+      <c r="V6" s="138"/>
+      <c r="W6" s="138"/>
+      <c r="X6" s="138"/>
+      <c r="Y6" s="138"/>
+      <c r="Z6" s="138"/>
+      <c r="AA6" s="138"/>
+      <c r="AB6" s="138"/>
+      <c r="AC6" s="138"/>
+      <c r="AD6" s="138"/>
+      <c r="AE6" s="138"/>
+      <c r="AF6" s="153"/>
+    </row>
+    <row r="7" spans="1:34" ht="12.6" customHeight="1">
+      <c r="A7" s="141"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+    </row>
+    <row r="8" spans="1:34" s="127" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A8" s="128"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+    </row>
+    <row r="9" spans="1:34" s="157" customFormat="1" ht="42.6" customHeight="1">
+      <c r="A9" s="128"/>
+      <c r="B9" s="187" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="159">
         <v>43892</v>
       </c>
-      <c r="D7" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-    </row>
-    <row r="8" spans="1:32" ht="15.6" customHeight="1">
-      <c r="A8" s="93"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="86"/>
-    </row>
-    <row r="9" spans="1:32" ht="23.4" customHeight="1">
-      <c r="A9" s="93"/>
-      <c r="B9" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-    </row>
-    <row r="10" spans="1:32" ht="25.2" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
+      <c r="D9" s="159">
+        <v>44014</v>
+      </c>
+      <c r="E9" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="128"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="130"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="130"/>
+      <c r="AA9" s="130"/>
+      <c r="AB9" s="130"/>
+      <c r="AC9" s="130"/>
+      <c r="AD9" s="130"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="130"/>
+      <c r="AG9" s="130"/>
+      <c r="AH9" s="130"/>
+    </row>
+    <row r="10" spans="1:34" ht="8.4" customHeight="1">
+      <c r="A10" s="129"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3838,24 +4076,26 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-    </row>
-    <row r="11" spans="1:32" ht="26.4" customHeight="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
+      <c r="AD10" s="130"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="130"/>
+      <c r="AG10" s="130"/>
+      <c r="AH10" s="130"/>
+    </row>
+    <row r="11" spans="1:34" ht="26.4" customHeight="1">
+      <c r="A11" s="129"/>
+      <c r="B11" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3874,1284 +4114,1925 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-    </row>
-    <row r="12" spans="1:32" ht="25.8" customHeight="1">
-      <c r="A12" s="93" t="s">
+      <c r="AD11" s="130"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="130"/>
+      <c r="AG11" s="130"/>
+      <c r="AH11" s="130"/>
+    </row>
+    <row r="12" spans="1:34" ht="25.8" customHeight="1">
+      <c r="A12" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="AD12" s="130"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="130"/>
+      <c r="AG12" s="130"/>
+      <c r="AH12" s="130"/>
+    </row>
+    <row r="13" spans="1:34" s="127" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A13" s="129"/>
+      <c r="B13" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="AD13" s="130"/>
+      <c r="AE13" s="130"/>
+      <c r="AF13" s="130"/>
+      <c r="AG13" s="130"/>
+      <c r="AH13" s="130"/>
+    </row>
+    <row r="14" spans="1:34" s="127" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A14" s="129"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="AD14" s="130"/>
+      <c r="AE14" s="130"/>
+      <c r="AF14" s="130"/>
+      <c r="AG14" s="130"/>
+      <c r="AH14" s="130"/>
+    </row>
+    <row r="15" spans="1:34" s="157" customFormat="1" ht="42.6" customHeight="1">
+      <c r="A15" s="128"/>
+      <c r="B15" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="173">
+        <v>44106</v>
+      </c>
+      <c r="D15" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="174" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="128"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="130"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="130"/>
+      <c r="Y15" s="130"/>
+      <c r="Z15" s="130"/>
+      <c r="AA15" s="130"/>
+      <c r="AB15" s="130"/>
+      <c r="AC15" s="130"/>
+      <c r="AD15" s="130"/>
+      <c r="AE15" s="130"/>
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="130"/>
+      <c r="AH15" s="130"/>
+    </row>
+    <row r="16" spans="1:34" s="130" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A16" s="128"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+    </row>
+    <row r="17" spans="1:34" s="160" customFormat="1" ht="23.4">
+      <c r="A17" s="128"/>
+      <c r="B17" s="189" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="175">
+        <v>44106</v>
+      </c>
+      <c r="D17" s="175" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="176" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="128"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="130"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="130"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="130"/>
+      <c r="AB17" s="130"/>
+      <c r="AC17" s="130"/>
+      <c r="AD17" s="130"/>
+      <c r="AE17" s="130"/>
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="130"/>
+      <c r="AH17" s="130"/>
+    </row>
+    <row r="18" spans="1:34" s="127" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A18" s="129"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="128"/>
+      <c r="AD18" s="130"/>
+      <c r="AE18" s="130"/>
+      <c r="AF18" s="130"/>
+      <c r="AG18" s="130"/>
+      <c r="AH18" s="130"/>
+    </row>
+    <row r="19" spans="1:34" s="127" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A19" s="129"/>
+      <c r="B19" s="114" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="177"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="130"/>
+      <c r="AE19" s="130"/>
+      <c r="AF19" s="130"/>
+      <c r="AG19" s="130"/>
+      <c r="AH19" s="130"/>
+    </row>
+    <row r="20" spans="1:34" s="127" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A20" s="129"/>
+      <c r="B20" s="114" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="177"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="130"/>
+      <c r="AE20" s="130"/>
+      <c r="AF20" s="130"/>
+      <c r="AG20" s="130"/>
+      <c r="AH20" s="130"/>
+    </row>
+    <row r="21" spans="1:34" s="127" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="129"/>
+      <c r="B21" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="130"/>
+      <c r="AE21" s="130"/>
+      <c r="AF21" s="130"/>
+      <c r="AG21" s="130"/>
+      <c r="AH21" s="130"/>
+    </row>
+    <row r="22" spans="1:34" s="127" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A22" s="129"/>
+      <c r="B22" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="130"/>
+      <c r="AE22" s="130"/>
+      <c r="AF22" s="130"/>
+      <c r="AG22" s="130"/>
+      <c r="AH22" s="130"/>
+    </row>
+    <row r="23" spans="1:34" s="127" customFormat="1" ht="33" customHeight="1">
+      <c r="A23" s="129"/>
+      <c r="B23" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="177"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="130"/>
+      <c r="AE23" s="130"/>
+      <c r="AF23" s="130"/>
+      <c r="AG23" s="130"/>
+      <c r="AH23" s="130"/>
+    </row>
+    <row r="24" spans="1:34" s="127" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A24" s="129"/>
+      <c r="B24" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="177"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="130"/>
+      <c r="AF24" s="130"/>
+      <c r="AG24" s="130"/>
+      <c r="AH24" s="130"/>
+    </row>
+    <row r="25" spans="1:34" s="127" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A25" s="129"/>
+      <c r="B25" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="177"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="130"/>
+      <c r="AE25" s="130"/>
+      <c r="AF25" s="130"/>
+      <c r="AG25" s="130"/>
+      <c r="AH25" s="130"/>
+    </row>
+    <row r="26" spans="1:34" s="127" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A26" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="177"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="AD26" s="130"/>
+      <c r="AE26" s="130"/>
+      <c r="AF26" s="130"/>
+      <c r="AG26" s="130"/>
+      <c r="AH26" s="130"/>
+    </row>
+    <row r="27" spans="1:34" s="120" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="129"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="AD27" s="130"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="130"/>
+    </row>
+    <row r="28" spans="1:34" s="171" customFormat="1" ht="40.200000000000003" customHeight="1">
+      <c r="A28" s="116"/>
+      <c r="B28" s="190" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="175" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="175" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="176" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="116"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="118"/>
+      <c r="AD28" s="130"/>
+      <c r="AE28" s="130"/>
+      <c r="AF28" s="130"/>
+      <c r="AG28" s="130"/>
+      <c r="AH28" s="130"/>
+    </row>
+    <row r="29" spans="1:34" ht="13.2" customHeight="1">
+      <c r="A29" s="129"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="130"/>
+      <c r="T29" s="130"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="130"/>
+      <c r="W29" s="130"/>
+      <c r="X29" s="130"/>
+      <c r="Y29" s="130"/>
+      <c r="Z29" s="130"/>
+      <c r="AA29" s="130"/>
+      <c r="AB29" s="130"/>
+      <c r="AC29" s="130"/>
+      <c r="AD29" s="130"/>
+      <c r="AE29" s="130"/>
+      <c r="AF29" s="130"/>
+      <c r="AG29" s="130"/>
+      <c r="AH29" s="130"/>
+    </row>
+    <row r="30" spans="1:34" ht="26.4" customHeight="1">
+      <c r="A30" s="129"/>
+      <c r="B30" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-    </row>
-    <row r="13" spans="1:32" s="136" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A13" s="137"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-    </row>
-    <row r="14" spans="1:32" ht="26.4" customHeight="1">
-      <c r="A14" s="106"/>
-      <c r="B14" s="98" t="s">
+      <c r="C30" s="177"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="180"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="AD30" s="130"/>
+      <c r="AE30" s="130"/>
+      <c r="AF30" s="130"/>
+      <c r="AG30" s="130"/>
+      <c r="AH30" s="130"/>
+    </row>
+    <row r="31" spans="1:34" ht="24.6" customHeight="1">
+      <c r="A31" s="129"/>
+      <c r="B31" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C31" s="177"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="130"/>
+      <c r="AG31" s="130"/>
+      <c r="AH31" s="130"/>
+    </row>
+    <row r="32" spans="1:34" ht="25.8" customHeight="1">
+      <c r="A32" s="129"/>
+      <c r="B32" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="177"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="AD32" s="130"/>
+      <c r="AE32" s="130"/>
+      <c r="AF32" s="130"/>
+      <c r="AG32" s="130"/>
+      <c r="AH32" s="130"/>
+    </row>
+    <row r="33" spans="1:34" s="127" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A33" s="129"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="AD33" s="130"/>
+      <c r="AE33" s="130"/>
+      <c r="AF33" s="130"/>
+      <c r="AG33" s="130"/>
+      <c r="AH33" s="130"/>
+    </row>
+    <row r="34" spans="1:34" s="160" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A34" s="128"/>
+      <c r="B34" s="191" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="181" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="181" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="182" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="128"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="130"/>
+      <c r="M34" s="130"/>
+      <c r="N34" s="130"/>
+      <c r="O34" s="130"/>
+      <c r="P34" s="130"/>
+      <c r="Q34" s="130"/>
+      <c r="R34" s="130"/>
+      <c r="S34" s="130"/>
+      <c r="T34" s="130"/>
+      <c r="U34" s="130"/>
+      <c r="V34" s="130"/>
+      <c r="W34" s="130"/>
+      <c r="X34" s="130"/>
+      <c r="Y34" s="130"/>
+      <c r="Z34" s="130"/>
+      <c r="AA34" s="130"/>
+      <c r="AB34" s="130"/>
+      <c r="AC34" s="130"/>
+      <c r="AD34" s="130"/>
+      <c r="AE34" s="130"/>
+      <c r="AF34" s="130"/>
+      <c r="AG34" s="130"/>
+      <c r="AH34" s="130"/>
+    </row>
+    <row r="35" spans="1:34" s="127" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A35" s="129"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="130"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="130"/>
+      <c r="X35" s="130"/>
+      <c r="Y35" s="130"/>
+      <c r="Z35" s="130"/>
+      <c r="AA35" s="130"/>
+      <c r="AB35" s="130"/>
+      <c r="AC35" s="130"/>
+      <c r="AD35" s="130"/>
+      <c r="AE35" s="130"/>
+      <c r="AF35" s="130"/>
+      <c r="AG35" s="130"/>
+      <c r="AH35" s="130"/>
+    </row>
+    <row r="36" spans="1:34" ht="26.4" customHeight="1">
+      <c r="A36" s="128"/>
+      <c r="B36" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="93">
+        <v>43954</v>
+      </c>
+      <c r="E36" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="128"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+    </row>
+    <row r="37" spans="1:34" s="72" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A37" s="128"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+    </row>
+    <row r="38" spans="1:34" ht="24" customHeight="1">
+      <c r="A38" s="129"/>
+      <c r="B38" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="96"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+    </row>
+    <row r="39" spans="1:34" ht="25.2" customHeight="1">
+      <c r="A39" s="129"/>
+      <c r="B39" s="114" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="96"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+    </row>
+    <row r="40" spans="1:34" s="79" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A40" s="129"/>
+      <c r="B40" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="96"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+    </row>
+    <row r="41" spans="1:34" s="79" customFormat="1" ht="24" customHeight="1">
+      <c r="A41" s="129"/>
+      <c r="B41" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+    </row>
+    <row r="42" spans="1:34" s="72" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A42" s="129"/>
+      <c r="B42" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="96"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+    </row>
+    <row r="43" spans="1:34" s="127" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="129"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+    </row>
+    <row r="44" spans="1:34" ht="24" customHeight="1">
+      <c r="A44" s="101"/>
+      <c r="B44" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="93">
+        <v>43985</v>
+      </c>
+      <c r="D44" s="93">
+        <v>44168</v>
+      </c>
+      <c r="E44" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="128"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+    </row>
+    <row r="45" spans="1:34" ht="15.6" customHeight="1">
+      <c r="A45" s="101"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="78"/>
+    </row>
+    <row r="46" spans="1:34" s="86" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A46" s="101"/>
+      <c r="B46" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+    </row>
+    <row r="47" spans="1:34" s="88" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A47" s="101"/>
+      <c r="B47" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="109"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+    </row>
+    <row r="48" spans="1:34" s="81" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A48" s="101"/>
+      <c r="B48" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+    </row>
+    <row r="49" spans="1:34" s="79" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A49" s="101"/>
+      <c r="B49" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+    </row>
+    <row r="50" spans="1:34" s="75" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A50" s="101"/>
+      <c r="B50" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+    </row>
+    <row r="51" spans="1:34" s="86" customFormat="1" ht="8.4" customHeight="1">
+      <c r="A51" s="101"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+    </row>
+    <row r="52" spans="1:34" ht="23.4">
+      <c r="A52" s="129"/>
+      <c r="B52" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="110" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="110" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="128"/>
+    </row>
+    <row r="53" spans="1:34" s="86" customFormat="1" ht="9.6" customHeight="1">
+      <c r="A53" s="129"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+    </row>
+    <row r="54" spans="1:34" s="87" customFormat="1" ht="23.4">
+      <c r="A54" s="128"/>
+      <c r="B54" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="132"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+    </row>
+    <row r="55" spans="1:34" ht="23.4">
+      <c r="A55" s="129"/>
+      <c r="B55" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="132"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="128"/>
+    </row>
+    <row r="56" spans="1:34" ht="25.8" customHeight="1">
+      <c r="A56" s="129"/>
+      <c r="B56" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="132"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="128"/>
+    </row>
+    <row r="57" spans="1:34" ht="24" customHeight="1">
+      <c r="A57" s="129"/>
+      <c r="B57" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="128"/>
+    </row>
+    <row r="58" spans="1:34" s="120" customFormat="1" ht="24" customHeight="1">
+      <c r="A58" s="129"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="128"/>
+    </row>
+    <row r="59" spans="1:34" s="86" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="A59" s="129"/>
+      <c r="B59" s="192" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="183"/>
+      <c r="D59" s="183"/>
+      <c r="E59" s="184"/>
+      <c r="F59" s="128"/>
+    </row>
+    <row r="60" spans="1:34" s="82" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A60" s="128"/>
+      <c r="B60" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="110">
+        <v>43926</v>
+      </c>
+      <c r="D60" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="128"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="83"/>
+      <c r="O60" s="83"/>
+      <c r="P60" s="83"/>
+      <c r="Q60" s="83"/>
+      <c r="R60" s="83"/>
+      <c r="S60" s="83"/>
+      <c r="T60" s="83"/>
+      <c r="U60" s="83"/>
+      <c r="V60" s="83"/>
+      <c r="W60" s="83"/>
+      <c r="X60" s="83"/>
+      <c r="Y60" s="83"/>
+      <c r="Z60" s="83"/>
+      <c r="AA60" s="83"/>
+      <c r="AB60" s="83"/>
+      <c r="AC60" s="83"/>
+      <c r="AD60" s="83"/>
+      <c r="AE60" s="83"/>
+      <c r="AF60" s="83"/>
+      <c r="AG60" s="83"/>
+      <c r="AH60" s="83"/>
+    </row>
+    <row r="61" spans="1:34" ht="15.6" customHeight="1">
+      <c r="A61" s="129"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="132"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="128"/>
+    </row>
+    <row r="62" spans="1:34" s="86" customFormat="1" ht="23.4">
+      <c r="A62" s="129"/>
+      <c r="B62" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="132"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="128"/>
+    </row>
+    <row r="63" spans="1:34" ht="26.4" customHeight="1">
+      <c r="A63" s="129"/>
+      <c r="B63" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="132"/>
+      <c r="D63" s="132"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="128"/>
+    </row>
+    <row r="64" spans="1:34" ht="25.8" customHeight="1">
+      <c r="A64" s="129"/>
+      <c r="B64" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="C64" s="132"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="128"/>
+    </row>
+    <row r="65" spans="1:6" ht="24.6" customHeight="1">
+      <c r="A65" s="129"/>
+      <c r="B65" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="132"/>
+      <c r="D65" s="132"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="128"/>
+    </row>
+    <row r="66" spans="1:6" ht="24" customHeight="1">
+      <c r="A66" s="129"/>
+      <c r="B66" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="132"/>
+      <c r="D66" s="132"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="128"/>
+    </row>
+    <row r="67" spans="1:6" ht="24" customHeight="1">
+      <c r="A67" s="129"/>
+      <c r="B67" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="132"/>
+      <c r="D67" s="132"/>
+      <c r="E67" s="129"/>
+      <c r="F67" s="128"/>
+    </row>
+    <row r="68" spans="1:6" s="124" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A68" s="129"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="132"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="128"/>
+    </row>
+    <row r="69" spans="1:6" s="84" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A69" s="104"/>
+      <c r="B69" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="110" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69" s="128"/>
+    </row>
+    <row r="70" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A70" s="129"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="132"/>
+      <c r="E70" s="129"/>
+      <c r="F70" s="128"/>
+    </row>
+    <row r="71" spans="1:6" s="85" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A71" s="129"/>
+      <c r="B71" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="C71" s="132"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="129"/>
+      <c r="F71" s="128"/>
+    </row>
+    <row r="72" spans="1:6" ht="25.2" customHeight="1">
+      <c r="A72" s="129"/>
+      <c r="B72" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="132"/>
+      <c r="D72" s="132"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="128"/>
+    </row>
+    <row r="73" spans="1:6" ht="24.6" customHeight="1">
+      <c r="A73" s="129"/>
+      <c r="B73" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-    </row>
-    <row r="15" spans="1:32" ht="13.2" customHeight="1">
-      <c r="A15" s="93"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="86"/>
-    </row>
-    <row r="16" spans="1:32" ht="26.4" customHeight="1">
-      <c r="A16" s="93"/>
-      <c r="B16" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-    </row>
-    <row r="17" spans="1:11" ht="24.6" customHeight="1">
-      <c r="A17" s="93"/>
-      <c r="B17" s="94" t="s">
+      <c r="C73" s="132"/>
+      <c r="D73" s="132"/>
+      <c r="E73" s="129"/>
+      <c r="F73" s="128"/>
+    </row>
+    <row r="74" spans="1:6" ht="24" customHeight="1">
+      <c r="A74" s="129"/>
+      <c r="B74" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="132"/>
+      <c r="D74" s="132"/>
+      <c r="E74" s="129"/>
+      <c r="F74" s="128"/>
+    </row>
+    <row r="75" spans="1:6" ht="26.4" customHeight="1">
+      <c r="A75" s="129"/>
+      <c r="B75" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-    </row>
-    <row r="18" spans="1:11" ht="25.8" customHeight="1">
-      <c r="A18" s="93"/>
-      <c r="B18" s="94" t="s">
+      <c r="C75" s="132"/>
+      <c r="D75" s="132"/>
+      <c r="E75" s="129"/>
+      <c r="F75" s="128"/>
+    </row>
+    <row r="76" spans="1:6" ht="24.6" customHeight="1">
+      <c r="A76" s="129"/>
+      <c r="B76" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="132"/>
+      <c r="D76" s="132"/>
+      <c r="E76" s="129"/>
+      <c r="F76" s="128"/>
+    </row>
+    <row r="77" spans="1:6" s="86" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A77" s="129"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="132"/>
+      <c r="D77" s="132"/>
+      <c r="E77" s="129"/>
+      <c r="F77" s="128"/>
+    </row>
+    <row r="78" spans="1:6" s="124" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A78" s="129"/>
+      <c r="B78" s="115" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="110">
+        <v>43957</v>
+      </c>
+      <c r="E78" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" s="128"/>
+    </row>
+    <row r="79" spans="1:6" s="124" customFormat="1" ht="24" customHeight="1">
+      <c r="A79" s="129"/>
+      <c r="B79" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="132"/>
+      <c r="D79" s="132"/>
+      <c r="E79" s="129"/>
+      <c r="F79" s="128"/>
+    </row>
+    <row r="80" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A80" s="129"/>
+      <c r="B80" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="132"/>
+      <c r="D80" s="132"/>
+      <c r="E80" s="129"/>
+      <c r="F80" s="129"/>
+    </row>
+    <row r="81" spans="1:6" s="124" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A81" s="129"/>
+      <c r="B81" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="132"/>
+      <c r="D81" s="132"/>
+      <c r="E81" s="129"/>
+      <c r="F81" s="129"/>
+    </row>
+    <row r="82" spans="1:6" s="124" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A82" s="129"/>
+      <c r="B82" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="132"/>
+      <c r="D82" s="132"/>
+      <c r="E82" s="129"/>
+      <c r="F82" s="129"/>
+    </row>
+    <row r="83" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A83" s="129"/>
+      <c r="B83" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-    </row>
-    <row r="19" spans="1:11" s="136" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A19" s="137"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-    </row>
-    <row r="20" spans="1:11" ht="26.4" customHeight="1">
-      <c r="A20" s="106"/>
-      <c r="B20" s="98" t="s">
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="129"/>
+      <c r="F83" s="129"/>
+    </row>
+    <row r="84" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A84" s="129"/>
+      <c r="B84" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="132"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="129"/>
+    </row>
+    <row r="85" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A85" s="129"/>
+      <c r="B85" s="105"/>
+      <c r="C85" s="132"/>
+      <c r="D85" s="132"/>
+      <c r="E85" s="129"/>
+      <c r="F85" s="129"/>
+    </row>
+    <row r="86" spans="1:6" s="124" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A86" s="129"/>
+      <c r="B86" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" s="110">
+        <v>44049</v>
+      </c>
+      <c r="D86" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="F86" s="128"/>
+    </row>
+    <row r="87" spans="1:6" s="124" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A87" s="129"/>
+      <c r="B87" s="129"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="128"/>
+      <c r="F87" s="128"/>
+    </row>
+    <row r="88" spans="1:6" s="124" customFormat="1" ht="24" customHeight="1">
+      <c r="A88" s="129"/>
+      <c r="B88" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" s="132"/>
+      <c r="D88" s="132"/>
+      <c r="E88" s="128"/>
+      <c r="F88" s="128"/>
+    </row>
+    <row r="89" spans="1:6" s="124" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A89" s="129"/>
+      <c r="B89" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="132"/>
+      <c r="D89" s="132"/>
+      <c r="E89" s="128"/>
+      <c r="F89" s="128"/>
+    </row>
+    <row r="90" spans="1:6" s="124" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A90" s="129"/>
+      <c r="B90" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="132"/>
+      <c r="D90" s="132"/>
+      <c r="E90" s="128"/>
+      <c r="F90" s="128"/>
+    </row>
+    <row r="91" spans="1:6" s="124" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A91" s="129"/>
+      <c r="B91" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="132"/>
+      <c r="D91" s="132"/>
+      <c r="E91" s="128"/>
+      <c r="F91" s="128"/>
+    </row>
+    <row r="92" spans="1:6" s="119" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A92" s="116"/>
+      <c r="B92" s="117" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="161"/>
+      <c r="D92" s="161"/>
+      <c r="E92" s="116"/>
+      <c r="F92" s="116"/>
+    </row>
+    <row r="93" spans="1:6" s="119" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A93" s="116"/>
+      <c r="B93" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" s="161"/>
+      <c r="D93" s="161"/>
+      <c r="E93" s="116"/>
+      <c r="F93" s="116"/>
+    </row>
+    <row r="94" spans="1:6" s="124" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A94" s="129"/>
+      <c r="B94" s="128"/>
+      <c r="C94" s="128"/>
+      <c r="D94" s="128"/>
+      <c r="E94" s="128"/>
+      <c r="F94" s="129"/>
+    </row>
+    <row r="95" spans="1:6" s="119" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A95" s="116"/>
+      <c r="B95" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="175" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="175">
+        <v>44050</v>
+      </c>
+      <c r="E95" s="176" t="s">
+        <v>181</v>
+      </c>
+      <c r="F95" s="116"/>
+    </row>
+    <row r="96" spans="1:6" s="127" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A96" s="129"/>
+      <c r="B96" s="130"/>
+      <c r="C96" s="130"/>
+      <c r="D96" s="130"/>
+      <c r="E96" s="130"/>
+      <c r="F96" s="129"/>
+    </row>
+    <row r="97" spans="1:6" s="125" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A97" s="128"/>
+      <c r="B97" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" s="128"/>
+      <c r="D97" s="128"/>
+      <c r="E97" s="128"/>
+      <c r="F97" s="128"/>
+    </row>
+    <row r="98" spans="1:6" s="125" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="A98" s="128"/>
+      <c r="B98" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="128"/>
+      <c r="D98" s="128"/>
+      <c r="E98" s="128"/>
+      <c r="F98" s="128"/>
+    </row>
+    <row r="99" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A99" s="129"/>
+      <c r="B99" s="128"/>
+      <c r="C99" s="128"/>
+      <c r="D99" s="128"/>
+      <c r="E99" s="128"/>
+      <c r="F99" s="129"/>
+    </row>
+    <row r="100" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A100" s="129"/>
+      <c r="B100" s="106"/>
+      <c r="C100" s="128"/>
+      <c r="D100" s="128"/>
+      <c r="E100" s="128"/>
+      <c r="F100" s="129"/>
+    </row>
+    <row r="101" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A101" s="129"/>
+      <c r="B101" s="106"/>
+      <c r="C101" s="128"/>
+      <c r="D101" s="128"/>
+      <c r="E101" s="128"/>
+      <c r="F101" s="129"/>
+    </row>
+    <row r="102" spans="1:6" s="124" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A102" s="129"/>
+      <c r="B102" s="129"/>
+      <c r="C102" s="132"/>
+      <c r="D102" s="132"/>
+      <c r="E102" s="129"/>
+      <c r="F102" s="129"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A103" s="129"/>
+      <c r="B103" s="128"/>
+      <c r="C103" s="128"/>
+      <c r="D103" s="128"/>
+      <c r="E103" s="128"/>
+      <c r="F103" s="129"/>
+    </row>
+    <row r="104" spans="1:6" s="121" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A104" s="129"/>
+      <c r="B104" s="128"/>
+      <c r="C104" s="128"/>
+      <c r="D104" s="128"/>
+      <c r="E104" s="128"/>
+      <c r="F104" s="129"/>
+    </row>
+    <row r="105" spans="1:6" s="123" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B105" s="125"/>
+      <c r="C105" s="164"/>
+      <c r="D105" s="164"/>
+      <c r="E105" s="164"/>
+    </row>
+    <row r="106" spans="1:6" s="123" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B106" s="125"/>
+      <c r="C106" s="164"/>
+      <c r="D106" s="164"/>
+      <c r="E106" s="164"/>
+    </row>
+    <row r="107" spans="1:6" s="121" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B107" s="125"/>
+      <c r="C107" s="164"/>
+      <c r="D107" s="164"/>
+      <c r="E107" s="164"/>
+    </row>
+    <row r="108" spans="1:6" s="121" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B108" s="106"/>
+      <c r="C108" s="164"/>
+      <c r="D108" s="164"/>
+      <c r="E108" s="164"/>
+    </row>
+    <row r="109" spans="1:6" s="121" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B109" s="106"/>
+      <c r="C109" s="164"/>
+      <c r="D109" s="164"/>
+      <c r="E109" s="164"/>
+    </row>
+    <row r="110" spans="1:6" s="121" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A110" s="122"/>
+      <c r="B110" s="105"/>
+      <c r="C110" s="164"/>
+      <c r="D110" s="164"/>
+      <c r="E110" s="164"/>
+      <c r="F110" s="123"/>
+    </row>
+    <row r="111" spans="1:6" s="121" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A111" s="122"/>
+      <c r="B111" s="105"/>
+      <c r="C111" s="165"/>
+      <c r="D111" s="165"/>
+      <c r="E111" s="164"/>
+      <c r="F111" s="123"/>
+    </row>
+    <row r="112" spans="1:6" s="119" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A112" s="116"/>
+      <c r="B112" s="117"/>
+      <c r="C112" s="168"/>
+      <c r="D112" s="168"/>
+      <c r="E112" s="169"/>
+      <c r="F112" s="118"/>
+    </row>
+    <row r="113" spans="1:6" s="119" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A113" s="116"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="168"/>
+      <c r="D113" s="168"/>
+      <c r="E113" s="169"/>
+      <c r="F113" s="118"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B114" s="86"/>
+      <c r="C114" s="165"/>
+      <c r="D114" s="165"/>
+      <c r="E114" s="163"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B115" s="86"/>
+      <c r="C115" s="165"/>
+      <c r="D115" s="165"/>
+      <c r="E115" s="163"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B116" s="86"/>
+      <c r="C116" s="165"/>
+      <c r="D116" s="165"/>
+      <c r="E116" s="163"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B117" s="86"/>
+      <c r="C117" s="165"/>
+      <c r="D117" s="165"/>
+      <c r="E117" s="163"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B118" s="86"/>
+      <c r="C118" s="165"/>
+      <c r="D118" s="165"/>
+      <c r="E118" s="163"/>
+    </row>
+    <row r="119" spans="1:6" s="124" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A119" s="126"/>
+      <c r="B119" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119" s="167">
+        <v>43836</v>
+      </c>
+      <c r="D119" s="167">
+        <v>44171</v>
+      </c>
+      <c r="E119" s="166" t="s">
+        <v>83</v>
+      </c>
+      <c r="F119" s="125"/>
+    </row>
+    <row r="120" spans="1:6" s="124" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A120" s="126"/>
+      <c r="B120" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" s="165"/>
+      <c r="D120" s="165"/>
+      <c r="E120" s="163"/>
+      <c r="F120" s="125"/>
+    </row>
+    <row r="121" spans="1:6" s="124" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A121" s="126"/>
+      <c r="B121" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="165"/>
+      <c r="D121" s="165"/>
+      <c r="E121" s="163"/>
+      <c r="F121" s="125"/>
+    </row>
+    <row r="122" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B122" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="C122" s="165"/>
+      <c r="D122" s="165"/>
+      <c r="E122" s="163"/>
+    </row>
+    <row r="123" spans="1:6" s="124" customFormat="1" ht="25.8" customHeight="1">
+      <c r="B123" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="C123" s="165"/>
+      <c r="D123" s="165"/>
+      <c r="E123" s="163"/>
+    </row>
+    <row r="124" spans="1:6" s="124" customFormat="1" ht="23.4" customHeight="1">
+      <c r="B124" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="C124" s="165"/>
+      <c r="D124" s="165"/>
+      <c r="E124" s="163"/>
+    </row>
+    <row r="125" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B125" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="165"/>
+      <c r="D125" s="165"/>
+      <c r="E125" s="163"/>
+    </row>
+    <row r="126" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B126" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126" s="165"/>
+      <c r="D126" s="165"/>
+      <c r="E126" s="163"/>
+    </row>
+    <row r="127" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B127" s="105"/>
+      <c r="C127" s="165"/>
+      <c r="D127" s="165"/>
+      <c r="E127" s="163"/>
+    </row>
+    <row r="128" spans="1:6" s="124" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A128" s="126"/>
+      <c r="B128" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128" s="167" t="s">
+        <v>104</v>
+      </c>
+      <c r="D128" s="167" t="s">
+        <v>105</v>
+      </c>
+      <c r="E128" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="F128" s="125"/>
+    </row>
+    <row r="129" spans="1:6" s="124" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A129" s="126"/>
+      <c r="B129" s="113"/>
+      <c r="C129" s="165"/>
+      <c r="D129" s="165"/>
+      <c r="E129" s="164"/>
+      <c r="F129" s="125"/>
+    </row>
+    <row r="130" spans="1:6" s="124" customFormat="1" ht="24" customHeight="1">
+      <c r="A130" s="126"/>
+      <c r="B130" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C130" s="165"/>
+      <c r="D130" s="165"/>
+      <c r="E130" s="164"/>
+      <c r="F130" s="125"/>
+    </row>
+    <row r="131" spans="1:6" s="124" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A131" s="126"/>
+      <c r="B131" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="C131" s="165"/>
+      <c r="D131" s="165"/>
+      <c r="E131" s="164"/>
+      <c r="F131" s="125"/>
+    </row>
+    <row r="132" spans="1:6" s="124" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A132" s="126"/>
+      <c r="B132" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="C132" s="165"/>
+      <c r="D132" s="165"/>
+      <c r="E132" s="164"/>
+      <c r="F132" s="125"/>
+    </row>
+    <row r="133" spans="1:6" s="124" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A133" s="126"/>
+      <c r="B133" s="105" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" s="165"/>
+      <c r="D133" s="165"/>
+      <c r="E133" s="164"/>
+      <c r="F133" s="125"/>
+    </row>
+    <row r="134" spans="1:6" s="119" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A134" s="116"/>
+      <c r="B134" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="168"/>
+      <c r="D134" s="168"/>
+      <c r="E134" s="169"/>
+      <c r="F134" s="118"/>
+    </row>
+    <row r="135" spans="1:6" s="119" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A135" s="116"/>
+      <c r="B135" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="99">
-        <v>43864</v>
-      </c>
-      <c r="E20" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="86"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-    </row>
-    <row r="21" spans="1:11" s="72" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A21" s="106"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-    </row>
-    <row r="22" spans="1:11" s="91" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A22" s="106"/>
-      <c r="B22" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-    </row>
-    <row r="23" spans="1:11" s="88" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A23" s="106"/>
-      <c r="B23" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-    </row>
-    <row r="24" spans="1:11" ht="24" customHeight="1">
-      <c r="A24" s="93"/>
-      <c r="B24" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-    </row>
-    <row r="25" spans="1:11" ht="25.2" customHeight="1">
-      <c r="A25" s="93"/>
-      <c r="B25" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-    </row>
-    <row r="26" spans="1:11" s="82" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A26" s="93"/>
-      <c r="B26" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-    </row>
-    <row r="27" spans="1:11" s="82" customFormat="1" ht="24" customHeight="1">
-      <c r="A27" s="93"/>
-      <c r="B27" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-    </row>
-    <row r="28" spans="1:11" s="72" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A28" s="93"/>
-      <c r="B28" s="128" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-    </row>
-    <row r="29" spans="1:11" ht="24" customHeight="1">
-      <c r="A29" s="108"/>
-      <c r="B29" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="99">
-        <v>43892</v>
-      </c>
-      <c r="D29" s="99">
-        <v>44138</v>
-      </c>
-      <c r="E29" s="100" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" customHeight="1">
-      <c r="A30" s="108"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-    </row>
-    <row r="31" spans="1:11" s="89" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A31" s="108"/>
-      <c r="B31" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-    </row>
-    <row r="32" spans="1:11" s="91" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A32" s="108"/>
-      <c r="B32" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-    </row>
-    <row r="33" spans="1:34" s="84" customFormat="1" ht="25.2" customHeight="1">
-      <c r="A33" s="108"/>
-      <c r="B33" s="101" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-    </row>
-    <row r="34" spans="1:34" s="82" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A34" s="108"/>
-      <c r="B34" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-    </row>
-    <row r="35" spans="1:34" s="75" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A35" s="108"/>
-      <c r="B35" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-    </row>
-    <row r="36" spans="1:34" s="89" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A36" s="108"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-    </row>
-    <row r="37" spans="1:34" ht="23.4">
-      <c r="A37" s="93"/>
-      <c r="B37" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="119">
-        <v>44168</v>
-      </c>
-      <c r="D37" s="119" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="86"/>
-    </row>
-    <row r="38" spans="1:34" s="89" customFormat="1" ht="22.8">
-      <c r="A38" s="93"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="90"/>
-    </row>
-    <row r="39" spans="1:34" s="90" customFormat="1" ht="23.4">
-      <c r="A39" s="106"/>
-      <c r="B39" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="106"/>
-    </row>
-    <row r="40" spans="1:34" ht="23.4">
-      <c r="A40" s="93"/>
-      <c r="B40" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="86"/>
-    </row>
-    <row r="41" spans="1:34" ht="25.8" customHeight="1">
-      <c r="A41" s="93"/>
-      <c r="B41" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="86"/>
-    </row>
-    <row r="42" spans="1:34" ht="24" customHeight="1">
-      <c r="A42" s="93"/>
-      <c r="B42" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="86"/>
-    </row>
-    <row r="43" spans="1:34" s="136" customFormat="1" ht="24" customHeight="1">
-      <c r="A43" s="137"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="139"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="138"/>
-    </row>
-    <row r="44" spans="1:34" s="89" customFormat="1" ht="37.200000000000003" customHeight="1">
-      <c r="A44" s="93"/>
-      <c r="B44" s="126" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="90"/>
-    </row>
-    <row r="45" spans="1:34" s="85" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A45" s="106"/>
-      <c r="B45" s="110" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="119">
-        <v>43926</v>
-      </c>
-      <c r="D45" s="119" t="s">
+      <c r="C135" s="168"/>
+      <c r="D135" s="168"/>
+      <c r="E135" s="169"/>
+      <c r="F135" s="118"/>
+    </row>
+    <row r="136" spans="1:6" s="124" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B136" s="125"/>
+      <c r="C136" s="164"/>
+      <c r="D136" s="164"/>
+      <c r="E136" s="164"/>
+    </row>
+    <row r="137" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B137" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" s="170" t="s">
+        <v>107</v>
+      </c>
+      <c r="D137" s="170" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137" s="166" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="125" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B138" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" s="164"/>
+      <c r="D138" s="164"/>
+      <c r="E138" s="164"/>
+    </row>
+    <row r="139" spans="1:6" s="125" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B139" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" s="164"/>
+      <c r="D139" s="164"/>
+      <c r="E139" s="164"/>
+    </row>
+    <row r="140" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B140" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="86"/>
-      <c r="P45" s="86"/>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="86"/>
-      <c r="S45" s="86"/>
-      <c r="T45" s="86"/>
-      <c r="U45" s="86"/>
-      <c r="V45" s="86"/>
-      <c r="W45" s="86"/>
-      <c r="X45" s="86"/>
-      <c r="Y45" s="86"/>
-      <c r="Z45" s="86"/>
-      <c r="AA45" s="86"/>
-      <c r="AB45" s="86"/>
-      <c r="AC45" s="86"/>
-      <c r="AD45" s="86"/>
-      <c r="AE45" s="86"/>
-      <c r="AF45" s="86"/>
-      <c r="AG45" s="86"/>
-      <c r="AH45" s="86"/>
-    </row>
-    <row r="46" spans="1:34" ht="15.6" customHeight="1">
-      <c r="A46" s="93"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="86"/>
-    </row>
-    <row r="47" spans="1:34" s="89" customFormat="1" ht="23.4">
-      <c r="A47" s="93"/>
-      <c r="B47" s="101" t="s">
+      <c r="C140" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="D140" s="170" t="s">
+        <v>113</v>
+      </c>
+      <c r="E140" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="90"/>
-    </row>
-    <row r="48" spans="1:34" ht="26.4" customHeight="1">
-      <c r="A48" s="93"/>
-      <c r="B48" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="86"/>
-    </row>
-    <row r="49" spans="1:6" ht="25.8" customHeight="1">
-      <c r="A49" s="93"/>
-      <c r="B49" s="101" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="86"/>
-    </row>
-    <row r="50" spans="1:6" ht="24.6" customHeight="1">
-      <c r="A50" s="93"/>
-      <c r="B50" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="86"/>
-    </row>
-    <row r="51" spans="1:6" ht="24" customHeight="1">
-      <c r="A51" s="93"/>
-      <c r="B51" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="86"/>
-    </row>
-    <row r="52" spans="1:6" ht="24" customHeight="1">
-      <c r="A52" s="93"/>
-      <c r="B52" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="86"/>
-    </row>
-    <row r="53" spans="1:6" s="143" customFormat="1" ht="19.2" customHeight="1">
-      <c r="A53" s="145"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="146"/>
-      <c r="D53" s="146"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="144"/>
-    </row>
-    <row r="54" spans="1:6" s="87" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A54" s="111"/>
-      <c r="B54" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="119" t="s">
+    </row>
+    <row r="141" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B141" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="119" t="s">
+      <c r="C141" s="125"/>
+      <c r="D141" s="125"/>
+      <c r="E141" s="125"/>
+    </row>
+    <row r="142" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
+      <c r="B142" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" s="86"/>
-    </row>
-    <row r="55" spans="1:6" ht="18.600000000000001" customHeight="1">
-      <c r="A55" s="93"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="86"/>
-    </row>
-    <row r="56" spans="1:6" s="88" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A56" s="93"/>
-      <c r="B56" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="86"/>
-    </row>
-    <row r="57" spans="1:6" ht="25.2" customHeight="1">
-      <c r="A57" s="93"/>
-      <c r="B57" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="93"/>
-      <c r="F57" s="86"/>
-    </row>
-    <row r="58" spans="1:6" ht="24.6" customHeight="1">
-      <c r="A58" s="93"/>
-      <c r="B58" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="86"/>
-    </row>
-    <row r="59" spans="1:6" ht="24" customHeight="1">
-      <c r="A59" s="93"/>
-      <c r="B59" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="86"/>
-    </row>
-    <row r="60" spans="1:6" ht="26.4" customHeight="1">
-      <c r="A60" s="93"/>
-      <c r="B60" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="86"/>
-    </row>
-    <row r="61" spans="1:6" ht="24.6" customHeight="1">
-      <c r="A61" s="93"/>
-      <c r="B61" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="86"/>
-    </row>
-    <row r="62" spans="1:6" s="89" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A62" s="93"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="90"/>
-    </row>
-    <row r="63" spans="1:6" s="143" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A63" s="145"/>
-      <c r="B63" s="129" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" s="119" t="s">
-        <v>155</v>
-      </c>
-      <c r="D63" s="119">
-        <v>43957</v>
-      </c>
-      <c r="E63" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="F63" s="144"/>
-    </row>
-    <row r="64" spans="1:6" s="143" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A64" s="145"/>
-      <c r="B64" s="112" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="146"/>
-      <c r="D64" s="146"/>
-      <c r="E64" s="145"/>
-      <c r="F64" s="144"/>
-    </row>
-    <row r="65" spans="1:6" s="143" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A65" s="145"/>
-      <c r="B65" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="146"/>
-      <c r="D65" s="146"/>
-      <c r="E65" s="145"/>
-      <c r="F65" s="144"/>
-    </row>
-    <row r="66" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B66" s="112" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="121"/>
-      <c r="D66" s="121"/>
-    </row>
-    <row r="67" spans="1:6" s="143" customFormat="1" ht="25.8" customHeight="1">
-      <c r="B67" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="121"/>
-      <c r="D67" s="121"/>
-    </row>
-    <row r="68" spans="1:6" s="143" customFormat="1" ht="23.4" customHeight="1">
-      <c r="B68" s="112" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="121"/>
-      <c r="D68" s="121"/>
-    </row>
-    <row r="69" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B69" s="112" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="121"/>
-      <c r="D69" s="121"/>
-    </row>
-    <row r="70" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B70" s="112" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="121"/>
-      <c r="D70" s="121"/>
-    </row>
-    <row r="71" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B71" s="112"/>
-      <c r="C71" s="121"/>
-      <c r="D71" s="121"/>
-    </row>
-    <row r="72" spans="1:6" s="143" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A72" s="145"/>
-      <c r="B72" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="119">
-        <v>44049</v>
-      </c>
-      <c r="D72" s="119">
-        <v>44171</v>
-      </c>
-      <c r="E72" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="F72" s="144"/>
-    </row>
-    <row r="73" spans="1:6" s="143" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A73" s="145"/>
-      <c r="B73" s="127"/>
-      <c r="C73" s="120"/>
-      <c r="D73" s="120"/>
-      <c r="E73" s="144"/>
-      <c r="F73" s="144"/>
-    </row>
-    <row r="74" spans="1:6" s="143" customFormat="1" ht="24" customHeight="1">
-      <c r="A74" s="145"/>
-      <c r="B74" s="112" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" s="120"/>
-      <c r="D74" s="120"/>
-      <c r="E74" s="144"/>
-      <c r="F74" s="144"/>
-    </row>
-    <row r="75" spans="1:6" s="143" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A75" s="145"/>
-      <c r="B75" s="101" t="s">
-        <v>160</v>
-      </c>
-      <c r="C75" s="120"/>
-      <c r="D75" s="120"/>
-      <c r="E75" s="144"/>
-      <c r="F75" s="144"/>
-    </row>
-    <row r="76" spans="1:6" s="143" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A76" s="145"/>
-      <c r="B76" s="112" t="s">
-        <v>163</v>
-      </c>
-      <c r="C76" s="120"/>
-      <c r="D76" s="120"/>
-      <c r="E76" s="144"/>
-      <c r="F76" s="144"/>
-    </row>
-    <row r="77" spans="1:6" s="143" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A77" s="145"/>
-      <c r="B77" s="112" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" s="120"/>
-      <c r="D77" s="120"/>
-      <c r="E77" s="144"/>
-      <c r="F77" s="144"/>
-    </row>
-    <row r="78" spans="1:6" s="135" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A78" s="131"/>
-      <c r="B78" s="132" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="133"/>
-      <c r="D78" s="133"/>
-      <c r="E78" s="134"/>
-      <c r="F78" s="134"/>
-    </row>
-    <row r="79" spans="1:6" s="135" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A79" s="131"/>
-      <c r="B79" s="132" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" s="133"/>
-      <c r="D79" s="133"/>
-      <c r="E79" s="134"/>
-      <c r="F79" s="134"/>
-    </row>
-    <row r="80" spans="1:6" s="143" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B80" s="144"/>
-      <c r="C80" s="144"/>
-      <c r="D80" s="144"/>
-      <c r="E80" s="144"/>
-    </row>
-    <row r="81" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B81" s="129" t="s">
-        <v>114</v>
-      </c>
-      <c r="C81" s="130" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="E81" s="107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="144" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B82" s="112" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="144" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B83" s="112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B84" s="129" t="s">
-        <v>117</v>
-      </c>
-      <c r="C84" s="130" t="s">
-        <v>120</v>
-      </c>
-      <c r="D84" s="130" t="s">
-        <v>121</v>
-      </c>
-      <c r="E84" s="107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B85" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" s="144"/>
-      <c r="D85" s="144"/>
-      <c r="E85" s="144"/>
-    </row>
-    <row r="86" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B86" s="113" t="s">
-        <v>119</v>
-      </c>
-      <c r="C86" s="144"/>
-      <c r="D86" s="144"/>
-      <c r="E86" s="144"/>
-    </row>
-    <row r="87" spans="1:6" s="143" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C87" s="121"/>
-      <c r="D87" s="121"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B88" s="90"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-    </row>
-    <row r="89" spans="1:6" s="140" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B89" s="144"/>
-      <c r="C89" s="144"/>
-      <c r="D89" s="144"/>
-      <c r="E89" s="144"/>
-    </row>
-    <row r="90" spans="1:6" s="142" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B90" s="144"/>
-      <c r="C90" s="144"/>
-      <c r="D90" s="144"/>
-      <c r="E90" s="144"/>
-    </row>
-    <row r="91" spans="1:6" s="142" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B91" s="144"/>
-      <c r="C91" s="144"/>
-      <c r="D91" s="144"/>
-      <c r="E91" s="144"/>
-    </row>
-    <row r="92" spans="1:6" s="140" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B92" s="144"/>
-      <c r="C92" s="144"/>
-      <c r="D92" s="144"/>
-      <c r="E92" s="144"/>
-    </row>
-    <row r="93" spans="1:6" s="140" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B93" s="113"/>
-      <c r="C93" s="144"/>
-      <c r="D93" s="144"/>
-      <c r="E93" s="144"/>
-    </row>
-    <row r="94" spans="1:6" s="140" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B94" s="113"/>
-      <c r="C94" s="144"/>
-      <c r="D94" s="144"/>
-      <c r="E94" s="144"/>
-    </row>
-    <row r="95" spans="1:6" s="140" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A95" s="141"/>
-      <c r="B95" s="112"/>
-      <c r="C95" s="144"/>
-      <c r="D95" s="144"/>
-      <c r="E95" s="144"/>
-      <c r="F95" s="142"/>
-    </row>
-    <row r="96" spans="1:6" s="140" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A96" s="141"/>
-      <c r="B96" s="112"/>
-      <c r="C96" s="120"/>
-      <c r="D96" s="120"/>
-      <c r="E96" s="142"/>
-      <c r="F96" s="142"/>
-    </row>
-    <row r="97" spans="1:6" s="135" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A97" s="131"/>
-      <c r="B97" s="132"/>
-      <c r="C97" s="133"/>
-      <c r="D97" s="133"/>
-      <c r="E97" s="134"/>
-      <c r="F97" s="134"/>
-    </row>
-    <row r="98" spans="1:6" s="135" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A98" s="131"/>
-      <c r="B98" s="132"/>
-      <c r="C98" s="133"/>
-      <c r="D98" s="133"/>
-      <c r="E98" s="134"/>
-      <c r="F98" s="134"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B99" s="89"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B100" s="89"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B101" s="89"/>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B102" s="89"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B103" s="89"/>
-    </row>
-    <row r="104" spans="1:6" s="143" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A104" s="145"/>
-      <c r="B104" s="129" t="s">
-        <v>147</v>
-      </c>
-      <c r="C104" s="119">
-        <v>43836</v>
-      </c>
-      <c r="D104" s="119">
-        <v>44171</v>
-      </c>
-      <c r="E104" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="F104" s="144"/>
-    </row>
-    <row r="105" spans="1:6" s="143" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A105" s="145"/>
-      <c r="B105" s="112" t="s">
-        <v>106</v>
-      </c>
-      <c r="C105" s="146"/>
-      <c r="D105" s="146"/>
-      <c r="E105" s="145"/>
-      <c r="F105" s="144"/>
-    </row>
-    <row r="106" spans="1:6" s="143" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A106" s="145"/>
-      <c r="B106" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="C106" s="146"/>
-      <c r="D106" s="146"/>
-      <c r="E106" s="145"/>
-      <c r="F106" s="144"/>
-    </row>
-    <row r="107" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B107" s="112" t="s">
-        <v>99</v>
-      </c>
-      <c r="C107" s="121"/>
-      <c r="D107" s="121"/>
-    </row>
-    <row r="108" spans="1:6" s="143" customFormat="1" ht="25.8" customHeight="1">
-      <c r="B108" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="C108" s="121"/>
-      <c r="D108" s="121"/>
-    </row>
-    <row r="109" spans="1:6" s="143" customFormat="1" ht="23.4" customHeight="1">
-      <c r="B109" s="112" t="s">
-        <v>104</v>
-      </c>
-      <c r="C109" s="121"/>
-      <c r="D109" s="121"/>
-    </row>
-    <row r="110" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B110" s="112" t="s">
-        <v>98</v>
-      </c>
-      <c r="C110" s="121"/>
-      <c r="D110" s="121"/>
-    </row>
-    <row r="111" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B111" s="112" t="s">
-        <v>105</v>
-      </c>
-      <c r="C111" s="121"/>
-      <c r="D111" s="121"/>
-    </row>
-    <row r="112" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B112" s="112"/>
-      <c r="C112" s="121"/>
-      <c r="D112" s="121"/>
-    </row>
-    <row r="113" spans="1:6" s="143" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A113" s="145"/>
-      <c r="B113" s="129" t="s">
-        <v>148</v>
-      </c>
-      <c r="C113" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="D113" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="E113" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="F113" s="144"/>
-    </row>
-    <row r="114" spans="1:6" s="143" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A114" s="145"/>
-      <c r="B114" s="127"/>
-      <c r="C114" s="120"/>
-      <c r="D114" s="120"/>
-      <c r="E114" s="144"/>
-      <c r="F114" s="144"/>
-    </row>
-    <row r="115" spans="1:6" s="143" customFormat="1" ht="24" customHeight="1">
-      <c r="A115" s="145"/>
-      <c r="B115" s="112" t="s">
-        <v>136</v>
-      </c>
-      <c r="C115" s="120"/>
-      <c r="D115" s="120"/>
-      <c r="E115" s="144"/>
-      <c r="F115" s="144"/>
-    </row>
-    <row r="116" spans="1:6" s="143" customFormat="1" ht="23.4" customHeight="1">
-      <c r="A116" s="145"/>
-      <c r="B116" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="C116" s="120"/>
-      <c r="D116" s="120"/>
-      <c r="E116" s="144"/>
-      <c r="F116" s="144"/>
-    </row>
-    <row r="117" spans="1:6" s="143" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A117" s="145"/>
-      <c r="B117" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="C117" s="120"/>
-      <c r="D117" s="120"/>
-      <c r="E117" s="144"/>
-      <c r="F117" s="144"/>
-    </row>
-    <row r="118" spans="1:6" s="143" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A118" s="145"/>
-      <c r="B118" s="112" t="s">
-        <v>102</v>
-      </c>
-      <c r="C118" s="120"/>
-      <c r="D118" s="120"/>
-      <c r="E118" s="144"/>
-      <c r="F118" s="144"/>
-    </row>
-    <row r="119" spans="1:6" s="135" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A119" s="131"/>
-      <c r="B119" s="132" t="s">
-        <v>153</v>
-      </c>
-      <c r="C119" s="133"/>
-      <c r="D119" s="133"/>
-      <c r="E119" s="134"/>
-      <c r="F119" s="134"/>
-    </row>
-    <row r="120" spans="1:6" s="135" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A120" s="131"/>
-      <c r="B120" s="132" t="s">
-        <v>138</v>
-      </c>
-      <c r="C120" s="133"/>
-      <c r="D120" s="133"/>
-      <c r="E120" s="134"/>
-      <c r="F120" s="134"/>
-    </row>
-    <row r="121" spans="1:6" s="143" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B121" s="144"/>
-      <c r="C121" s="144"/>
-      <c r="D121" s="144"/>
-      <c r="E121" s="144"/>
-    </row>
-    <row r="122" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B122" s="129" t="s">
-        <v>114</v>
-      </c>
-      <c r="C122" s="130" t="s">
-        <v>115</v>
-      </c>
-      <c r="D122" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="E122" s="107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" s="144" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B123" s="112" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" s="144" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B124" s="112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B125" s="129" t="s">
-        <v>117</v>
-      </c>
-      <c r="C125" s="130" t="s">
-        <v>120</v>
-      </c>
-      <c r="D125" s="130" t="s">
-        <v>121</v>
-      </c>
-      <c r="E125" s="107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B126" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="C126" s="144"/>
-      <c r="D126" s="144"/>
-      <c r="E126" s="144"/>
-    </row>
-    <row r="127" spans="1:6" s="143" customFormat="1" ht="25.2" customHeight="1">
-      <c r="B127" s="113" t="s">
-        <v>119</v>
-      </c>
-      <c r="C127" s="144"/>
-      <c r="D127" s="144"/>
-      <c r="E127" s="144"/>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B128" s="89"/>
-    </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B129" s="89"/>
-    </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B130" s="89"/>
-    </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B131" s="89"/>
-    </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B132" s="89"/>
-    </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B133" s="89"/>
-    </row>
-    <row r="134" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B134" s="89"/>
-    </row>
-    <row r="135" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B135" s="89"/>
-    </row>
-    <row r="136" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B136" s="89"/>
-    </row>
-    <row r="137" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B137" s="89"/>
-    </row>
-    <row r="138" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B138" s="89"/>
-    </row>
-    <row r="139" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B139" s="89"/>
-    </row>
-    <row r="140" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B140" s="89"/>
-    </row>
-    <row r="141" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B141" s="89"/>
-    </row>
-    <row r="142" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B142" s="89"/>
-    </row>
-    <row r="143" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B143" s="89"/>
-    </row>
-    <row r="144" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B144" s="89"/>
+      <c r="C142" s="125"/>
+      <c r="D142" s="125"/>
+      <c r="E142" s="125"/>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B143" s="86"/>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B144" s="86"/>
     </row>
     <row r="145" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B145" s="89"/>
+      <c r="B145" s="86"/>
+    </row>
+    <row r="146" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B146" s="86"/>
+    </row>
+    <row r="147" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B147" s="86"/>
+    </row>
+    <row r="148" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B148" s="86"/>
+    </row>
+    <row r="149" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B149" s="86"/>
+    </row>
+    <row r="150" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B150" s="86"/>
+    </row>
+    <row r="151" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B151" s="86"/>
+    </row>
+    <row r="152" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B152" s="86"/>
+    </row>
+    <row r="153" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B153" s="86"/>
+    </row>
+    <row r="154" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B154" s="86"/>
+    </row>
+    <row r="155" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B155" s="86"/>
+    </row>
+    <row r="156" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B156" s="86"/>
+    </row>
+    <row r="157" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B157" s="86"/>
+    </row>
+    <row r="158" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B158" s="86"/>
+    </row>
+    <row r="159" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B159" s="86"/>
+    </row>
+    <row r="160" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B160" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="AA5:AE5"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="F10">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5160,7 +6041,47 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="F42:F43">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F41 F30:F35 F11:F16 F27">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:F26">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -5170,29 +6091,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF5CBCD6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F19 F11:F13 F24:F27">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF5CBCD6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D16:D19 C9:D13 D24:D28" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(C9))), AND(ISNUMBER(C9), LEFT(CELL("format", C9))="D"))</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D30:D35 D38:D43 C19:D27 C10:D16" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(C10))), AND(ISNUMBER(C10), LEFT(CELL("format", C10))="D"))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5359,15 +6260,15 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -5568,118 +6469,118 @@
       <c r="BO5" s="2"/>
     </row>
     <row r="6" spans="1:67" ht="14.4">
-      <c r="A6" s="147"/>
-      <c r="B6" s="147" t="s">
+      <c r="A6" s="133"/>
+      <c r="B6" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="147" t="s">
+      <c r="E6" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="147" t="s">
+      <c r="F6" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="164" t="s">
+      <c r="G6" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="166" t="s">
+      <c r="H6" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="161" t="s">
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="166" t="s">
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="162"/>
-      <c r="T6" s="162"/>
-      <c r="U6" s="162"/>
-      <c r="V6" s="162"/>
-      <c r="W6" s="161" t="s">
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="162"/>
-      <c r="Y6" s="162"/>
-      <c r="Z6" s="162"/>
-      <c r="AA6" s="162"/>
-      <c r="AB6" s="166" t="s">
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="162"/>
-      <c r="AD6" s="162"/>
-      <c r="AE6" s="162"/>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="161" t="s">
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="162"/>
-      <c r="AI6" s="162"/>
-      <c r="AJ6" s="162"/>
-      <c r="AK6" s="162"/>
-      <c r="AL6" s="166" t="s">
+      <c r="AH6" s="146"/>
+      <c r="AI6" s="146"/>
+      <c r="AJ6" s="146"/>
+      <c r="AK6" s="146"/>
+      <c r="AL6" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="162"/>
-      <c r="AN6" s="162"/>
-      <c r="AO6" s="162"/>
-      <c r="AP6" s="162"/>
-      <c r="AQ6" s="161" t="s">
+      <c r="AM6" s="146"/>
+      <c r="AN6" s="146"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="146"/>
+      <c r="AQ6" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="162"/>
-      <c r="AS6" s="162"/>
-      <c r="AT6" s="162"/>
-      <c r="AU6" s="162"/>
-      <c r="AV6" s="166" t="s">
+      <c r="AR6" s="146"/>
+      <c r="AS6" s="146"/>
+      <c r="AT6" s="146"/>
+      <c r="AU6" s="146"/>
+      <c r="AV6" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="162"/>
-      <c r="AX6" s="162"/>
-      <c r="AY6" s="162"/>
-      <c r="AZ6" s="162"/>
-      <c r="BA6" s="161" t="s">
+      <c r="AW6" s="146"/>
+      <c r="AX6" s="146"/>
+      <c r="AY6" s="146"/>
+      <c r="AZ6" s="146"/>
+      <c r="BA6" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="162"/>
-      <c r="BC6" s="162"/>
-      <c r="BD6" s="162"/>
-      <c r="BE6" s="162"/>
-      <c r="BF6" s="166" t="s">
+      <c r="BB6" s="146"/>
+      <c r="BC6" s="146"/>
+      <c r="BD6" s="146"/>
+      <c r="BE6" s="146"/>
+      <c r="BF6" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="162"/>
-      <c r="BH6" s="162"/>
-      <c r="BI6" s="162"/>
-      <c r="BJ6" s="162"/>
-      <c r="BK6" s="161" t="s">
+      <c r="BG6" s="146"/>
+      <c r="BH6" s="146"/>
+      <c r="BI6" s="146"/>
+      <c r="BJ6" s="146"/>
+      <c r="BK6" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="162"/>
-      <c r="BM6" s="162"/>
-      <c r="BN6" s="162"/>
-      <c r="BO6" s="162"/>
+      <c r="BL6" s="146"/>
+      <c r="BM6" s="146"/>
+      <c r="BN6" s="146"/>
+      <c r="BO6" s="146"/>
     </row>
     <row r="7" spans="1:67" ht="14.4">
-      <c r="A7" s="148"/>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="165"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="150"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -5866,11 +6767,11 @@
         <v>24</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -6417,11 +7318,11 @@
         <v>36</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
@@ -6812,11 +7713,11 @@
         <v>41</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
@@ -7369,11 +8270,11 @@
         <v>48</v>
       </c>
       <c r="B27" s="35"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
@@ -10740,14 +11641,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="BF6:BJ6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="W6:AA6"/>
     <mergeCell ref="BK6:BO6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A3:G3"/>
@@ -10764,6 +11657,14 @@
     <mergeCell ref="AG6:AK6"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="R6:V6"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="BF6:BJ6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="W6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="G9:G14 G16:G19 G21:G26 G28:G31">
     <cfRule type="colorScale" priority="1">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZLaP\Desktop\PFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA319E1-5300-41B1-B1DC-7409F0AC94DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13BE5B3B-DF6B-4998-B7BF-D508328CEEDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7776" yWindow="2580" windowWidth="11148" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart w % Complete" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Manual Chart" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="185">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -595,6 +596,9 @@
   <si>
     <t>Reprise de stage (4/5/2020)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Cloture du projet</t>
+  </si>
 </sst>
 </file>
 
@@ -604,7 +608,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="m&quot;/&quot;d"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="64">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -892,6 +896,130 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -1137,7 +1265,7 @@
     <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1395,6 +1523,209 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="40" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="54" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="54" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="56" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="57" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="62" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1405,13 +1736,43 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1425,118 +1786,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="40" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
@@ -2748,80 +3002,80 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:36" ht="14.4">
-      <c r="A6" s="133"/>
-      <c r="B6" s="133" t="s">
+      <c r="A6" s="216"/>
+      <c r="B6" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="133" t="s">
+      <c r="D6" s="216" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="133" t="s">
+      <c r="F6" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="133" t="s">
+      <c r="G6" s="216" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="133" t="s">
+      <c r="H6" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="133" t="s">
+      <c r="I6" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="133" t="s">
+      <c r="J6" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="136"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="136" t="s">
+      <c r="K6" s="219"/>
+      <c r="L6" s="217"/>
+      <c r="M6" s="217"/>
+      <c r="N6" s="217"/>
+      <c r="O6" s="217"/>
+      <c r="P6" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="135" t="s">
+      <c r="Q6" s="217"/>
+      <c r="R6" s="217"/>
+      <c r="S6" s="217"/>
+      <c r="T6" s="217"/>
+      <c r="U6" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134"/>
-      <c r="Y6" s="134"/>
-      <c r="Z6" s="136" t="s">
+      <c r="V6" s="217"/>
+      <c r="W6" s="217"/>
+      <c r="X6" s="217"/>
+      <c r="Y6" s="217"/>
+      <c r="Z6" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="134"/>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="135" t="s">
+      <c r="AA6" s="217"/>
+      <c r="AB6" s="217"/>
+      <c r="AC6" s="217"/>
+      <c r="AD6" s="217"/>
+      <c r="AE6" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="134"/>
-      <c r="AG6" s="134"/>
-      <c r="AH6" s="134"/>
-      <c r="AI6" s="134"/>
+      <c r="AF6" s="217"/>
+      <c r="AG6" s="217"/>
+      <c r="AH6" s="217"/>
+      <c r="AI6" s="217"/>
       <c r="AJ6" s="49"/>
     </row>
     <row r="7" spans="1:36" ht="14.4">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
+      <c r="A7" s="217"/>
+      <c r="B7" s="217"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="217"/>
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
       <c r="M7" s="49"/>
@@ -2897,7 +3151,7 @@
         <v>43105</v>
       </c>
       <c r="D9" s="58">
-        <f t="shared" ref="D9:D13" si="0">DAY(C9)</f>
+        <f>DAY(C9)</f>
         <v>5</v>
       </c>
       <c r="E9" s="66">
@@ -2956,22 +3210,22 @@
         <v>43108</v>
       </c>
       <c r="D10" s="58">
-        <f t="shared" si="0"/>
+        <f>DAY(C10)</f>
         <v>8</v>
       </c>
       <c r="E10" s="66">
         <v>43111</v>
       </c>
       <c r="F10" s="73">
-        <f t="shared" ref="F10:F29" si="1">DATEDIF(C10,E10,"d")+1</f>
+        <f t="shared" ref="F10:F29" si="0">DATEDIF(C10,E10,"d")+1</f>
         <v>4</v>
       </c>
       <c r="G10" s="60">
-        <f t="shared" ref="G10:G29" si="2">SUM(F10*J10)</f>
+        <f t="shared" ref="G10:G29" si="1">SUM(F10*J10)</f>
         <v>3.2</v>
       </c>
       <c r="H10" s="74">
-        <f t="shared" ref="H10:H29" si="3">SUM(F10-G10)</f>
+        <f t="shared" ref="H10:H29" si="2">SUM(F10-G10)</f>
         <v>0.79999999999999982</v>
       </c>
       <c r="I10" s="57" t="s">
@@ -3015,22 +3269,22 @@
         <v>43111</v>
       </c>
       <c r="D11" s="58">
-        <f t="shared" si="0"/>
+        <f>DAY(C11)</f>
         <v>11</v>
       </c>
       <c r="E11" s="66">
         <v>43116</v>
       </c>
       <c r="F11" s="73">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="60">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G11" s="60">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="H11" s="74">
-        <f t="shared" si="3"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="I11" s="57" t="s">
@@ -3074,22 +3328,22 @@
         <v>43114</v>
       </c>
       <c r="D12" s="58">
-        <f t="shared" si="0"/>
+        <f>DAY(C12)</f>
         <v>14</v>
       </c>
       <c r="E12" s="66">
         <v>43119</v>
       </c>
       <c r="F12" s="73">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G12" s="60">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G12" s="60">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="H12" s="74">
         <f t="shared" si="2"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="H12" s="74">
-        <f t="shared" si="3"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="I12" s="57" t="s">
@@ -3107,22 +3361,22 @@
         <v>43117</v>
       </c>
       <c r="D13" s="58">
-        <f t="shared" si="0"/>
+        <f>DAY(C13)</f>
         <v>17</v>
       </c>
       <c r="E13" s="66">
         <v>43123</v>
       </c>
       <c r="F13" s="73">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G13" s="60">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G13" s="60">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H13" s="74">
         <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="H13" s="74">
-        <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
       <c r="I13" s="57" t="s">
@@ -3154,22 +3408,22 @@
         <v>43109</v>
       </c>
       <c r="D15" s="58">
-        <f t="shared" ref="D15:D18" si="4">DAY(C15)</f>
+        <f>DAY(C15)</f>
         <v>9</v>
       </c>
       <c r="E15" s="66">
         <v>43112</v>
       </c>
       <c r="F15" s="73">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G15" s="60">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G15" s="60">
+      <c r="H15" s="74">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H15" s="74">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15" s="57" t="s">
@@ -3187,22 +3441,22 @@
         <v>43112</v>
       </c>
       <c r="D16" s="58">
-        <f t="shared" si="4"/>
+        <f>DAY(C16)</f>
         <v>12</v>
       </c>
       <c r="E16" s="66">
         <v>43119</v>
       </c>
       <c r="F16" s="73">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="60">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G16" s="60">
+        <v>6.4</v>
+      </c>
+      <c r="H16" s="74">
         <f t="shared" si="2"/>
-        <v>6.4</v>
-      </c>
-      <c r="H16" s="74">
-        <f t="shared" si="3"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="I16" s="57" t="s">
@@ -3220,22 +3474,22 @@
         <v>43117</v>
       </c>
       <c r="D17" s="58">
-        <f t="shared" si="4"/>
+        <f>DAY(C17)</f>
         <v>17</v>
       </c>
       <c r="E17" s="66">
         <v>43119</v>
       </c>
       <c r="F17" s="73">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="60">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G17" s="60">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="H17" s="74">
         <f t="shared" si="2"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="H17" s="74">
-        <f t="shared" si="3"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="I17" s="57" t="s">
@@ -3253,22 +3507,22 @@
         <v>43122</v>
       </c>
       <c r="D18" s="58">
-        <f t="shared" si="4"/>
+        <f>DAY(C18)</f>
         <v>22</v>
       </c>
       <c r="E18" s="66">
         <v>43126</v>
       </c>
       <c r="F18" s="73">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G18" s="60">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G18" s="60">
+        <v>2</v>
+      </c>
+      <c r="H18" s="74">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H18" s="74">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I18" s="57" t="s">
@@ -3300,22 +3554,22 @@
         <v>43115</v>
       </c>
       <c r="D20" s="58">
-        <f t="shared" ref="D20:D24" si="5">DAY(C20)</f>
+        <f>DAY(C20)</f>
         <v>15</v>
       </c>
       <c r="E20" s="66">
         <v>43119</v>
       </c>
       <c r="F20" s="73">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G20" s="60">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G20" s="60">
+      <c r="H20" s="74">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H20" s="74">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I20" s="57" t="s">
@@ -3333,22 +3587,22 @@
         <v>43122</v>
       </c>
       <c r="D21" s="58">
-        <f t="shared" si="5"/>
+        <f>DAY(C21)</f>
         <v>22</v>
       </c>
       <c r="E21" s="66">
         <v>43123</v>
       </c>
       <c r="F21" s="73">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="60">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G21" s="60">
+        <v>1.6</v>
+      </c>
+      <c r="H21" s="74">
         <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-      <c r="H21" s="74">
-        <f t="shared" si="3"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="I21" s="57" t="s">
@@ -3366,22 +3620,22 @@
         <v>43122</v>
       </c>
       <c r="D22" s="58">
-        <f t="shared" si="5"/>
+        <f>DAY(C22)</f>
         <v>22</v>
       </c>
       <c r="E22" s="66">
         <v>43126</v>
       </c>
       <c r="F22" s="73">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G22" s="60">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G22" s="60">
+        <v>3</v>
+      </c>
+      <c r="H22" s="74">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H22" s="74">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I22" s="57" t="s">
@@ -3399,22 +3653,22 @@
         <v>43126</v>
       </c>
       <c r="D23" s="58">
-        <f t="shared" si="5"/>
+        <f>DAY(C23)</f>
         <v>26</v>
       </c>
       <c r="E23" s="66">
         <v>43129</v>
       </c>
       <c r="F23" s="73">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G23" s="60">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G23" s="60">
+        <v>1.6</v>
+      </c>
+      <c r="H23" s="74">
         <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-      <c r="H23" s="74">
-        <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
       <c r="I23" s="57" t="s">
@@ -3432,22 +3686,22 @@
         <v>43122</v>
       </c>
       <c r="D24" s="58">
-        <f t="shared" si="5"/>
+        <f>DAY(C24)</f>
         <v>22</v>
       </c>
       <c r="E24" s="66">
         <v>43125</v>
       </c>
       <c r="F24" s="73">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G24" s="60">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G24" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="H24" s="74">
         <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="H24" s="74">
-        <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
       <c r="I24" s="57" t="s">
@@ -3479,22 +3733,22 @@
         <v>43115</v>
       </c>
       <c r="D26" s="58">
-        <f t="shared" ref="D26:D29" si="6">DAY(C26)</f>
+        <f>DAY(C26)</f>
         <v>15</v>
       </c>
       <c r="E26" s="66">
         <v>43124</v>
       </c>
       <c r="F26" s="73">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G26" s="60">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G26" s="60">
+      <c r="H26" s="74">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H26" s="74">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="57" t="s">
@@ -3512,22 +3766,22 @@
         <v>43125</v>
       </c>
       <c r="D27" s="58">
-        <f t="shared" si="6"/>
+        <f>DAY(C27)</f>
         <v>25</v>
       </c>
       <c r="E27" s="66">
         <v>43130</v>
       </c>
       <c r="F27" s="73">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G27" s="60">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G27" s="60">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="H27" s="74">
         <f t="shared" si="2"/>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="H27" s="74">
-        <f t="shared" si="3"/>
         <v>1.1999999999999993</v>
       </c>
       <c r="I27" s="57" t="s">
@@ -3545,22 +3799,22 @@
         <v>43124</v>
       </c>
       <c r="D28" s="58">
-        <f t="shared" si="6"/>
+        <f>DAY(C28)</f>
         <v>24</v>
       </c>
       <c r="E28" s="66">
         <v>43130</v>
       </c>
       <c r="F28" s="73">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G28" s="60">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G28" s="60">
+        <v>4.2</v>
+      </c>
+      <c r="H28" s="74">
         <f t="shared" si="2"/>
-        <v>4.2</v>
-      </c>
-      <c r="H28" s="74">
-        <f t="shared" si="3"/>
         <v>2.8</v>
       </c>
       <c r="I28" s="57" t="s">
@@ -3578,22 +3832,22 @@
         <v>43130</v>
       </c>
       <c r="D29" s="58">
-        <f t="shared" si="6"/>
+        <f>DAY(C29)</f>
         <v>30</v>
       </c>
       <c r="E29" s="66">
         <v>43131</v>
       </c>
       <c r="F29" s="73">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G29" s="60">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G29" s="60">
+        <v>0</v>
+      </c>
+      <c r="H29" s="74">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="74">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I29" s="57" t="s">
@@ -3702,10 +3956,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH160"/>
+  <dimension ref="A1:AH233"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A141" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L163" sqref="L163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3826,14 +4080,14 @@
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:34" ht="30" customHeight="1">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="228" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -3863,7 +4117,7 @@
     </row>
     <row r="5" spans="1:34" ht="32.4" customHeight="1">
       <c r="A5" s="90"/>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="137" t="s">
         <v>144</v>
       </c>
       <c r="C5" s="108"/>
@@ -3898,49 +4152,49 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:34" s="127" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A6" s="141"/>
-      <c r="B6" s="139" t="s">
+      <c r="A6" s="230"/>
+      <c r="B6" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="155" t="s">
+      <c r="D6" s="233" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="E6" s="231" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="141"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="138"/>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="138"/>
-      <c r="AB6" s="138"/>
-      <c r="AC6" s="138"/>
-      <c r="AD6" s="138"/>
-      <c r="AE6" s="138"/>
-      <c r="AF6" s="153"/>
+      <c r="F6" s="230"/>
+      <c r="L6" s="221"/>
+      <c r="M6" s="221"/>
+      <c r="N6" s="221"/>
+      <c r="O6" s="221"/>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="221"/>
+      <c r="R6" s="221"/>
+      <c r="S6" s="221"/>
+      <c r="T6" s="221"/>
+      <c r="U6" s="221"/>
+      <c r="V6" s="221"/>
+      <c r="W6" s="221"/>
+      <c r="X6" s="221"/>
+      <c r="Y6" s="221"/>
+      <c r="Z6" s="221"/>
+      <c r="AA6" s="221"/>
+      <c r="AB6" s="221"/>
+      <c r="AC6" s="221"/>
+      <c r="AD6" s="221"/>
+      <c r="AE6" s="221"/>
+      <c r="AF6" s="139"/>
     </row>
     <row r="7" spans="1:34" ht="12.6" customHeight="1">
-      <c r="A7" s="141"/>
-      <c r="B7" s="152"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="141"/>
+      <c r="A7" s="230"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="230"/>
       <c r="G7" s="76"/>
       <c r="H7" s="76"/>
       <c r="I7" s="76"/>
@@ -3971,8 +4225,8 @@
     <row r="8" spans="1:34" s="127" customFormat="1" ht="12.6" customHeight="1">
       <c r="A8" s="128"/>
       <c r="B8" s="116"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="162"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="145"/>
       <c r="E8" s="129"/>
       <c r="F8" s="128"/>
       <c r="G8" s="76"/>
@@ -4002,18 +4256,18 @@
       <c r="AE8" s="50"/>
       <c r="AF8" s="50"/>
     </row>
-    <row r="9" spans="1:34" s="157" customFormat="1" ht="42.6" customHeight="1">
+    <row r="9" spans="1:34" s="140" customFormat="1" ht="42.6" customHeight="1">
       <c r="A9" s="128"/>
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="168" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="159">
+      <c r="C9" s="142">
         <v>43892</v>
       </c>
-      <c r="D9" s="159">
+      <c r="D9" s="142">
         <v>44014</v>
       </c>
-      <c r="E9" s="158" t="s">
+      <c r="E9" s="141" t="s">
         <v>167</v>
       </c>
       <c r="F9" s="128"/>
@@ -4180,18 +4434,18 @@
       <c r="AG14" s="130"/>
       <c r="AH14" s="130"/>
     </row>
-    <row r="15" spans="1:34" s="157" customFormat="1" ht="42.6" customHeight="1">
+    <row r="15" spans="1:34" s="140" customFormat="1" ht="45.6" customHeight="1">
       <c r="A15" s="128"/>
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="156">
         <v>44106</v>
       </c>
-      <c r="D15" s="172" t="s">
+      <c r="D15" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="E15" s="174" t="s">
+      <c r="E15" s="157" t="s">
         <v>176</v>
       </c>
       <c r="F15" s="128"/>
@@ -4232,18 +4486,18 @@
       <c r="E16" s="128"/>
       <c r="F16" s="128"/>
     </row>
-    <row r="17" spans="1:34" s="160" customFormat="1" ht="23.4">
+    <row r="17" spans="1:34" s="143" customFormat="1" ht="23.4">
       <c r="A17" s="128"/>
-      <c r="B17" s="189" t="s">
+      <c r="B17" s="170" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="175">
+      <c r="C17" s="158">
         <v>44106</v>
       </c>
-      <c r="D17" s="175" t="s">
+      <c r="D17" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="159" t="s">
         <v>118</v>
       </c>
       <c r="F17" s="128"/>
@@ -4279,8 +4533,8 @@
     <row r="18" spans="1:34" s="127" customFormat="1" ht="15.6" customHeight="1">
       <c r="A18" s="129"/>
       <c r="B18" s="95"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="145"/>
       <c r="E18" s="116"/>
       <c r="F18" s="128"/>
       <c r="AD18" s="130"/>
@@ -4294,9 +4548,9 @@
       <c r="B19" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="177"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="179"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="162"/>
       <c r="F19" s="128"/>
       <c r="G19" s="77"/>
       <c r="H19" s="77"/>
@@ -4332,9 +4586,9 @@
       <c r="B20" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="177"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="179"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="162"/>
       <c r="F20" s="128"/>
       <c r="G20" s="77"/>
       <c r="H20" s="77"/>
@@ -4370,9 +4624,9 @@
       <c r="B21" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="179"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="162"/>
       <c r="F21" s="128"/>
       <c r="G21" s="77"/>
       <c r="H21" s="77"/>
@@ -4408,9 +4662,9 @@
       <c r="B22" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="177"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="179"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="162"/>
       <c r="F22" s="128"/>
       <c r="G22" s="77"/>
       <c r="H22" s="77"/>
@@ -4446,9 +4700,9 @@
       <c r="B23" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="177"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="179"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="162"/>
       <c r="F23" s="128"/>
       <c r="G23" s="77"/>
       <c r="H23" s="77"/>
@@ -4484,9 +4738,9 @@
       <c r="B24" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="179"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="162"/>
       <c r="F24" s="128"/>
       <c r="G24" s="77"/>
       <c r="H24" s="77"/>
@@ -4522,9 +4776,9 @@
       <c r="B25" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="180"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="163"/>
       <c r="F25" s="128"/>
       <c r="G25" s="77"/>
       <c r="H25" s="77"/>
@@ -4562,9 +4816,9 @@
       <c r="B26" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="177"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="180"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="163"/>
       <c r="F26" s="128"/>
       <c r="G26" s="80"/>
       <c r="H26" s="80"/>
@@ -4580,9 +4834,9 @@
     <row r="27" spans="1:34" s="120" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="129"/>
       <c r="B27" s="89"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="180"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="163"/>
       <c r="F27" s="128"/>
       <c r="G27" s="80"/>
       <c r="H27" s="80"/>
@@ -4595,18 +4849,18 @@
       <c r="AG27" s="130"/>
       <c r="AH27" s="130"/>
     </row>
-    <row r="28" spans="1:34" s="171" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="28" spans="1:34" s="154" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A28" s="116"/>
-      <c r="B28" s="190" t="s">
+      <c r="B28" s="171" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="175" t="s">
+      <c r="C28" s="158" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="175" t="s">
+      <c r="D28" s="158" t="s">
         <v>169</v>
       </c>
-      <c r="E28" s="176" t="s">
+      <c r="E28" s="159" t="s">
         <v>120</v>
       </c>
       <c r="F28" s="116"/>
@@ -4642,8 +4896,8 @@
     <row r="29" spans="1:34" ht="13.2" customHeight="1">
       <c r="A29" s="129"/>
       <c r="B29" s="95"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
       <c r="E29" s="116"/>
       <c r="F29" s="128"/>
       <c r="G29" s="130"/>
@@ -4680,9 +4934,9 @@
       <c r="B30" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="177"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="180"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="163"/>
       <c r="F30" s="128"/>
       <c r="G30" s="78"/>
       <c r="H30" s="78"/>
@@ -4700,9 +4954,9 @@
       <c r="B31" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="177"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="180"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="163"/>
       <c r="F31" s="128"/>
       <c r="G31" s="78"/>
       <c r="H31" s="78"/>
@@ -4720,9 +4974,9 @@
       <c r="B32" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="177"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="180"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="163"/>
       <c r="F32" s="128"/>
       <c r="G32" s="78"/>
       <c r="H32" s="78"/>
@@ -4738,9 +4992,9 @@
     <row r="33" spans="1:34" s="127" customFormat="1" ht="16.8" customHeight="1">
       <c r="A33" s="129"/>
       <c r="B33" s="89"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="180"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="163"/>
       <c r="F33" s="128"/>
       <c r="G33" s="80"/>
       <c r="H33" s="80"/>
@@ -4753,18 +5007,18 @@
       <c r="AG33" s="130"/>
       <c r="AH33" s="130"/>
     </row>
-    <row r="34" spans="1:34" s="160" customFormat="1" ht="33.6" customHeight="1">
+    <row r="34" spans="1:34" s="143" customFormat="1" ht="33.6" customHeight="1">
       <c r="A34" s="128"/>
-      <c r="B34" s="191" t="s">
+      <c r="B34" s="172" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="181" t="s">
+      <c r="C34" s="164" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="181" t="s">
+      <c r="D34" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="182" t="s">
+      <c r="E34" s="165" t="s">
         <v>152</v>
       </c>
       <c r="F34" s="128"/>
@@ -4800,7 +5054,7 @@
     <row r="35" spans="1:34" s="127" customFormat="1" ht="16.2" customHeight="1">
       <c r="A35" s="129"/>
       <c r="B35" s="128"/>
-      <c r="C35" s="177"/>
+      <c r="C35" s="160"/>
       <c r="D35" s="97"/>
       <c r="E35" s="99"/>
       <c r="F35" s="128"/>
@@ -5151,12 +5405,12 @@
     </row>
     <row r="59" spans="1:34" s="86" customFormat="1" ht="37.200000000000003" customHeight="1">
       <c r="A59" s="129"/>
-      <c r="B59" s="192" t="s">
+      <c r="B59" s="173" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="183"/>
-      <c r="D59" s="183"/>
-      <c r="E59" s="184"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="166"/>
+      <c r="E59" s="167"/>
       <c r="F59" s="128"/>
     </row>
     <row r="60" spans="1:34" s="82" customFormat="1" ht="26.4" customHeight="1">
@@ -5524,8 +5778,8 @@
       <c r="B92" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="C92" s="161"/>
-      <c r="D92" s="161"/>
+      <c r="C92" s="144"/>
+      <c r="D92" s="144"/>
       <c r="E92" s="116"/>
       <c r="F92" s="116"/>
     </row>
@@ -5534,8 +5788,8 @@
       <c r="B93" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="C93" s="161"/>
-      <c r="D93" s="161"/>
+      <c r="C93" s="144"/>
+      <c r="D93" s="144"/>
       <c r="E93" s="116"/>
       <c r="F93" s="116"/>
     </row>
@@ -5549,16 +5803,16 @@
     </row>
     <row r="95" spans="1:6" s="119" customFormat="1" ht="28.8" customHeight="1">
       <c r="A95" s="116"/>
-      <c r="B95" s="191" t="s">
+      <c r="B95" s="172" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="175" t="s">
+      <c r="C95" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="D95" s="175">
+      <c r="D95" s="158">
         <v>44050</v>
       </c>
-      <c r="E95" s="176" t="s">
+      <c r="E95" s="159" t="s">
         <v>181</v>
       </c>
       <c r="F95" s="116"/>
@@ -5641,108 +5895,108 @@
     </row>
     <row r="105" spans="1:6" s="123" customFormat="1" ht="25.2" customHeight="1">
       <c r="B105" s="125"/>
-      <c r="C105" s="164"/>
-      <c r="D105" s="164"/>
-      <c r="E105" s="164"/>
+      <c r="C105" s="147"/>
+      <c r="D105" s="147"/>
+      <c r="E105" s="147"/>
     </row>
     <row r="106" spans="1:6" s="123" customFormat="1" ht="25.2" customHeight="1">
       <c r="B106" s="125"/>
-      <c r="C106" s="164"/>
-      <c r="D106" s="164"/>
-      <c r="E106" s="164"/>
+      <c r="C106" s="147"/>
+      <c r="D106" s="147"/>
+      <c r="E106" s="147"/>
     </row>
     <row r="107" spans="1:6" s="121" customFormat="1" ht="25.2" customHeight="1">
       <c r="B107" s="125"/>
-      <c r="C107" s="164"/>
-      <c r="D107" s="164"/>
-      <c r="E107" s="164"/>
+      <c r="C107" s="147"/>
+      <c r="D107" s="147"/>
+      <c r="E107" s="147"/>
     </row>
     <row r="108" spans="1:6" s="121" customFormat="1" ht="25.2" customHeight="1">
       <c r="B108" s="106"/>
-      <c r="C108" s="164"/>
-      <c r="D108" s="164"/>
-      <c r="E108" s="164"/>
+      <c r="C108" s="147"/>
+      <c r="D108" s="147"/>
+      <c r="E108" s="147"/>
     </row>
     <row r="109" spans="1:6" s="121" customFormat="1" ht="25.2" customHeight="1">
       <c r="B109" s="106"/>
-      <c r="C109" s="164"/>
-      <c r="D109" s="164"/>
-      <c r="E109" s="164"/>
+      <c r="C109" s="147"/>
+      <c r="D109" s="147"/>
+      <c r="E109" s="147"/>
     </row>
     <row r="110" spans="1:6" s="121" customFormat="1" ht="24.6" customHeight="1">
       <c r="A110" s="122"/>
       <c r="B110" s="105"/>
-      <c r="C110" s="164"/>
-      <c r="D110" s="164"/>
-      <c r="E110" s="164"/>
+      <c r="C110" s="147"/>
+      <c r="D110" s="147"/>
+      <c r="E110" s="147"/>
       <c r="F110" s="123"/>
     </row>
     <row r="111" spans="1:6" s="121" customFormat="1" ht="25.8" customHeight="1">
       <c r="A111" s="122"/>
       <c r="B111" s="105"/>
-      <c r="C111" s="165"/>
-      <c r="D111" s="165"/>
-      <c r="E111" s="164"/>
+      <c r="C111" s="148"/>
+      <c r="D111" s="148"/>
+      <c r="E111" s="147"/>
       <c r="F111" s="123"/>
     </row>
     <row r="112" spans="1:6" s="119" customFormat="1" ht="25.8" customHeight="1">
       <c r="A112" s="116"/>
       <c r="B112" s="117"/>
-      <c r="C112" s="168"/>
-      <c r="D112" s="168"/>
-      <c r="E112" s="169"/>
+      <c r="C112" s="151"/>
+      <c r="D112" s="151"/>
+      <c r="E112" s="152"/>
       <c r="F112" s="118"/>
     </row>
     <row r="113" spans="1:6" s="119" customFormat="1" ht="25.8" customHeight="1">
       <c r="A113" s="116"/>
       <c r="B113" s="117"/>
-      <c r="C113" s="168"/>
-      <c r="D113" s="168"/>
-      <c r="E113" s="169"/>
+      <c r="C113" s="151"/>
+      <c r="D113" s="151"/>
+      <c r="E113" s="152"/>
       <c r="F113" s="118"/>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1">
       <c r="B114" s="86"/>
-      <c r="C114" s="165"/>
-      <c r="D114" s="165"/>
-      <c r="E114" s="163"/>
+      <c r="C114" s="148"/>
+      <c r="D114" s="148"/>
+      <c r="E114" s="146"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1">
       <c r="B115" s="86"/>
-      <c r="C115" s="165"/>
-      <c r="D115" s="165"/>
-      <c r="E115" s="163"/>
+      <c r="C115" s="148"/>
+      <c r="D115" s="148"/>
+      <c r="E115" s="146"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1">
       <c r="B116" s="86"/>
-      <c r="C116" s="165"/>
-      <c r="D116" s="165"/>
-      <c r="E116" s="163"/>
+      <c r="C116" s="148"/>
+      <c r="D116" s="148"/>
+      <c r="E116" s="146"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1">
       <c r="B117" s="86"/>
-      <c r="C117" s="165"/>
-      <c r="D117" s="165"/>
-      <c r="E117" s="163"/>
+      <c r="C117" s="148"/>
+      <c r="D117" s="148"/>
+      <c r="E117" s="146"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1">
       <c r="B118" s="86"/>
-      <c r="C118" s="165"/>
-      <c r="D118" s="165"/>
-      <c r="E118" s="163"/>
+      <c r="C118" s="148"/>
+      <c r="D118" s="148"/>
+      <c r="E118" s="146"/>
     </row>
     <row r="119" spans="1:6" s="124" customFormat="1" ht="24.6" customHeight="1">
       <c r="A119" s="126"/>
       <c r="B119" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="C119" s="167">
+      <c r="C119" s="150">
         <v>43836</v>
       </c>
-      <c r="D119" s="167">
+      <c r="D119" s="150">
         <v>44171</v>
       </c>
-      <c r="E119" s="166" t="s">
+      <c r="E119" s="149" t="s">
         <v>83</v>
       </c>
       <c r="F119" s="125"/>
@@ -5752,9 +6006,9 @@
       <c r="B120" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="C120" s="165"/>
-      <c r="D120" s="165"/>
-      <c r="E120" s="163"/>
+      <c r="C120" s="148"/>
+      <c r="D120" s="148"/>
+      <c r="E120" s="146"/>
       <c r="F120" s="125"/>
     </row>
     <row r="121" spans="1:6" s="124" customFormat="1" ht="24.6" customHeight="1">
@@ -5762,69 +6016,69 @@
       <c r="B121" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="C121" s="165"/>
-      <c r="D121" s="165"/>
-      <c r="E121" s="163"/>
+      <c r="C121" s="148"/>
+      <c r="D121" s="148"/>
+      <c r="E121" s="146"/>
       <c r="F121" s="125"/>
     </row>
     <row r="122" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
       <c r="B122" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="C122" s="165"/>
-      <c r="D122" s="165"/>
-      <c r="E122" s="163"/>
+      <c r="C122" s="148"/>
+      <c r="D122" s="148"/>
+      <c r="E122" s="146"/>
     </row>
     <row r="123" spans="1:6" s="124" customFormat="1" ht="25.8" customHeight="1">
       <c r="B123" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="C123" s="165"/>
-      <c r="D123" s="165"/>
-      <c r="E123" s="163"/>
+      <c r="C123" s="148"/>
+      <c r="D123" s="148"/>
+      <c r="E123" s="146"/>
     </row>
     <row r="124" spans="1:6" s="124" customFormat="1" ht="23.4" customHeight="1">
       <c r="B124" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="C124" s="165"/>
-      <c r="D124" s="165"/>
-      <c r="E124" s="163"/>
+      <c r="C124" s="148"/>
+      <c r="D124" s="148"/>
+      <c r="E124" s="146"/>
     </row>
     <row r="125" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
       <c r="B125" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="C125" s="165"/>
-      <c r="D125" s="165"/>
-      <c r="E125" s="163"/>
+      <c r="C125" s="148"/>
+      <c r="D125" s="148"/>
+      <c r="E125" s="146"/>
     </row>
     <row r="126" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
       <c r="B126" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="C126" s="165"/>
-      <c r="D126" s="165"/>
-      <c r="E126" s="163"/>
+      <c r="C126" s="148"/>
+      <c r="D126" s="148"/>
+      <c r="E126" s="146"/>
     </row>
     <row r="127" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
       <c r="B127" s="105"/>
-      <c r="C127" s="165"/>
-      <c r="D127" s="165"/>
-      <c r="E127" s="163"/>
+      <c r="C127" s="148"/>
+      <c r="D127" s="148"/>
+      <c r="E127" s="146"/>
     </row>
     <row r="128" spans="1:6" s="124" customFormat="1" ht="27.6" customHeight="1">
       <c r="A128" s="126"/>
       <c r="B128" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="C128" s="167" t="s">
+      <c r="C128" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="D128" s="167" t="s">
+      <c r="D128" s="150" t="s">
         <v>105</v>
       </c>
-      <c r="E128" s="166" t="s">
+      <c r="E128" s="149" t="s">
         <v>100</v>
       </c>
       <c r="F128" s="125"/>
@@ -5832,9 +6086,9 @@
     <row r="129" spans="1:6" s="124" customFormat="1" ht="14.4" customHeight="1">
       <c r="A129" s="126"/>
       <c r="B129" s="113"/>
-      <c r="C129" s="165"/>
-      <c r="D129" s="165"/>
-      <c r="E129" s="164"/>
+      <c r="C129" s="148"/>
+      <c r="D129" s="148"/>
+      <c r="E129" s="147"/>
       <c r="F129" s="125"/>
     </row>
     <row r="130" spans="1:6" s="124" customFormat="1" ht="24" customHeight="1">
@@ -5842,9 +6096,9 @@
       <c r="B130" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C130" s="165"/>
-      <c r="D130" s="165"/>
-      <c r="E130" s="164"/>
+      <c r="C130" s="148"/>
+      <c r="D130" s="148"/>
+      <c r="E130" s="147"/>
       <c r="F130" s="125"/>
     </row>
     <row r="131" spans="1:6" s="124" customFormat="1" ht="23.4" customHeight="1">
@@ -5852,9 +6106,9 @@
       <c r="B131" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="C131" s="165"/>
-      <c r="D131" s="165"/>
-      <c r="E131" s="164"/>
+      <c r="C131" s="148"/>
+      <c r="D131" s="148"/>
+      <c r="E131" s="147"/>
       <c r="F131" s="125"/>
     </row>
     <row r="132" spans="1:6" s="124" customFormat="1" ht="24.6" customHeight="1">
@@ -5862,9 +6116,9 @@
       <c r="B132" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="C132" s="165"/>
-      <c r="D132" s="165"/>
-      <c r="E132" s="164"/>
+      <c r="C132" s="148"/>
+      <c r="D132" s="148"/>
+      <c r="E132" s="147"/>
       <c r="F132" s="125"/>
     </row>
     <row r="133" spans="1:6" s="124" customFormat="1" ht="25.8" customHeight="1">
@@ -5872,9 +6126,9 @@
       <c r="B133" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="C133" s="165"/>
-      <c r="D133" s="165"/>
-      <c r="E133" s="164"/>
+      <c r="C133" s="148"/>
+      <c r="D133" s="148"/>
+      <c r="E133" s="147"/>
       <c r="F133" s="125"/>
     </row>
     <row r="134" spans="1:6" s="119" customFormat="1" ht="25.8" customHeight="1">
@@ -5882,9 +6136,9 @@
       <c r="B134" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="C134" s="168"/>
-      <c r="D134" s="168"/>
-      <c r="E134" s="169"/>
+      <c r="C134" s="151"/>
+      <c r="D134" s="151"/>
+      <c r="E134" s="152"/>
       <c r="F134" s="118"/>
     </row>
     <row r="135" spans="1:6" s="119" customFormat="1" ht="25.8" customHeight="1">
@@ -5892,28 +6146,28 @@
       <c r="B135" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="C135" s="168"/>
-      <c r="D135" s="168"/>
-      <c r="E135" s="169"/>
+      <c r="C135" s="151"/>
+      <c r="D135" s="151"/>
+      <c r="E135" s="152"/>
       <c r="F135" s="118"/>
     </row>
     <row r="136" spans="1:6" s="124" customFormat="1" ht="15.75" customHeight="1">
       <c r="B136" s="125"/>
-      <c r="C136" s="164"/>
-      <c r="D136" s="164"/>
-      <c r="E136" s="164"/>
+      <c r="C136" s="147"/>
+      <c r="D136" s="147"/>
+      <c r="E136" s="147"/>
     </row>
     <row r="137" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
       <c r="B137" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="C137" s="170" t="s">
+      <c r="C137" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="D137" s="170" t="s">
+      <c r="D137" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="E137" s="166" t="s">
+      <c r="E137" s="149" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5921,29 +6175,29 @@
       <c r="B138" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="C138" s="164"/>
-      <c r="D138" s="164"/>
-      <c r="E138" s="164"/>
+      <c r="C138" s="147"/>
+      <c r="D138" s="147"/>
+      <c r="E138" s="147"/>
     </row>
     <row r="139" spans="1:6" s="125" customFormat="1" ht="25.2" customHeight="1">
       <c r="B139" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="C139" s="164"/>
-      <c r="D139" s="164"/>
-      <c r="E139" s="164"/>
+      <c r="C139" s="147"/>
+      <c r="D139" s="147"/>
+      <c r="E139" s="147"/>
     </row>
     <row r="140" spans="1:6" s="124" customFormat="1" ht="25.2" customHeight="1">
       <c r="B140" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="C140" s="170" t="s">
+      <c r="C140" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="D140" s="170" t="s">
+      <c r="D140" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="E140" s="166" t="s">
+      <c r="E140" s="149" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5969,56 +6223,1309 @@
     <row r="144" spans="1:6" ht="15.75" customHeight="1">
       <c r="B144" s="86"/>
     </row>
-    <row r="145" spans="2:2" ht="15.75" customHeight="1">
+    <row r="145" spans="1:34" ht="15.75" customHeight="1">
       <c r="B145" s="86"/>
     </row>
-    <row r="146" spans="2:2" ht="15.75" customHeight="1">
+    <row r="146" spans="1:34" ht="15.75" customHeight="1">
       <c r="B146" s="86"/>
     </row>
-    <row r="147" spans="2:2" ht="15.75" customHeight="1">
+    <row r="147" spans="1:34" ht="15.75" customHeight="1">
       <c r="B147" s="86"/>
     </row>
-    <row r="148" spans="2:2" ht="15.75" customHeight="1">
+    <row r="148" spans="1:34" ht="15.75" customHeight="1">
       <c r="B148" s="86"/>
     </row>
-    <row r="149" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B149" s="86"/>
-    </row>
-    <row r="150" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B150" s="86"/>
-    </row>
-    <row r="151" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B151" s="86"/>
-    </row>
-    <row r="152" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B152" s="86"/>
-    </row>
-    <row r="153" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B153" s="86"/>
-    </row>
-    <row r="154" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B154" s="86"/>
-    </row>
-    <row r="155" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B155" s="86"/>
-    </row>
-    <row r="156" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B156" s="86"/>
-    </row>
-    <row r="157" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B157" s="86"/>
-    </row>
-    <row r="158" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B158" s="86"/>
-    </row>
-    <row r="159" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B159" s="86"/>
-    </row>
-    <row r="160" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B160" s="86"/>
+    <row r="149" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A149" s="174"/>
+      <c r="B149" s="174"/>
+      <c r="C149" s="175"/>
+      <c r="D149" s="175"/>
+      <c r="E149" s="174"/>
+      <c r="F149" s="174"/>
+    </row>
+    <row r="150" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A150" s="174"/>
+      <c r="B150" s="174"/>
+      <c r="C150" s="175"/>
+      <c r="D150" s="175"/>
+      <c r="E150" s="174"/>
+      <c r="F150" s="174"/>
+    </row>
+    <row r="151" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A151" s="174"/>
+      <c r="B151" s="174"/>
+      <c r="C151" s="175"/>
+      <c r="D151" s="175"/>
+      <c r="E151" s="174"/>
+      <c r="F151" s="174"/>
+    </row>
+    <row r="152" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A152" s="174"/>
+      <c r="B152" s="174"/>
+      <c r="C152" s="175"/>
+      <c r="D152" s="175"/>
+      <c r="E152" s="174"/>
+      <c r="F152" s="174"/>
+    </row>
+    <row r="153" spans="1:34" ht="15.75" customHeight="1">
+      <c r="A153" s="174"/>
+      <c r="B153" s="174"/>
+      <c r="C153" s="175"/>
+      <c r="D153" s="175"/>
+      <c r="E153" s="174"/>
+      <c r="F153" s="174"/>
+    </row>
+    <row r="154" spans="1:34" s="133" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A154" s="176"/>
+      <c r="B154" s="177" t="s">
+        <v>144</v>
+      </c>
+      <c r="C154" s="178"/>
+      <c r="D154" s="178"/>
+      <c r="E154" s="179"/>
+      <c r="F154" s="179"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+      <c r="P154" s="2"/>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2"/>
+      <c r="S154" s="2"/>
+      <c r="T154" s="2"/>
+      <c r="U154" s="2"/>
+      <c r="V154" s="2"/>
+      <c r="W154" s="2"/>
+      <c r="X154" s="2"/>
+      <c r="Y154" s="2"/>
+      <c r="Z154" s="2"/>
+      <c r="AA154" s="2"/>
+      <c r="AB154" s="2"/>
+      <c r="AC154" s="2"/>
+      <c r="AD154" s="2"/>
+      <c r="AE154" s="2"/>
+      <c r="AF154" s="2"/>
+    </row>
+    <row r="155" spans="1:34" s="133" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A155" s="220"/>
+      <c r="B155" s="222" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="222" t="s">
+        <v>76</v>
+      </c>
+      <c r="D155" s="225" t="s">
+        <v>77</v>
+      </c>
+      <c r="E155" s="222" t="s">
+        <v>78</v>
+      </c>
+      <c r="F155" s="220"/>
+      <c r="L155" s="221"/>
+      <c r="M155" s="221"/>
+      <c r="N155" s="221"/>
+      <c r="O155" s="221"/>
+      <c r="P155" s="221"/>
+      <c r="Q155" s="221"/>
+      <c r="R155" s="221"/>
+      <c r="S155" s="221"/>
+      <c r="T155" s="221"/>
+      <c r="U155" s="221"/>
+      <c r="V155" s="221"/>
+      <c r="W155" s="221"/>
+      <c r="X155" s="221"/>
+      <c r="Y155" s="221"/>
+      <c r="Z155" s="221"/>
+      <c r="AA155" s="221"/>
+      <c r="AB155" s="221"/>
+      <c r="AC155" s="221"/>
+      <c r="AD155" s="221"/>
+      <c r="AE155" s="221"/>
+      <c r="AF155" s="139"/>
+    </row>
+    <row r="156" spans="1:34" s="133" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A156" s="220"/>
+      <c r="B156" s="223"/>
+      <c r="C156" s="224"/>
+      <c r="D156" s="226"/>
+      <c r="E156" s="227"/>
+      <c r="F156" s="220"/>
+      <c r="G156" s="76"/>
+      <c r="H156" s="76"/>
+      <c r="I156" s="76"/>
+      <c r="J156" s="76"/>
+      <c r="K156" s="76"/>
+      <c r="L156" s="50"/>
+      <c r="M156" s="50"/>
+      <c r="N156" s="50"/>
+      <c r="O156" s="50"/>
+      <c r="P156" s="50"/>
+      <c r="Q156" s="50"/>
+      <c r="R156" s="50"/>
+      <c r="S156" s="50"/>
+      <c r="T156" s="50"/>
+      <c r="U156" s="50"/>
+      <c r="V156" s="50"/>
+      <c r="W156" s="50"/>
+      <c r="X156" s="50"/>
+      <c r="Y156" s="50"/>
+      <c r="Z156" s="50"/>
+      <c r="AA156" s="50"/>
+      <c r="AB156" s="50"/>
+      <c r="AC156" s="50"/>
+      <c r="AD156" s="50"/>
+      <c r="AE156" s="50"/>
+      <c r="AF156" s="50"/>
+    </row>
+    <row r="157" spans="1:34" s="133" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A157" s="180"/>
+      <c r="B157" s="181"/>
+      <c r="C157" s="182"/>
+      <c r="D157" s="183"/>
+      <c r="E157" s="174"/>
+      <c r="F157" s="180"/>
+      <c r="G157" s="76"/>
+      <c r="H157" s="76"/>
+      <c r="I157" s="76"/>
+      <c r="J157" s="76"/>
+      <c r="K157" s="76"/>
+      <c r="L157" s="50"/>
+      <c r="M157" s="50"/>
+      <c r="N157" s="50"/>
+      <c r="O157" s="50"/>
+      <c r="P157" s="50"/>
+      <c r="Q157" s="50"/>
+      <c r="R157" s="50"/>
+      <c r="S157" s="50"/>
+      <c r="T157" s="50"/>
+      <c r="U157" s="50"/>
+      <c r="V157" s="50"/>
+      <c r="W157" s="50"/>
+      <c r="X157" s="50"/>
+      <c r="Y157" s="50"/>
+      <c r="Z157" s="50"/>
+      <c r="AA157" s="50"/>
+      <c r="AB157" s="50"/>
+      <c r="AC157" s="50"/>
+      <c r="AD157" s="50"/>
+      <c r="AE157" s="50"/>
+      <c r="AF157" s="50"/>
+    </row>
+    <row r="158" spans="1:34" s="140" customFormat="1" ht="42.6" customHeight="1">
+      <c r="A158" s="180"/>
+      <c r="B158" s="184" t="s">
+        <v>145</v>
+      </c>
+      <c r="C158" s="185">
+        <v>43892</v>
+      </c>
+      <c r="D158" s="185">
+        <v>44014</v>
+      </c>
+      <c r="E158" s="186" t="s">
+        <v>167</v>
+      </c>
+      <c r="F158" s="180"/>
+      <c r="G158" s="134"/>
+      <c r="H158" s="134"/>
+      <c r="I158" s="134"/>
+      <c r="J158" s="134"/>
+      <c r="K158" s="134"/>
+      <c r="L158" s="134"/>
+      <c r="M158" s="134"/>
+      <c r="N158" s="134"/>
+      <c r="O158" s="134"/>
+      <c r="P158" s="134"/>
+      <c r="Q158" s="134"/>
+      <c r="R158" s="134"/>
+      <c r="S158" s="134"/>
+      <c r="T158" s="134"/>
+      <c r="U158" s="134"/>
+      <c r="V158" s="134"/>
+      <c r="W158" s="134"/>
+      <c r="X158" s="134"/>
+      <c r="Y158" s="134"/>
+      <c r="Z158" s="134"/>
+      <c r="AA158" s="134"/>
+      <c r="AB158" s="134"/>
+      <c r="AC158" s="134"/>
+      <c r="AD158" s="134"/>
+      <c r="AE158" s="134"/>
+      <c r="AF158" s="134"/>
+      <c r="AG158" s="134"/>
+      <c r="AH158" s="134"/>
+    </row>
+    <row r="159" spans="1:34" s="140" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A159" s="180"/>
+      <c r="B159" s="180"/>
+      <c r="C159" s="180"/>
+      <c r="D159" s="180"/>
+      <c r="E159" s="180"/>
+      <c r="F159" s="180"/>
+      <c r="G159" s="134"/>
+      <c r="H159" s="134"/>
+      <c r="I159" s="134"/>
+      <c r="J159" s="134"/>
+      <c r="K159" s="134"/>
+      <c r="L159" s="134"/>
+      <c r="M159" s="134"/>
+      <c r="N159" s="134"/>
+      <c r="O159" s="134"/>
+      <c r="P159" s="134"/>
+      <c r="Q159" s="134"/>
+      <c r="R159" s="134"/>
+      <c r="S159" s="134"/>
+      <c r="T159" s="134"/>
+      <c r="U159" s="134"/>
+      <c r="V159" s="134"/>
+      <c r="W159" s="134"/>
+      <c r="X159" s="134"/>
+      <c r="Y159" s="134"/>
+      <c r="Z159" s="134"/>
+      <c r="AA159" s="134"/>
+      <c r="AB159" s="134"/>
+      <c r="AC159" s="134"/>
+      <c r="AD159" s="134"/>
+      <c r="AE159" s="134"/>
+      <c r="AF159" s="134"/>
+      <c r="AG159" s="134"/>
+      <c r="AH159" s="134"/>
+    </row>
+    <row r="160" spans="1:34" s="140" customFormat="1" ht="45.6" customHeight="1">
+      <c r="A160" s="180"/>
+      <c r="B160" s="187" t="s">
+        <v>146</v>
+      </c>
+      <c r="C160" s="188">
+        <v>44106</v>
+      </c>
+      <c r="D160" s="189" t="s">
+        <v>175</v>
+      </c>
+      <c r="E160" s="190" t="s">
+        <v>176</v>
+      </c>
+      <c r="F160" s="180"/>
+      <c r="G160" s="134"/>
+      <c r="H160" s="134"/>
+      <c r="I160" s="134"/>
+      <c r="J160" s="134"/>
+      <c r="K160" s="134"/>
+      <c r="L160" s="134"/>
+      <c r="M160" s="134"/>
+      <c r="N160" s="134"/>
+      <c r="O160" s="134"/>
+      <c r="P160" s="134"/>
+      <c r="Q160" s="134"/>
+      <c r="R160" s="134"/>
+      <c r="S160" s="134"/>
+      <c r="T160" s="134"/>
+      <c r="U160" s="134"/>
+      <c r="V160" s="134"/>
+      <c r="W160" s="134"/>
+      <c r="X160" s="134"/>
+      <c r="Y160" s="134"/>
+      <c r="Z160" s="134"/>
+      <c r="AA160" s="134"/>
+      <c r="AB160" s="134"/>
+      <c r="AC160" s="134"/>
+      <c r="AD160" s="134"/>
+      <c r="AE160" s="134"/>
+      <c r="AF160" s="134"/>
+      <c r="AG160" s="134"/>
+      <c r="AH160" s="134"/>
+    </row>
+    <row r="161" spans="1:34" s="134" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A161" s="180"/>
+      <c r="B161" s="180"/>
+      <c r="C161" s="181"/>
+      <c r="D161" s="181"/>
+      <c r="E161" s="180"/>
+      <c r="F161" s="180"/>
+    </row>
+    <row r="162" spans="1:34" s="143" customFormat="1" ht="28.8">
+      <c r="A162" s="180"/>
+      <c r="B162" s="191" t="s">
+        <v>153</v>
+      </c>
+      <c r="C162" s="192">
+        <v>44106</v>
+      </c>
+      <c r="D162" s="192" t="s">
+        <v>119</v>
+      </c>
+      <c r="E162" s="193" t="s">
+        <v>118</v>
+      </c>
+      <c r="F162" s="180"/>
+      <c r="G162" s="134"/>
+      <c r="H162" s="134"/>
+      <c r="I162" s="134"/>
+      <c r="J162" s="134"/>
+      <c r="K162" s="134"/>
+      <c r="L162" s="134"/>
+      <c r="M162" s="134"/>
+      <c r="N162" s="134"/>
+      <c r="O162" s="134"/>
+      <c r="P162" s="134"/>
+      <c r="Q162" s="134"/>
+      <c r="R162" s="134"/>
+      <c r="S162" s="134"/>
+      <c r="T162" s="134"/>
+      <c r="U162" s="134"/>
+      <c r="V162" s="134"/>
+      <c r="W162" s="134"/>
+      <c r="X162" s="134"/>
+      <c r="Y162" s="134"/>
+      <c r="Z162" s="134"/>
+      <c r="AA162" s="134"/>
+      <c r="AB162" s="134"/>
+      <c r="AC162" s="134"/>
+      <c r="AD162" s="134"/>
+      <c r="AE162" s="134"/>
+      <c r="AF162" s="134"/>
+      <c r="AG162" s="134"/>
+      <c r="AH162" s="134"/>
+    </row>
+    <row r="163" spans="1:34" s="134" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A163" s="180"/>
+      <c r="B163" s="180"/>
+      <c r="C163" s="180"/>
+      <c r="D163" s="180"/>
+      <c r="E163" s="180"/>
+      <c r="F163" s="180"/>
+    </row>
+    <row r="164" spans="1:34" s="154" customFormat="1" ht="40.200000000000003" customHeight="1">
+      <c r="A164" s="181"/>
+      <c r="B164" s="194" t="s">
+        <v>154</v>
+      </c>
+      <c r="C164" s="192" t="s">
+        <v>168</v>
+      </c>
+      <c r="D164" s="192" t="s">
+        <v>169</v>
+      </c>
+      <c r="E164" s="193" t="s">
+        <v>120</v>
+      </c>
+      <c r="F164" s="181"/>
+      <c r="G164" s="118"/>
+      <c r="H164" s="118"/>
+      <c r="I164" s="118"/>
+      <c r="J164" s="118"/>
+      <c r="K164" s="118"/>
+      <c r="L164" s="118"/>
+      <c r="M164" s="118"/>
+      <c r="N164" s="118"/>
+      <c r="O164" s="118"/>
+      <c r="P164" s="118"/>
+      <c r="Q164" s="118"/>
+      <c r="R164" s="118"/>
+      <c r="S164" s="118"/>
+      <c r="T164" s="118"/>
+      <c r="U164" s="118"/>
+      <c r="V164" s="118"/>
+      <c r="W164" s="118"/>
+      <c r="X164" s="118"/>
+      <c r="Y164" s="118"/>
+      <c r="Z164" s="118"/>
+      <c r="AA164" s="118"/>
+      <c r="AB164" s="118"/>
+      <c r="AC164" s="118"/>
+      <c r="AD164" s="134"/>
+      <c r="AE164" s="134"/>
+      <c r="AF164" s="134"/>
+      <c r="AG164" s="134"/>
+      <c r="AH164" s="134"/>
+    </row>
+    <row r="165" spans="1:34" s="134" customFormat="1" ht="12" customHeight="1">
+      <c r="A165" s="180"/>
+      <c r="B165" s="180"/>
+      <c r="C165" s="180"/>
+      <c r="D165" s="180"/>
+      <c r="E165" s="180"/>
+      <c r="F165" s="180"/>
+    </row>
+    <row r="166" spans="1:34" s="143" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A166" s="180"/>
+      <c r="B166" s="195" t="s">
+        <v>155</v>
+      </c>
+      <c r="C166" s="196" t="s">
+        <v>170</v>
+      </c>
+      <c r="D166" s="196" t="s">
+        <v>151</v>
+      </c>
+      <c r="E166" s="197" t="s">
+        <v>152</v>
+      </c>
+      <c r="F166" s="180"/>
+      <c r="G166" s="134"/>
+      <c r="H166" s="134"/>
+      <c r="I166" s="134"/>
+      <c r="J166" s="134"/>
+      <c r="K166" s="134"/>
+      <c r="L166" s="134"/>
+      <c r="M166" s="134"/>
+      <c r="N166" s="134"/>
+      <c r="O166" s="134"/>
+      <c r="P166" s="134"/>
+      <c r="Q166" s="134"/>
+      <c r="R166" s="134"/>
+      <c r="S166" s="134"/>
+      <c r="T166" s="134"/>
+      <c r="U166" s="134"/>
+      <c r="V166" s="134"/>
+      <c r="W166" s="134"/>
+      <c r="X166" s="134"/>
+      <c r="Y166" s="134"/>
+      <c r="Z166" s="134"/>
+      <c r="AA166" s="134"/>
+      <c r="AB166" s="134"/>
+      <c r="AC166" s="134"/>
+      <c r="AD166" s="134"/>
+      <c r="AE166" s="134"/>
+      <c r="AF166" s="134"/>
+      <c r="AG166" s="134"/>
+      <c r="AH166" s="134"/>
+    </row>
+    <row r="167" spans="1:34" s="134" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A167" s="180"/>
+      <c r="B167" s="180"/>
+      <c r="C167" s="180"/>
+      <c r="D167" s="180"/>
+      <c r="E167" s="180"/>
+      <c r="F167" s="180"/>
+    </row>
+    <row r="168" spans="1:34" s="133" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A168" s="180"/>
+      <c r="B168" s="198" t="s">
+        <v>165</v>
+      </c>
+      <c r="C168" s="199" t="s">
+        <v>171</v>
+      </c>
+      <c r="D168" s="199">
+        <v>43954</v>
+      </c>
+      <c r="E168" s="200" t="s">
+        <v>100</v>
+      </c>
+      <c r="F168" s="180"/>
+      <c r="G168" s="80"/>
+      <c r="H168" s="80"/>
+      <c r="I168" s="80"/>
+      <c r="J168" s="80"/>
+      <c r="K168" s="80"/>
+    </row>
+    <row r="169" spans="1:34" s="133" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A169" s="180"/>
+      <c r="B169" s="201"/>
+      <c r="C169" s="202"/>
+      <c r="D169" s="202"/>
+      <c r="E169" s="174"/>
+      <c r="F169" s="180"/>
+      <c r="G169" s="80"/>
+      <c r="H169" s="80"/>
+      <c r="I169" s="80"/>
+      <c r="J169" s="80"/>
+      <c r="K169" s="80"/>
+    </row>
+    <row r="170" spans="1:34" s="133" customFormat="1" ht="24" customHeight="1">
+      <c r="A170" s="203"/>
+      <c r="B170" s="198" t="s">
+        <v>164</v>
+      </c>
+      <c r="C170" s="199">
+        <v>43985</v>
+      </c>
+      <c r="D170" s="199">
+        <v>44168</v>
+      </c>
+      <c r="E170" s="204" t="s">
+        <v>100</v>
+      </c>
+      <c r="F170" s="180"/>
+      <c r="G170" s="80"/>
+      <c r="H170" s="80"/>
+      <c r="I170" s="80"/>
+      <c r="J170" s="80"/>
+      <c r="K170" s="80"/>
+    </row>
+    <row r="171" spans="1:34" s="133" customFormat="1" ht="28.8">
+      <c r="A171" s="174"/>
+      <c r="B171" s="205" t="s">
+        <v>163</v>
+      </c>
+      <c r="C171" s="206" t="s">
+        <v>172</v>
+      </c>
+      <c r="D171" s="206" t="s">
+        <v>173</v>
+      </c>
+      <c r="E171" s="200" t="s">
+        <v>100</v>
+      </c>
+      <c r="F171" s="180"/>
+    </row>
+    <row r="172" spans="1:34" s="133" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="A172" s="174"/>
+      <c r="B172" s="207" t="s">
+        <v>183</v>
+      </c>
+      <c r="C172" s="208"/>
+      <c r="D172" s="208"/>
+      <c r="E172" s="209"/>
+      <c r="F172" s="180"/>
+    </row>
+    <row r="173" spans="1:34" s="82" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A173" s="180"/>
+      <c r="B173" s="210" t="s">
+        <v>177</v>
+      </c>
+      <c r="C173" s="206">
+        <v>43926</v>
+      </c>
+      <c r="D173" s="206" t="s">
+        <v>101</v>
+      </c>
+      <c r="E173" s="200" t="s">
+        <v>83</v>
+      </c>
+      <c r="F173" s="180"/>
+      <c r="G173" s="134"/>
+      <c r="H173" s="134"/>
+      <c r="I173" s="134"/>
+      <c r="J173" s="134"/>
+      <c r="K173" s="134"/>
+      <c r="L173" s="134"/>
+      <c r="M173" s="134"/>
+      <c r="N173" s="134"/>
+      <c r="O173" s="134"/>
+      <c r="P173" s="134"/>
+      <c r="Q173" s="134"/>
+      <c r="R173" s="134"/>
+      <c r="S173" s="134"/>
+      <c r="T173" s="134"/>
+      <c r="U173" s="134"/>
+      <c r="V173" s="134"/>
+      <c r="W173" s="134"/>
+      <c r="X173" s="134"/>
+      <c r="Y173" s="134"/>
+      <c r="Z173" s="134"/>
+      <c r="AA173" s="134"/>
+      <c r="AB173" s="134"/>
+      <c r="AC173" s="134"/>
+      <c r="AD173" s="134"/>
+      <c r="AE173" s="134"/>
+      <c r="AF173" s="134"/>
+      <c r="AG173" s="134"/>
+      <c r="AH173" s="134"/>
+    </row>
+    <row r="174" spans="1:34" s="82" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A174" s="180"/>
+      <c r="B174" s="180"/>
+      <c r="C174" s="180"/>
+      <c r="D174" s="180"/>
+      <c r="E174" s="180"/>
+      <c r="F174" s="180"/>
+      <c r="G174" s="134"/>
+      <c r="H174" s="134"/>
+      <c r="I174" s="134"/>
+      <c r="J174" s="134"/>
+      <c r="K174" s="134"/>
+      <c r="L174" s="134"/>
+      <c r="M174" s="134"/>
+      <c r="N174" s="134"/>
+      <c r="O174" s="134"/>
+      <c r="P174" s="134"/>
+      <c r="Q174" s="134"/>
+      <c r="R174" s="134"/>
+      <c r="S174" s="134"/>
+      <c r="T174" s="134"/>
+      <c r="U174" s="134"/>
+      <c r="V174" s="134"/>
+      <c r="W174" s="134"/>
+      <c r="X174" s="134"/>
+      <c r="Y174" s="134"/>
+      <c r="Z174" s="134"/>
+      <c r="AA174" s="134"/>
+      <c r="AB174" s="134"/>
+      <c r="AC174" s="134"/>
+      <c r="AD174" s="134"/>
+      <c r="AE174" s="134"/>
+      <c r="AF174" s="134"/>
+      <c r="AG174" s="134"/>
+      <c r="AH174" s="134"/>
+    </row>
+    <row r="175" spans="1:34" s="84" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A175" s="211"/>
+      <c r="B175" s="210" t="s">
+        <v>160</v>
+      </c>
+      <c r="C175" s="206" t="s">
+        <v>102</v>
+      </c>
+      <c r="D175" s="206" t="s">
+        <v>103</v>
+      </c>
+      <c r="E175" s="200" t="s">
+        <v>100</v>
+      </c>
+      <c r="F175" s="180"/>
+    </row>
+    <row r="176" spans="1:34" s="84" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A176" s="211"/>
+      <c r="B176" s="180"/>
+      <c r="C176" s="180"/>
+      <c r="D176" s="180"/>
+      <c r="E176" s="180"/>
+      <c r="F176" s="180"/>
+    </row>
+    <row r="177" spans="1:11" s="133" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A177" s="174"/>
+      <c r="B177" s="212" t="s">
+        <v>161</v>
+      </c>
+      <c r="C177" s="206" t="s">
+        <v>137</v>
+      </c>
+      <c r="D177" s="206">
+        <v>43957</v>
+      </c>
+      <c r="E177" s="200" t="s">
+        <v>83</v>
+      </c>
+      <c r="F177" s="180"/>
+    </row>
+    <row r="178" spans="1:11" s="133" customFormat="1" ht="18" customHeight="1">
+      <c r="A178" s="203"/>
+      <c r="B178" s="180"/>
+      <c r="C178" s="180"/>
+      <c r="D178" s="180"/>
+      <c r="E178" s="180"/>
+      <c r="F178" s="180"/>
+      <c r="G178" s="80"/>
+      <c r="H178" s="80"/>
+      <c r="I178" s="80"/>
+      <c r="J178" s="80"/>
+      <c r="K178" s="80"/>
+    </row>
+    <row r="179" spans="1:11" s="133" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A179" s="174"/>
+      <c r="B179" s="212" t="s">
+        <v>162</v>
+      </c>
+      <c r="C179" s="206">
+        <v>44049</v>
+      </c>
+      <c r="D179" s="206" t="s">
+        <v>108</v>
+      </c>
+      <c r="E179" s="200" t="s">
+        <v>83</v>
+      </c>
+      <c r="F179" s="180"/>
+    </row>
+    <row r="180" spans="1:11" s="133" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A180" s="174"/>
+      <c r="B180" s="180"/>
+      <c r="C180" s="180"/>
+      <c r="D180" s="180"/>
+      <c r="E180" s="180"/>
+      <c r="F180" s="180"/>
+    </row>
+    <row r="181" spans="1:11" s="119" customFormat="1" ht="39" customHeight="1">
+      <c r="A181" s="181"/>
+      <c r="B181" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="C181" s="185" t="s">
+        <v>112</v>
+      </c>
+      <c r="D181" s="185">
+        <v>44050</v>
+      </c>
+      <c r="E181" s="186" t="s">
+        <v>181</v>
+      </c>
+      <c r="F181" s="181"/>
+    </row>
+    <row r="182" spans="1:11" s="133" customFormat="1" ht="13.8" hidden="1" customHeight="1">
+      <c r="A182" s="174"/>
+      <c r="B182" s="180"/>
+      <c r="C182" s="180"/>
+      <c r="D182" s="180"/>
+      <c r="E182" s="180"/>
+      <c r="F182" s="174"/>
+    </row>
+    <row r="183" spans="1:11" s="134" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A183" s="180"/>
+      <c r="B183" s="214" t="s">
+        <v>179</v>
+      </c>
+      <c r="C183" s="180"/>
+      <c r="D183" s="180"/>
+      <c r="E183" s="180"/>
+      <c r="F183" s="180"/>
+    </row>
+    <row r="184" spans="1:11" s="134" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="A184" s="180"/>
+      <c r="B184" s="215"/>
+      <c r="C184" s="180"/>
+      <c r="D184" s="180"/>
+      <c r="E184" s="180"/>
+      <c r="F184" s="180"/>
+    </row>
+    <row r="185" spans="1:11" s="133" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A185" s="101"/>
+      <c r="B185" s="89"/>
+      <c r="C185" s="109"/>
+      <c r="D185" s="109"/>
+      <c r="E185" s="101"/>
+      <c r="F185" s="136"/>
+      <c r="G185" s="80"/>
+      <c r="H185" s="80"/>
+      <c r="I185" s="80"/>
+      <c r="J185" s="80"/>
+      <c r="K185" s="80"/>
+    </row>
+    <row r="186" spans="1:11" s="133" customFormat="1" ht="8.4" customHeight="1">
+      <c r="A186" s="101"/>
+      <c r="B186" s="89"/>
+      <c r="C186" s="109"/>
+      <c r="D186" s="109"/>
+      <c r="E186" s="101"/>
+      <c r="F186" s="136"/>
+      <c r="G186" s="80"/>
+      <c r="H186" s="80"/>
+      <c r="I186" s="80"/>
+      <c r="J186" s="80"/>
+      <c r="K186" s="80"/>
+    </row>
+    <row r="187" spans="1:11" s="133" customFormat="1" ht="23.4">
+      <c r="A187" s="135"/>
+      <c r="B187" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="C187" s="110" t="s">
+        <v>172</v>
+      </c>
+      <c r="D187" s="110" t="s">
+        <v>173</v>
+      </c>
+      <c r="E187" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="F187" s="136"/>
+    </row>
+    <row r="188" spans="1:11" s="133" customFormat="1" ht="9.6" customHeight="1">
+      <c r="A188" s="135"/>
+      <c r="B188" s="135"/>
+      <c r="C188" s="132"/>
+      <c r="D188" s="132"/>
+      <c r="E188" s="136"/>
+      <c r="F188" s="136"/>
+    </row>
+    <row r="189" spans="1:11" s="134" customFormat="1" ht="23.4">
+      <c r="A189" s="136"/>
+      <c r="B189" s="135" t="s">
+        <v>89</v>
+      </c>
+      <c r="C189" s="132"/>
+      <c r="D189" s="132"/>
+      <c r="E189" s="136"/>
+      <c r="F189" s="136"/>
+    </row>
+    <row r="190" spans="1:11" s="133" customFormat="1" ht="23.4">
+      <c r="A190" s="135"/>
+      <c r="B190" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="C190" s="132"/>
+      <c r="D190" s="132"/>
+      <c r="E190" s="135"/>
+      <c r="F190" s="136"/>
+    </row>
+    <row r="191" spans="1:11" s="133" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A191" s="135"/>
+      <c r="B191" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="C191" s="132"/>
+      <c r="D191" s="132"/>
+      <c r="E191" s="135"/>
+      <c r="F191" s="136"/>
+    </row>
+    <row r="192" spans="1:11" s="133" customFormat="1" ht="24" customHeight="1">
+      <c r="A192" s="135"/>
+      <c r="B192" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="C192" s="132"/>
+      <c r="D192" s="132"/>
+      <c r="E192" s="135"/>
+      <c r="F192" s="136"/>
+    </row>
+    <row r="193" spans="1:34" s="133" customFormat="1" ht="24" customHeight="1">
+      <c r="A193" s="135"/>
+      <c r="B193" s="95"/>
+      <c r="C193" s="132"/>
+      <c r="D193" s="132"/>
+      <c r="E193" s="135"/>
+      <c r="F193" s="136"/>
+    </row>
+    <row r="194" spans="1:34" s="133" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="A194" s="135"/>
+      <c r="B194" s="173" t="s">
+        <v>183</v>
+      </c>
+      <c r="C194" s="166"/>
+      <c r="D194" s="166"/>
+      <c r="E194" s="167"/>
+      <c r="F194" s="136"/>
+    </row>
+    <row r="195" spans="1:34" s="82" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A195" s="136"/>
+      <c r="B195" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="C195" s="110">
+        <v>43926</v>
+      </c>
+      <c r="D195" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="E195" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="F195" s="136"/>
+      <c r="G195" s="134"/>
+      <c r="H195" s="134"/>
+      <c r="I195" s="134"/>
+      <c r="J195" s="134"/>
+      <c r="K195" s="134"/>
+      <c r="L195" s="134"/>
+      <c r="M195" s="134"/>
+      <c r="N195" s="134"/>
+      <c r="O195" s="134"/>
+      <c r="P195" s="134"/>
+      <c r="Q195" s="134"/>
+      <c r="R195" s="134"/>
+      <c r="S195" s="134"/>
+      <c r="T195" s="134"/>
+      <c r="U195" s="134"/>
+      <c r="V195" s="134"/>
+      <c r="W195" s="134"/>
+      <c r="X195" s="134"/>
+      <c r="Y195" s="134"/>
+      <c r="Z195" s="134"/>
+      <c r="AA195" s="134"/>
+      <c r="AB195" s="134"/>
+      <c r="AC195" s="134"/>
+      <c r="AD195" s="134"/>
+      <c r="AE195" s="134"/>
+      <c r="AF195" s="134"/>
+      <c r="AG195" s="134"/>
+      <c r="AH195" s="134"/>
+    </row>
+    <row r="196" spans="1:34" s="133" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A196" s="135"/>
+      <c r="B196" s="95"/>
+      <c r="C196" s="132"/>
+      <c r="D196" s="132"/>
+      <c r="E196" s="135"/>
+      <c r="F196" s="136"/>
+    </row>
+    <row r="197" spans="1:34" s="133" customFormat="1" ht="23.4">
+      <c r="A197" s="135"/>
+      <c r="B197" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C197" s="132"/>
+      <c r="D197" s="132"/>
+      <c r="E197" s="135"/>
+      <c r="F197" s="136"/>
+    </row>
+    <row r="198" spans="1:34" s="133" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A198" s="135"/>
+      <c r="B198" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="C198" s="132"/>
+      <c r="D198" s="132"/>
+      <c r="E198" s="135"/>
+      <c r="F198" s="136"/>
+    </row>
+    <row r="199" spans="1:34" s="133" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A199" s="135"/>
+      <c r="B199" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C199" s="132"/>
+      <c r="D199" s="132"/>
+      <c r="E199" s="135"/>
+      <c r="F199" s="136"/>
+    </row>
+    <row r="200" spans="1:34" s="133" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A200" s="135"/>
+      <c r="B200" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C200" s="132"/>
+      <c r="D200" s="132"/>
+      <c r="E200" s="135"/>
+      <c r="F200" s="136"/>
+    </row>
+    <row r="201" spans="1:34" s="133" customFormat="1" ht="24" customHeight="1">
+      <c r="A201" s="135"/>
+      <c r="B201" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="C201" s="132"/>
+      <c r="D201" s="132"/>
+      <c r="E201" s="135"/>
+      <c r="F201" s="136"/>
+    </row>
+    <row r="202" spans="1:34" s="133" customFormat="1" ht="24" customHeight="1">
+      <c r="A202" s="135"/>
+      <c r="B202" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="C202" s="132"/>
+      <c r="D202" s="132"/>
+      <c r="E202" s="135"/>
+      <c r="F202" s="136"/>
+    </row>
+    <row r="203" spans="1:34" s="133" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A203" s="135"/>
+      <c r="B203" s="95"/>
+      <c r="C203" s="132"/>
+      <c r="D203" s="132"/>
+      <c r="E203" s="135"/>
+      <c r="F203" s="136"/>
+    </row>
+    <row r="204" spans="1:34" s="84" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A204" s="104"/>
+      <c r="B204" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="C204" s="110" t="s">
+        <v>102</v>
+      </c>
+      <c r="D204" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="E204" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="F204" s="136"/>
+    </row>
+    <row r="205" spans="1:34" s="133" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A205" s="135"/>
+      <c r="B205" s="95"/>
+      <c r="C205" s="132"/>
+      <c r="D205" s="132"/>
+      <c r="E205" s="135"/>
+      <c r="F205" s="136"/>
+    </row>
+    <row r="206" spans="1:34" s="133" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A206" s="135"/>
+      <c r="B206" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="C206" s="132"/>
+      <c r="D206" s="132"/>
+      <c r="E206" s="135"/>
+      <c r="F206" s="136"/>
+    </row>
+    <row r="207" spans="1:34" s="133" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A207" s="135"/>
+      <c r="B207" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C207" s="132"/>
+      <c r="D207" s="132"/>
+      <c r="E207" s="135"/>
+      <c r="F207" s="136"/>
+    </row>
+    <row r="208" spans="1:34" s="133" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A208" s="135"/>
+      <c r="B208" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C208" s="132"/>
+      <c r="D208" s="132"/>
+      <c r="E208" s="135"/>
+      <c r="F208" s="136"/>
+    </row>
+    <row r="209" spans="1:6" s="133" customFormat="1" ht="24" customHeight="1">
+      <c r="A209" s="135"/>
+      <c r="B209" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C209" s="132"/>
+      <c r="D209" s="132"/>
+      <c r="E209" s="135"/>
+      <c r="F209" s="136"/>
+    </row>
+    <row r="210" spans="1:6" s="133" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A210" s="135"/>
+      <c r="B210" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C210" s="132"/>
+      <c r="D210" s="132"/>
+      <c r="E210" s="135"/>
+      <c r="F210" s="136"/>
+    </row>
+    <row r="211" spans="1:6" s="133" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A211" s="135"/>
+      <c r="B211" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="C211" s="132"/>
+      <c r="D211" s="132"/>
+      <c r="E211" s="135"/>
+      <c r="F211" s="136"/>
+    </row>
+    <row r="212" spans="1:6" s="133" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A212" s="135"/>
+      <c r="B212" s="95"/>
+      <c r="C212" s="132"/>
+      <c r="D212" s="132"/>
+      <c r="E212" s="135"/>
+      <c r="F212" s="136"/>
+    </row>
+    <row r="213" spans="1:6" s="133" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A213" s="135"/>
+      <c r="B213" s="115" t="s">
+        <v>161</v>
+      </c>
+      <c r="C213" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="D213" s="110">
+        <v>43957</v>
+      </c>
+      <c r="E213" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="F213" s="136"/>
+    </row>
+    <row r="214" spans="1:6" s="133" customFormat="1" ht="24" customHeight="1">
+      <c r="A214" s="135"/>
+      <c r="B214" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="C214" s="132"/>
+      <c r="D214" s="132"/>
+      <c r="E214" s="135"/>
+      <c r="F214" s="136"/>
+    </row>
+    <row r="215" spans="1:6" s="133" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A215" s="135"/>
+      <c r="B215" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="C215" s="132"/>
+      <c r="D215" s="132"/>
+      <c r="E215" s="135"/>
+      <c r="F215" s="135"/>
+    </row>
+    <row r="216" spans="1:6" s="133" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A216" s="135"/>
+      <c r="B216" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="C216" s="132"/>
+      <c r="D216" s="132"/>
+      <c r="E216" s="135"/>
+      <c r="F216" s="135"/>
+    </row>
+    <row r="217" spans="1:6" s="133" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A217" s="135"/>
+      <c r="B217" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="C217" s="132"/>
+      <c r="D217" s="132"/>
+      <c r="E217" s="135"/>
+      <c r="F217" s="135"/>
+    </row>
+    <row r="218" spans="1:6" s="133" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A218" s="135"/>
+      <c r="B218" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="C218" s="132"/>
+      <c r="D218" s="132"/>
+      <c r="E218" s="135"/>
+      <c r="F218" s="135"/>
+    </row>
+    <row r="219" spans="1:6" s="133" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A219" s="135"/>
+      <c r="B219" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="C219" s="132"/>
+      <c r="D219" s="132"/>
+      <c r="E219" s="135"/>
+      <c r="F219" s="135"/>
+    </row>
+    <row r="220" spans="1:6" s="133" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A220" s="135"/>
+      <c r="B220" s="105"/>
+      <c r="C220" s="132"/>
+      <c r="D220" s="132"/>
+      <c r="E220" s="135"/>
+      <c r="F220" s="135"/>
+    </row>
+    <row r="221" spans="1:6" s="133" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A221" s="135"/>
+      <c r="B221" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C221" s="110">
+        <v>44049</v>
+      </c>
+      <c r="D221" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E221" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="F221" s="136"/>
+    </row>
+    <row r="222" spans="1:6" s="133" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A222" s="135"/>
+      <c r="B222" s="135"/>
+      <c r="C222" s="132"/>
+      <c r="D222" s="132"/>
+      <c r="E222" s="136"/>
+      <c r="F222" s="136"/>
+    </row>
+    <row r="223" spans="1:6" s="133" customFormat="1" ht="24" customHeight="1">
+      <c r="A223" s="135"/>
+      <c r="B223" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="C223" s="132"/>
+      <c r="D223" s="132"/>
+      <c r="E223" s="136"/>
+      <c r="F223" s="136"/>
+    </row>
+    <row r="224" spans="1:6" s="133" customFormat="1" ht="23.4" customHeight="1">
+      <c r="A224" s="135"/>
+      <c r="B224" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C224" s="132"/>
+      <c r="D224" s="132"/>
+      <c r="E224" s="136"/>
+      <c r="F224" s="136"/>
+    </row>
+    <row r="225" spans="1:6" s="133" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A225" s="135"/>
+      <c r="B225" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C225" s="132"/>
+      <c r="D225" s="132"/>
+      <c r="E225" s="136"/>
+      <c r="F225" s="136"/>
+    </row>
+    <row r="226" spans="1:6" s="133" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A226" s="135"/>
+      <c r="B226" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C226" s="132"/>
+      <c r="D226" s="132"/>
+      <c r="E226" s="136"/>
+      <c r="F226" s="136"/>
+    </row>
+    <row r="227" spans="1:6" s="119" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A227" s="138"/>
+      <c r="B227" s="117" t="s">
+        <v>141</v>
+      </c>
+      <c r="C227" s="144"/>
+      <c r="D227" s="144"/>
+      <c r="E227" s="138"/>
+      <c r="F227" s="138"/>
+    </row>
+    <row r="228" spans="1:6" s="119" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A228" s="138"/>
+      <c r="B228" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="C228" s="144"/>
+      <c r="D228" s="144"/>
+      <c r="E228" s="138"/>
+      <c r="F228" s="138"/>
+    </row>
+    <row r="229" spans="1:6" s="133" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A229" s="135"/>
+      <c r="B229" s="136"/>
+      <c r="C229" s="136"/>
+      <c r="D229" s="136"/>
+      <c r="E229" s="136"/>
+      <c r="F229" s="135"/>
+    </row>
+    <row r="230" spans="1:6" s="119" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A230" s="138"/>
+      <c r="B230" s="172" t="s">
+        <v>182</v>
+      </c>
+      <c r="C230" s="158" t="s">
+        <v>112</v>
+      </c>
+      <c r="D230" s="158">
+        <v>44050</v>
+      </c>
+      <c r="E230" s="159" t="s">
+        <v>181</v>
+      </c>
+      <c r="F230" s="138"/>
+    </row>
+    <row r="231" spans="1:6" s="133" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A231" s="135"/>
+      <c r="B231" s="134"/>
+      <c r="C231" s="134"/>
+      <c r="D231" s="134"/>
+      <c r="E231" s="134"/>
+      <c r="F231" s="135"/>
+    </row>
+    <row r="232" spans="1:6" s="134" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A232" s="136"/>
+      <c r="B232" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="C232" s="136"/>
+      <c r="D232" s="136"/>
+      <c r="E232" s="136"/>
+      <c r="F232" s="136"/>
+    </row>
+    <row r="233" spans="1:6" s="134" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="A233" s="136"/>
+      <c r="B233" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C233" s="136"/>
+      <c r="D233" s="136"/>
+      <c r="E233" s="136"/>
+      <c r="F233" s="136"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="21">
     <mergeCell ref="AA6:AE6"/>
     <mergeCell ref="V6:Z6"/>
     <mergeCell ref="Q6:U6"/>
@@ -6030,8 +7537,48 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="L155:P155"/>
+    <mergeCell ref="Q155:U155"/>
+    <mergeCell ref="V155:Z155"/>
+    <mergeCell ref="AA155:AE155"/>
   </mergeCells>
   <conditionalFormatting sqref="F10">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:F43">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F41 F30:F35 F11:F16 F27">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -6041,7 +7588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F43">
+  <conditionalFormatting sqref="F20:F24">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -6051,8 +7598,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F41 F30:F35 F11:F16 F27">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="F25:F26">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6061,8 +7608,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="F160:F161">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6071,17 +7618,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F24">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF5CBCD6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F26">
+  <conditionalFormatting sqref="F166:F167">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -6092,7 +7629,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D30:D35 D38:D43 C19:D27 C10:D16" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D30:D35 D38:D43 C19:D27 C10:D16 C160:D161 D166:D167" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(C10))), AND(ISNUMBER(C10), LEFT(CELL("format", C10))="D"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -6260,15 +7797,15 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -6469,118 +8006,118 @@
       <c r="BO5" s="2"/>
     </row>
     <row r="6" spans="1:67" ht="14.4">
-      <c r="A6" s="133"/>
-      <c r="B6" s="133" t="s">
+      <c r="A6" s="216"/>
+      <c r="B6" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="133" t="s">
+      <c r="D6" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="133" t="s">
+      <c r="F6" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="149" t="s">
+      <c r="G6" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="145" t="s">
+      <c r="H6" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="147" t="s">
+      <c r="I6" s="241"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="145" t="s">
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="240" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="147" t="s">
+      <c r="S6" s="241"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="241"/>
+      <c r="V6" s="241"/>
+      <c r="W6" s="242" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="145" t="s">
+      <c r="X6" s="241"/>
+      <c r="Y6" s="241"/>
+      <c r="Z6" s="241"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="146"/>
-      <c r="AF6" s="146"/>
-      <c r="AG6" s="147" t="s">
+      <c r="AC6" s="241"/>
+      <c r="AD6" s="241"/>
+      <c r="AE6" s="241"/>
+      <c r="AF6" s="241"/>
+      <c r="AG6" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="146"/>
-      <c r="AI6" s="146"/>
-      <c r="AJ6" s="146"/>
-      <c r="AK6" s="146"/>
-      <c r="AL6" s="145" t="s">
+      <c r="AH6" s="241"/>
+      <c r="AI6" s="241"/>
+      <c r="AJ6" s="241"/>
+      <c r="AK6" s="241"/>
+      <c r="AL6" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="146"/>
-      <c r="AN6" s="146"/>
-      <c r="AO6" s="146"/>
-      <c r="AP6" s="146"/>
-      <c r="AQ6" s="147" t="s">
+      <c r="AM6" s="241"/>
+      <c r="AN6" s="241"/>
+      <c r="AO6" s="241"/>
+      <c r="AP6" s="241"/>
+      <c r="AQ6" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="146"/>
-      <c r="AS6" s="146"/>
-      <c r="AT6" s="146"/>
-      <c r="AU6" s="146"/>
-      <c r="AV6" s="145" t="s">
+      <c r="AR6" s="241"/>
+      <c r="AS6" s="241"/>
+      <c r="AT6" s="241"/>
+      <c r="AU6" s="241"/>
+      <c r="AV6" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="146"/>
-      <c r="AX6" s="146"/>
-      <c r="AY6" s="146"/>
-      <c r="AZ6" s="146"/>
-      <c r="BA6" s="147" t="s">
+      <c r="AW6" s="241"/>
+      <c r="AX6" s="241"/>
+      <c r="AY6" s="241"/>
+      <c r="AZ6" s="241"/>
+      <c r="BA6" s="242" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="146"/>
-      <c r="BC6" s="146"/>
-      <c r="BD6" s="146"/>
-      <c r="BE6" s="146"/>
-      <c r="BF6" s="145" t="s">
+      <c r="BB6" s="241"/>
+      <c r="BC6" s="241"/>
+      <c r="BD6" s="241"/>
+      <c r="BE6" s="241"/>
+      <c r="BF6" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="146"/>
-      <c r="BH6" s="146"/>
-      <c r="BI6" s="146"/>
-      <c r="BJ6" s="146"/>
-      <c r="BK6" s="147" t="s">
+      <c r="BG6" s="241"/>
+      <c r="BH6" s="241"/>
+      <c r="BI6" s="241"/>
+      <c r="BJ6" s="241"/>
+      <c r="BK6" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="146"/>
-      <c r="BM6" s="146"/>
-      <c r="BN6" s="146"/>
-      <c r="BO6" s="146"/>
+      <c r="BL6" s="241"/>
+      <c r="BM6" s="241"/>
+      <c r="BN6" s="241"/>
+      <c r="BO6" s="241"/>
     </row>
     <row r="7" spans="1:67" ht="14.4">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="150"/>
+      <c r="A7" s="217"/>
+      <c r="B7" s="217"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="246"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -6767,11 +8304,11 @@
         <v>24</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="238"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -6844,7 +8381,7 @@
         <v>43108</v>
       </c>
       <c r="E9" s="21">
-        <f>NETWORKDAYS(C9,D9)</f>
+        <f t="shared" ref="E9:E14" si="0">NETWORKDAYS(C9,D9)</f>
         <v>2</v>
       </c>
       <c r="F9" s="19" t="s">
@@ -6919,7 +8456,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="21">
-        <f t="shared" ref="E10:E14" si="0">NETWORKDAYS(C10,D10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -7318,11 +8855,11 @@
         <v>36</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="238"/>
+      <c r="G15" s="238"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37"/>
       <c r="J15" s="38"/>
@@ -7476,7 +9013,7 @@
         <v>43144</v>
       </c>
       <c r="E17" s="21">
-        <f t="shared" ref="E17:E19" si="1">NETWORKDAYS(C17,D17)</f>
+        <f>NETWORKDAYS(C17,D17)</f>
         <v>4</v>
       </c>
       <c r="F17" s="19" t="s">
@@ -7557,7 +9094,7 @@
         <v>43147</v>
       </c>
       <c r="E18" s="21">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(C18,D18)</f>
         <v>5</v>
       </c>
       <c r="F18" s="19" t="s">
@@ -7638,7 +9175,7 @@
         <v>43154</v>
       </c>
       <c r="E19" s="21">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(C19,D19)</f>
         <v>8</v>
       </c>
       <c r="F19" s="19" t="s">
@@ -7713,11 +9250,11 @@
         <v>41</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="238"/>
+      <c r="F20" s="238"/>
+      <c r="G20" s="238"/>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="38"/>
@@ -7790,7 +9327,7 @@
         <v>43167</v>
       </c>
       <c r="E21" s="21">
-        <f>NETWORKDAYS(C21,D21)</f>
+        <f t="shared" ref="E21:E26" si="1">NETWORKDAYS(C21,D21)</f>
         <v>4</v>
       </c>
       <c r="F21" s="19" t="s">
@@ -7871,7 +9408,7 @@
         <v>43172</v>
       </c>
       <c r="E22" s="21">
-        <f t="shared" ref="E22:E26" si="2">NETWORKDAYS(C22,D22)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F22" s="19" t="s">
@@ -7952,7 +9489,7 @@
         <v>43175</v>
       </c>
       <c r="E23" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F23" s="19" t="s">
@@ -8033,7 +9570,7 @@
         <v>43178</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F24" s="19" t="s">
@@ -8114,7 +9651,7 @@
         <v>43180</v>
       </c>
       <c r="E25" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F25" s="19" t="s">
@@ -8195,7 +9732,7 @@
         <v>43184</v>
       </c>
       <c r="E26" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F26" s="19" t="s">
@@ -8270,11 +9807,11 @@
         <v>48</v>
       </c>
       <c r="B27" s="35"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
+      <c r="C27" s="237"/>
+      <c r="D27" s="238"/>
+      <c r="E27" s="238"/>
+      <c r="F27" s="238"/>
+      <c r="G27" s="238"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
       <c r="J27" s="38"/>
@@ -8428,7 +9965,7 @@
         <v>43200</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" ref="E29:E31" si="3">NETWORKDAYS(C29,D29)</f>
+        <f>NETWORKDAYS(C29,D29)</f>
         <v>2</v>
       </c>
       <c r="F29" s="19" t="s">
@@ -8509,7 +10046,7 @@
         <v>43206</v>
       </c>
       <c r="E30" s="21">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(C30,D30)</f>
         <v>4</v>
       </c>
       <c r="F30" s="19" t="s">
@@ -8590,7 +10127,7 @@
         <v>43208</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(C31,D31)</f>
         <v>3</v>
       </c>
       <c r="F31" s="19" t="s">
